--- a/media/articulos_filtrados.xlsx
+++ b/media/articulos_filtrados.xlsx
@@ -1629,27 +1629,27 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>02/10/2025</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>6.600,00</t>
+          <t>9.350,00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>10.909,09</t>
+          <t>11.983,47</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>13.200,00</t>
+          <t>14.500,00</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>28,17</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,11 @@
           <t>Cosmetica natural</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Shampoos y Acondicionadores</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -7705,12 +7709,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>29/09/2025</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>3.250,00</t>
+          <t>3.500,00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7725,7 +7729,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>72,92</t>
+          <t>60,57</t>
         </is>
       </c>
     </row>
@@ -7788,12 +7792,12 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>29/09/2025</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>3.250,00</t>
+          <t>3.500,00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7808,7 +7812,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>72,92</t>
+          <t>60,57</t>
         </is>
       </c>
     </row>
@@ -7871,12 +7875,12 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>29/09/2025</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>3.250,00</t>
+          <t>3.500,00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7891,7 +7895,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>72,92</t>
+          <t>60,57</t>
         </is>
       </c>
     </row>
@@ -7950,12 +7954,12 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>29/09/2025</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>3.250,00</t>
+          <t>3.500,00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7970,7 +7974,7 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>72,92</t>
+          <t>60,57</t>
         </is>
       </c>
     </row>
@@ -8548,12 +8552,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Jugo Manzana roja Pura Frutta 1 lt</t>
+          <t>Jugo de Manzana roja Pura Frutta 1 lt</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Jugo Manzana roja Pura Frutta 1 lt</t>
+          <t>Jugo de Manzana roja Pura Frutta 1 lt</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8561,11 +8565,7 @@
           <t>Jugo de manzana roja, 100% natural, sin aditivos, ideal para disfrutar en cualquier momento.</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Mi Soja (Soja SRL)</t>
-        </is>
-      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
@@ -15456,7 +15456,11 @@
           <t>Cosmetica natural</t>
         </is>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Shampoos y Acondicionadores</t>
+        </is>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>21,00</t>

--- a/media/articulos_filtrados.xlsx
+++ b/media/articulos_filtrados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q238"/>
+  <dimension ref="A1:Q239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,10 +1024,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aceite de coco MCT PREMIUM GOD BLES YOU</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Aceite de coco 200ml MCT PREMIUM GOD BLES YOU</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Aceite de coco liquido MCT premium, ideal para cocinar y como suplemento energetico saludable.
+envase de  200ml</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -1035,7 +1040,11 @@
           <t>Aceites y Conservas</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -1098,7 +1107,12 @@
           <t>Aceite de Coco virgen spray 190ml CHI GRAAL</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aceite de coco virgen en aerosol. Prensado en frío, con sabor y aroma natural a coco. Simple, práctico y rendidor. Apto para veganos. Apto Kosher
+</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -1106,7 +1120,11 @@
           <t>Aceites y Conservas</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -1169,11 +1187,23 @@
           <t>Aceite de Coco spray neutro 190ml CHIA GRAAL</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Aceite de coco neutro en Aerosol.Simple, práctico y rendidor. Agitas, rocias y listo!</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Aceites y Conservas</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -7161,7 +7191,11 @@
           <t>FRUCH chips de manzana roja sin azucar</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Manzana Roja Deshidratada Fruch Fruta es una opción deliciosa y saludable para aquellos que buscan un snack nutritivo y fácil de llevar. </t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
@@ -8922,7 +8956,11 @@
           <t>Jugo de Arandanos organico 1lt LAS BRISAS</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Jugo organico de arandano x 910ml - Las Brisas, antioxidante y sabroso, perfecto para disfrutar frio en cualquier momento.</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr">
         <is>
           <t>Green &amp; CO</t>
@@ -8997,7 +9035,11 @@
           <t>Jugo de Arandanos organico 330ml LAS BRISAS</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Jugo organico de arandano sin azucar de 330ml, una bebida refrescante y saludable para disfrutar en cualquier momento.</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr">
         <is>
           <t>Green &amp; CO</t>
@@ -9006,7 +9048,7 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -11404,7 +11446,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">48KG </t>
+          <t xml:space="preserve">96OF </t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -11414,29 +11456,31 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel15 </t>
+          <t xml:space="preserve">PLUT0067 </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Nuez Pecan 100grs</t>
+          <t>NUEVAS! Cortezas oliva y maiz 250grs</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Nuez Pecan 100grs</t>
+          <t>NUEVAS! Cortezas oliva y maiz 250grs</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Nueces pecanas, con un sabor dulce y mantecoso, ideales para postres y ensaladas.</t>
+          <t>Galletas super crocantes saladas.
+Elaborada con Harina 100% integral, masa madre, aceite de oliva y maiz. Perfectas para Dipear.
+PRODUCTO VEGANO</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
+          <t>Panificados Integrales</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -11452,543 +11496,539 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>1.250,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2.314,05</t>
+          <t>4.338,84</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>2.800,00</t>
+          <t>5.250,00</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>85,12</t>
+          <t>0,00</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t xml:space="preserve">48KG </t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Granel15 </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Nuez Pecan 100grs</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Nuez Pecan 100grs</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Nueces pecanas, con un sabor dulce y mantecoso, ideales para postres y ensaladas.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>1.250,00</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>2.314,05</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>2.800,00</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>85,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
           <t xml:space="preserve">87PO </t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0006 </t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>Pan de arroz yamani Plutarco</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>Pan de arroz yamani Plutarco</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t xml:space="preserve">Pan Artesanal elaborado a base de Arroz Yamani, feculas y aceite de oliva organico. 
 Libre de gluten (contiene contaminacion cruzada)
 PRODUCTO VEGANO </t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr">
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
         <is>
           <t>Panificados Integrales</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
         <is>
           <t>10,50</t>
         </is>
       </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>17/09/2025</t>
         </is>
       </c>
-      <c r="N141" t="inlineStr">
+      <c r="N142" t="inlineStr">
         <is>
           <t>3.933,33</t>
         </is>
       </c>
-      <c r="O141" t="inlineStr">
+      <c r="O142" t="inlineStr">
         <is>
           <t>5.339,37</t>
         </is>
       </c>
-      <c r="P141" t="inlineStr">
+      <c r="P142" t="inlineStr">
         <is>
           <t>5.900,00</t>
         </is>
       </c>
-      <c r="Q141" t="inlineStr">
+      <c r="Q142" t="inlineStr">
         <is>
           <t>35,75</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t xml:space="preserve">38KJ </t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0009 </t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>Pan de centeno Plutarco</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>Pan de centeno Plutarco</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>Pan Artesanal elaborado a base de harina 100% centeno, aceite de oliva organico y sal marina.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
         <is>
           <t>Panificados Integrales</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
         <is>
           <t>10,50</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>17/09/2025</t>
         </is>
       </c>
-      <c r="N142" t="inlineStr">
+      <c r="N143" t="inlineStr">
         <is>
           <t>3.780,00</t>
         </is>
       </c>
-      <c r="O142" t="inlineStr">
+      <c r="O143" t="inlineStr">
         <is>
           <t>5.131,22</t>
         </is>
       </c>
-      <c r="P142" t="inlineStr">
+      <c r="P143" t="inlineStr">
         <is>
           <t>5.670,00</t>
         </is>
       </c>
-      <c r="Q142" t="inlineStr">
+      <c r="Q143" t="inlineStr">
         <is>
           <t>35,75</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t xml:space="preserve">46DU </t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0008 </t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>Pan de oliva y sal marina Plutarco</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>Pan de oliva y sal marina Plutarco</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>Pan Artesanal elaborado a base de harina 100% integral organica, aceite de oliva organico y sal marina.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr">
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
         <is>
           <t>Panificados Integrales</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
         <is>
           <t>10,50</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
           <t>17/09/2025</t>
         </is>
       </c>
-      <c r="N143" t="inlineStr">
+      <c r="N144" t="inlineStr">
         <is>
           <t>3.780,00</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr">
+      <c r="O144" t="inlineStr">
         <is>
           <t>5.131,22</t>
         </is>
       </c>
-      <c r="P143" t="inlineStr">
+      <c r="P144" t="inlineStr">
         <is>
           <t>5.670,00</t>
         </is>
       </c>
-      <c r="Q143" t="inlineStr">
+      <c r="Q144" t="inlineStr">
         <is>
           <t>35,75</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t xml:space="preserve">81UA </t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0010 </t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>Pan de Sarraceno Plutarco</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>Pan de Sarraceno Plutarco</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t xml:space="preserve">Pan Artesanal elaborado a base de masa madre de harina de sarraceno, psyllium y sal marina. 
 Libre de gluten (contiene contaminacion cruzada)
 PRODUCTO VEGANO </t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr">
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
         <is>
           <t>Panificados Integrales</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
         <is>
           <t>10,50</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
         <is>
           <t>17/09/2025</t>
         </is>
       </c>
-      <c r="N144" t="inlineStr">
+      <c r="N145" t="inlineStr">
         <is>
           <t>5.066,67</t>
         </is>
       </c>
-      <c r="O144" t="inlineStr">
+      <c r="O145" t="inlineStr">
         <is>
           <t>6.877,83</t>
         </is>
       </c>
-      <c r="P144" t="inlineStr">
+      <c r="P145" t="inlineStr">
         <is>
           <t>7.600,00</t>
         </is>
       </c>
-      <c r="Q144" t="inlineStr">
+      <c r="Q145" t="inlineStr">
         <is>
           <t>35,75</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t xml:space="preserve">33OD </t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0007 </t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>Pan de Semillas Plutarco</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>Pan de Semillas Plutarco</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>Nuestro producto estrella. Elaborado a base de harina 100% integral organica, mix de semillas y masa madre.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr">
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
         <is>
           <t>Panificados Integrales</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
         <is>
           <t>10,50</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
         <is>
           <t>17/09/2025</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr">
+      <c r="N146" t="inlineStr">
         <is>
           <t>3.633,33</t>
         </is>
       </c>
-      <c r="O145" t="inlineStr">
+      <c r="O146" t="inlineStr">
         <is>
           <t>4.932,13</t>
         </is>
       </c>
-      <c r="P145" t="inlineStr">
+      <c r="P146" t="inlineStr">
         <is>
           <t>5.450,00</t>
         </is>
       </c>
-      <c r="Q145" t="inlineStr">
+      <c r="Q146" t="inlineStr">
         <is>
           <t>35,75</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t xml:space="preserve">80TH </t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0062 </t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>Pan integral SIN SAL</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>Pan integral SIN SAL</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>Elaborado a base de harina 100% integral organica, mix de semillas y masa madre. No contiene sal de ningun tipo.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>3.633,33</t>
-        </is>
-      </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>4.504,13</t>
-        </is>
-      </c>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>5.450,00</t>
-        </is>
-      </c>
-      <c r="Q146" t="inlineStr">
-        <is>
-          <t>23,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18FB </t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PLUT0060 </t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Pan Vollkorn Plutarco</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Pan Vollkorn Plutarco</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>PROXIMAMENTE EN STOCK</t>
-        </is>
-      </c>
       <c r="G147" t="inlineStr">
         <is>
           <t>Plutarco</t>
@@ -12003,7 +12043,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -12018,29 +12058,29 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>4.133,33</t>
+          <t>3.633,33</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>5.610,86</t>
+          <t>4.504,13</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>5.450,00</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>35,75</t>
+          <t>23,97</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">67ML </t>
+          <t xml:space="preserve">18FB </t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -12050,35 +12090,39 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel16 </t>
+          <t xml:space="preserve">PLUT0060 </t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Pasas de Uva 100grs</t>
+          <t>Pan Vollkorn Plutarco</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Pasas de Uva 100grs</t>
+          <t>Pan Vollkorn Plutarco</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Pasas de uva, un snack dulce y nutritivo, perfectas para picar o añadir a cereales.</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
+          <t>PROXIMAMENTE EN STOCK</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Plutarco</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
+          <t>Panificados Integrales</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -12088,34 +12132,34 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>395,00</t>
+          <t>4.133,33</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>652,89</t>
+          <t>5.610,86</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>790,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">54DA </t>
+          <t xml:space="preserve">67ML </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -12125,22 +12169,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel24 </t>
+          <t xml:space="preserve">Granel16 </t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Pasas de Uva con Chocolate 100grs</t>
+          <t>Pasas de Uva 100grs</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Pasas de Uva con Chocolate 100grs</t>
+          <t>Pasas de Uva 100grs</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Pasas cubiertas de chocolate, un delicioso snack que combina lo dulce con lo saludable.</t>
+          <t>Pasas de uva, un snack dulce y nutritivo, perfectas para picar o añadir a cereales.</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
@@ -12168,17 +12212,17 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>1.335,00</t>
+          <t>395,00</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2.206,61</t>
+          <t>652,89</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>2.670,00</t>
+          <t>790,00</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
@@ -12190,133 +12234,125 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
+          <t xml:space="preserve">54DA </t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Granel24 </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Pasas de Uva con Chocolate 100grs</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Pasas de Uva con Chocolate 100grs</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Pasas cubiertas de chocolate, un delicioso snack que combina lo dulce con lo saludable.</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>1.335,00</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>2.206,61</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>2.670,00</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
           <t xml:space="preserve">68NZ </t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0013 </t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>Pepas Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>Pepas Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>Esponjosa pepa elaborada artesanalmente con Membrillo organico, harina integral y azucar mascabo.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>2.213,33</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>3.004,52</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>3.320,00</t>
-        </is>
-      </c>
-      <c r="Q150" t="inlineStr">
-        <is>
-          <t>35,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">94NP </t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">001996 </t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Peperina 50g Plut</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Peperina 50g Plut</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Hierba de peperina, utilizada en infusiones, con un sabor refrescante y propiedades digestivas.</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Yuyos</t>
-        </is>
-      </c>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -12326,153 +12362,157 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>1.770,00</t>
+          <t>2.213,33</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2.925,62</t>
+          <t>3.004,52</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>3.540,00</t>
+          <t>3.320,00</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t xml:space="preserve">94NP </t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">001996 </t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Peperina 50g Plut</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Peperina 50g Plut</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Hierba de peperina, utilizada en infusiones, con un sabor refrescante y propiedades digestivas.</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Yuyos Andy</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Yuyos</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>1.770,00</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>2.925,62</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>3.540,00</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
           <t xml:space="preserve">34BM </t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0050 </t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>Pepitos con chips Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>Pepitos con chips Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>Esponjosa pepa elaborada artesanalmente con chips de chocolate semiamargo, harina integral y azucar mascabo.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>2.213,33</t>
-        </is>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>2.743,80</t>
-        </is>
-      </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>3.320,00</t>
-        </is>
-      </c>
-      <c r="Q152" t="inlineStr">
-        <is>
-          <t>23,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28HE </t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">736372523969 </t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Piedra de Alumbre desodorante LAIMA</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Piedra de Alumbre desodorante LAIMA</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>El desodorante de piedra de alumbre 100% natural Laima de 80-100 gramos es una opción natural y efectiva para controlar el olor corporal.</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Cosmetica natural</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Desodorantes</t>
-        </is>
-      </c>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -12485,34 +12525,34 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>7.500,00</t>
+          <t>2.213,33</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>12.396,69</t>
+          <t>2.743,80</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>15.000,00</t>
+          <t>3.320,00</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>23,97</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">60FN </t>
+          <t xml:space="preserve">28HE </t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -12522,38 +12562,34 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve">002008 </t>
+          <t xml:space="preserve">736372523969 </t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Pimenton Ahumado 50g Plut</t>
+          <t>Piedra de Alumbre desodorante LAIMA</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Pimenton Ahumado 50g Plut</t>
+          <t>Piedra de Alumbre desodorante LAIMA</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Pimentón ahumado, ideal para dar sabor a platos y salsas, con un toque ahumado distintivo.</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>Yuyos Andy</t>
-        </is>
-      </c>
+          <t>El desodorante de piedra de alumbre 100% natural Laima de 80-100 gramos es una opción natural y efectiva para controlar el olor corporal.</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Sales y Condimentos</t>
+          <t>Cosmetica natural</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Condimentos</t>
+          <t>Desodorantes</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -12568,34 +12604,34 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>1.546,50</t>
+          <t>7.500,00</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2.561,98</t>
+          <t>12.396,69</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>3.100,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>65,66</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">11BS </t>
+          <t xml:space="preserve">60FN </t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -12605,22 +12641,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve">002019 </t>
+          <t xml:space="preserve">002008 </t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Pimienta blanca en grano 50g Plut</t>
+          <t>Pimenton Ahumado 50g Plut</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Pimienta blanca en grano 50g Plut</t>
+          <t>Pimenton Ahumado 50g Plut</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Pimienta blanca en grano, perfecta para sazonar comidas con un sabor suave.</t>
+          <t>Pimentón ahumado, ideal para dar sabor a platos y salsas, con un toque ahumado distintivo.</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -12656,29 +12692,29 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2.272,50</t>
+          <t>1.546,50</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>3.760,33</t>
+          <t>2.561,98</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>4.550,00</t>
+          <t>3.100,00</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>65,47</t>
+          <t>65,66</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">49QQ </t>
+          <t xml:space="preserve">11BS </t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -12688,22 +12724,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve">002018 </t>
+          <t xml:space="preserve">002019 </t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo 50g Plut</t>
+          <t>Pimienta blanca en grano 50g Plut</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo 50g Plut</t>
+          <t>Pimienta blanca en grano 50g Plut</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo, ideal para sazonar platos y dar un toque de sabor.</t>
+          <t>Pimienta blanca en grano, perfecta para sazonar comidas con un sabor suave.</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -12761,7 +12797,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">19SC </t>
+          <t xml:space="preserve">49QQ </t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -12771,25 +12807,29 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve">011501 </t>
+          <t xml:space="preserve">002018 </t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>pimienta blanca polvo 50g plut</t>
+          <t>Pimienta blanca en polvo 50g Plut</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>pimienta blanca polvo 50g plut</t>
+          <t>Pimienta blanca en polvo 50g Plut</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo, perfecta para aderezar ensaladas y platos cocinados.</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr"/>
+          <t>Pimienta blanca en polvo, ideal para sazonar platos y dar un toque de sabor.</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Yuyos Andy</t>
+        </is>
+      </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
@@ -12813,34 +12853,34 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>1.072,06</t>
+          <t>2.272,50</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>1.772,00</t>
+          <t>3.760,33</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>2.144,12</t>
+          <t>4.550,00</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>65,47</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">20OZ </t>
+          <t xml:space="preserve">19SC </t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -12850,29 +12890,25 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve">002017 </t>
+          <t xml:space="preserve">011501 </t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Pimienta negra en grano x 50grs PLUT</t>
+          <t>pimienta blanca polvo 50g plut</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Pimienta negra en grano x 50grs PLUT</t>
+          <t>pimienta blanca polvo 50g plut</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Pimienta negra en grano, ideal para moler y dar un sabor intenso a tus comidas.</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Yuyos Andy</t>
-        </is>
-      </c>
+          <t>Pimienta blanca en polvo, perfecta para aderezar ensaladas y platos cocinados.</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
@@ -12896,22 +12932,22 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2.575,00</t>
+          <t>1.072,06</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>4.256,20</t>
+          <t>1.772,00</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>5.150,00</t>
+          <t>2.144,12</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
@@ -12923,7 +12959,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">78HB </t>
+          <t xml:space="preserve">20OZ </t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -12933,22 +12969,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">002020 </t>
+          <t xml:space="preserve">002017 </t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Pimienta negra molida 50g Plut</t>
+          <t>Pimienta negra en grano x 50grs PLUT</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Pimienta negra molida 50g Plut</t>
+          <t>Pimienta negra en grano x 50grs PLUT</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Pimienta negra molida, perfecta para sazonar platos y dar un toque picante.</t>
+          <t>Pimienta negra en grano, ideal para moler y dar un sabor intenso a tus comidas.</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -12979,22 +13015,22 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>1.100,00</t>
+          <t>2.575,00</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>1.818,18</t>
+          <t>4.256,20</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>2.200,00</t>
+          <t>5.150,00</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
@@ -13006,7 +13042,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">82OM </t>
+          <t xml:space="preserve">78HB </t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -13016,36 +13052,40 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798378750025 </t>
+          <t xml:space="preserve">002020 </t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Pochoclos organico con sal marina BAMBOO</t>
+          <t>Pimienta negra molida 50g Plut</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Pochoclos organico con sal marina BAMBOO</t>
+          <t>Pimienta negra molida 50g Plut</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Pochoclos orgánicos, ligeros y crujientes, con un toque de sal marina, ideales como snack.</t>
+          <t>Pimienta negra molida, perfecta para sazonar platos y dar un toque picante.</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Sabias Semillas</t>
+          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Snack</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr"/>
+          <t>Sales y Condimentos</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Condimentos</t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -13058,34 +13098,34 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>1.270,00</t>
+          <t>1.100,00</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>1.900,83</t>
+          <t>1.818,18</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>2.300,00</t>
+          <t>2.200,00</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>49,67</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">90JG </t>
+          <t xml:space="preserve">82OM </t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -13095,39 +13135,39 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798004720071 </t>
+          <t xml:space="preserve">7798378750025 </t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Polenta Del Campo 500 gr</t>
+          <t>Pochoclos organico con sal marina BAMBOO</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Polenta Del Campo 500 gr</t>
+          <t>Pochoclos organico con sal marina BAMBOO</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Polenta, un alimento a base de maíz, ideal para preparar platos cremosos o como acompañamiento.</t>
+          <t>Pochoclos orgánicos, ligeros y crujientes, con un toque de sal marina, ideales como snack.</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Eco Tierra</t>
+          <t>Sabias Semillas</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Cereales y Legumbres</t>
+          <t>Snack</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -13137,34 +13177,34 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>03/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>1.210,00</t>
+          <t>1.270,00</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>1.809,95</t>
+          <t>1.900,83</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>49,58</t>
+          <t>49,67</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">81VO </t>
+          <t xml:space="preserve">90JG </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -13174,27 +13214,27 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve">7793323004932 </t>
+          <t xml:space="preserve">7798004720071 </t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Polenta Organica 450g Dicomere</t>
+          <t>Polenta Del Campo 500 gr</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Polenta Organica 450g Dicomere</t>
+          <t>Polenta Del Campo 500 gr</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Polenta orgánica, perfecta para preparar platos saludables y nutritivos.</t>
+          <t>Polenta, un alimento a base de maíz, ideal para preparar platos cremosos o como acompañamiento.</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Green &amp; CO</t>
+          <t>Eco Tierra</t>
         </is>
       </c>
       <c r="H162" t="inlineStr"/>
@@ -13206,7 +13246,7 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -13216,34 +13256,34 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>03/09/2025</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>900,00</t>
+          <t>1.210,00</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>1.487,60</t>
+          <t>1.809,95</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>1.800,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>49,58</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">77PT </t>
+          <t xml:space="preserve">81VO </t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -13253,27 +13293,27 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve">021891 </t>
+          <t xml:space="preserve">7793323004932 </t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Poroto Aduki 500g Plutarco</t>
+          <t>Polenta Organica 450g Dicomere</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Poroto Aduki 500g Plutarco</t>
+          <t>Polenta Organica 450g Dicomere</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Porotos aduki, ricos en proteínas y fibra, ideales para guisos y ensaladas.</t>
+          <t>Polenta orgánica, perfecta para preparar platos saludables y nutritivos.</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
@@ -13300,17 +13340,17 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>800,00</t>
+          <t>900,00</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>1.322,31</t>
+          <t>1.487,60</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>1.600,00</t>
+          <t>1.800,00</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr">
@@ -13322,7 +13362,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">24MR </t>
+          <t xml:space="preserve">77PT </t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -13332,25 +13372,29 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve">217227 </t>
+          <t xml:space="preserve">021891 </t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Poroto Alubia 500g Plutarco</t>
+          <t>Poroto Aduki 500g Plutarco</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Poroto Alubia 500g Plutarco</t>
+          <t>Poroto Aduki 500g Plutarco</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Porotos alubia, ideales para preparar guisos y platos tradicionales.</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr"/>
+          <t>Porotos aduki, ricos en proteínas y fibra, ideales para guisos y ensaladas.</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
@@ -13375,17 +13419,17 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>1.410,00</t>
+          <t>800,00</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2.330,58</t>
+          <t>1.322,31</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>2.820,00</t>
+          <t>1.600,00</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
@@ -13397,7 +13441,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">22LL </t>
+          <t xml:space="preserve">24MR </t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -13407,29 +13451,25 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve">017393 </t>
+          <t xml:space="preserve">217227 </t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Poroto colorados 500g Plutarco</t>
+          <t>Poroto Alubia 500g Plutarco</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Poroto colorados 500g Plutarco</t>
+          <t>Poroto Alubia 500g Plutarco</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Porotos colorados, ricos en nutrientes, perfectos para guisos y ensaladas.</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>Los Nogales</t>
-        </is>
-      </c>
+          <t>Porotos alubia, ideales para preparar guisos y platos tradicionales.</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
@@ -13449,34 +13489,34 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>1.520,00</t>
+          <t>1.410,00</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2.504,13</t>
+          <t>2.330,58</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>3.030,00</t>
+          <t>2.820,00</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>64,75</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">83YO </t>
+          <t xml:space="preserve">22LL </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -13486,21 +13526,29 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">325239 </t>
+          <t xml:space="preserve">017393 </t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Porotos negros 500g Plutarco</t>
+          <t>Poroto colorados 500g Plutarco</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Porotos negros 500g Plutarco</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
+          <t>Poroto colorados 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Porotos colorados, ricos en nutrientes, perfectos para guisos y ensaladas.</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
@@ -13520,34 +13568,34 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>15/08/2025</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>1.155,00</t>
+          <t>1.520,00</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>1.909,09</t>
+          <t>2.504,13</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>2.310,00</t>
+          <t>3.030,00</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>64,75</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">24YI </t>
+          <t xml:space="preserve">83YO </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -13557,24 +13605,20 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">137329 </t>
+          <t xml:space="preserve">325239 </t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Porotos Pallares 500g Plutarco</t>
+          <t>Porotos negros 500g Plutarco</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Porotos Pallares 500g Plutarco</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Porotos pallares, ideales para guisos y platos de legumbres, ricos en proteínas.</t>
-        </is>
-      </c>
+          <t>Porotos negros 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
@@ -13595,241 +13639,233 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>1.155,00</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>4.669,42</t>
+          <t>1.909,09</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>5.650,00</t>
+          <t>2.310,00</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>55,65</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
+          <t xml:space="preserve">24YI </t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">137329 </t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Porotos Pallares 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Porotos Pallares 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Porotos pallares, ideales para guisos y platos de legumbres, ricos en proteínas.</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Cereales y Legumbres</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>4.669,42</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>5.650,00</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>55,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
           <t xml:space="preserve">35QS </t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0015 </t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>Pre-pizza de arroz Plutarco</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>Pre-pizza de arroz Plutarco</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>Pre-pizza elaborada a base de Arroz Yamani, feculas y aceite de oliva organico. 
 Libre de gluten  (contiene contaminacion cruzada)
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr">
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
         <is>
           <t>Panificados Integrales</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
         <is>
           <t>10,50</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
         <is>
           <t>17/09/2025</t>
         </is>
       </c>
-      <c r="N168" t="inlineStr">
+      <c r="N169" t="inlineStr">
         <is>
           <t>2.213,33</t>
         </is>
       </c>
-      <c r="O168" t="inlineStr">
+      <c r="O169" t="inlineStr">
         <is>
           <t>3.004,52</t>
         </is>
       </c>
-      <c r="P168" t="inlineStr">
+      <c r="P169" t="inlineStr">
         <is>
           <t>3.320,00</t>
         </is>
       </c>
-      <c r="Q168" t="inlineStr">
+      <c r="Q169" t="inlineStr">
         <is>
           <t>35,75</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t xml:space="preserve">72ET </t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0014 </t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>Pre-pizza integral Plutarco</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>Pre-pizza integral Plutarco</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>Elaborado a base de harina 100% integral organica, mix de semillas y masa madre.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>1.713,33</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>2.325,79</t>
-        </is>
-      </c>
-      <c r="P169" t="inlineStr">
-        <is>
-          <t>2.570,00</t>
-        </is>
-      </c>
-      <c r="Q169" t="inlineStr">
-        <is>
-          <t>35,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31EW </t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798338250077 </t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Queso castañas caju QU CRUDDA CLASICO</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Queso castañas caju QU CRUDDA CLASICO</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Queso vegano a base de castañas de cajú, ideal para untar o como ingrediente en ensaladas.</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>CRUDDA (QU)</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Veganos</t>
-        </is>
-      </c>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13839,34 +13875,34 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>3.550,00</t>
+          <t>1.713,33</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>5.867,77</t>
+          <t>2.325,79</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>7.100,00</t>
+          <t>2.570,00</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">36ES </t>
+          <t xml:space="preserve">31EW </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -13876,22 +13912,22 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798338250084 </t>
+          <t xml:space="preserve">7798338250077 </t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+          <t>Queso castañas caju QU CRUDDA CLASICO</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+          <t>Queso castañas caju QU CRUDDA CLASICO</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Queso vegano de castañas de cajú con especias, perfecto para dar un toque especial a tus platos.</t>
+          <t>Queso vegano a base de castañas de cajú, ideal para untar o como ingrediente en ensaladas.</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -13949,119 +13985,123 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
+          <t xml:space="preserve">36ES </t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798338250084 </t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Queso vegano de castañas de cajú con especias, perfecto para dar un toque especial a tus platos.</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>CRUDDA (QU)</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Veganos</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>3.550,00</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>5.867,77</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>7.100,00</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
           <t xml:space="preserve">65FX </t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
         <is>
           <t xml:space="preserve">7798414430010 </t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>Queso crema REBELDE</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>Queso crema REBELDE</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>Queso crema sin conservantes ni azucares agregados. 
 Perfecto para acompañar cualquier tipo de plato.</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>REBELDE (Panda Organic)</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>Lacteos</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>20/08/2025</t>
-        </is>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>3.110,00</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>5.067,87</t>
-        </is>
-      </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>5.600,00</t>
-        </is>
-      </c>
-      <c r="Q172" t="inlineStr">
-        <is>
-          <t>62,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">52GA </t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">763571697221 </t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Queso Cremoso 250grs Felices las vacas</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Queso Cremoso 250grs Felices las vacas</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Queso cremoso, ideal para untar en tostadas o como ingrediente en recetas.</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
@@ -14070,12 +14110,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Lacteos</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -14085,34 +14125,34 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>20/08/2025</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>1.865,00</t>
+          <t>3.110,00</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>3.082,64</t>
+          <t>5.067,87</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>3.730,00</t>
+          <t>5.600,00</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>62,95</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">85VZ </t>
+          <t xml:space="preserve">52GA </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -14122,22 +14162,22 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve">656750732656 </t>
+          <t xml:space="preserve">763571697221 </t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Queso Cremoso 500g Felices Las Vacas</t>
+          <t>Queso Cremoso 250grs Felices las vacas</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Queso Cremoso 500g Felices Las Vacas</t>
+          <t>Queso Cremoso 250grs Felices las vacas</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Queso cremoso en mayor cantidad, perfecto para quienes disfrutan de un queso suave y untar.</t>
+          <t>Queso cremoso, ideal para untar en tostadas o como ingrediente en recetas.</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
@@ -14169,17 +14209,17 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>3.530,00</t>
+          <t>1.865,00</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>5.834,71</t>
+          <t>3.082,64</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>7.060,00</t>
+          <t>3.730,00</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
@@ -14191,7 +14231,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">13NR </t>
+          <t xml:space="preserve">85VZ </t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -14201,25 +14241,25 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480118 </t>
+          <t xml:space="preserve">656750732656 </t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Queso Cuartirolo 350grs x unidad La Choza ya</t>
+          <t>Queso Cremoso 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Queso Cuartirolo 350grs x unidad La Choza ya fraccionado</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>La Choza</t>
-        </is>
-      </c>
+          <t>Queso Cremoso 500g Felices Las Vacas</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Queso cremoso en mayor cantidad, perfecto para quienes disfrutan de un queso suave y untar.</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
@@ -14228,12 +14268,12 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Veganos</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -14243,34 +14283,34 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>6.430,00</t>
+          <t>3.530,00</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>8.144,80</t>
+          <t>5.834,71</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>9.000,00</t>
+          <t>7.060,00</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>26,67</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">50NS </t>
+          <t xml:space="preserve">13NR </t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -14280,25 +14320,25 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">763571697214 </t>
+          <t xml:space="preserve">7798328480118 </t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Queso Mozzarella 250grs Felices las Vacas</t>
+          <t>Queso Cuartirolo 350grs x unidad La Choza ya</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Mozzarella 250grs Felices las Vacas</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Mozzarella VEGANA, ideal para pizzas, ensaladas y platos italianos.</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr"/>
+          <t>Queso Cuartirolo 350grs x unidad La Choza ya fraccionado</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
@@ -14307,12 +14347,12 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Lacteos</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -14322,34 +14362,34 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>1.865,00</t>
+          <t>6.430,00</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>3.082,64</t>
+          <t>8.144,80</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>3.730,00</t>
+          <t>9.000,00</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>26,67</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">60GZ </t>
+          <t xml:space="preserve">50NS </t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -14359,22 +14399,22 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve">076625286228 </t>
+          <t xml:space="preserve">763571697214 </t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Queso Mozzarella 500g Felices Las Vacas</t>
+          <t>Queso Mozzarella 250grs Felices las Vacas</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Queso Mozzarella 500g Felices Las Vacas</t>
+          <t>Mozzarella 250grs Felices las Vacas</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Mozzarella VEGANA, ideal para pizzas, lasañas y ensaladas, con una textura suave y cremosa.</t>
+          <t>Mozzarella VEGANA, ideal para pizzas, ensaladas y platos italianos.</t>
         </is>
       </c>
       <c r="G177" t="inlineStr"/>
@@ -14406,17 +14446,17 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>3.530,00</t>
+          <t>1.865,00</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>5.834,71</t>
+          <t>3.082,64</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>7.060,00</t>
+          <t>3.730,00</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
@@ -14428,7 +14468,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">38JY </t>
+          <t xml:space="preserve">60GZ </t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -14438,36 +14478,36 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMAQ0001 </t>
+          <t xml:space="preserve">076625286228 </t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
+          <t>Queso Mozzarella 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
+          <t>Queso Mozzarella 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Quinoa blanca, un grano nutritivo y versátil, rico en proteínas y fibra, ideal para ensaladas y guisos.</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
-        </is>
-      </c>
+          <t>Mozzarella VEGANA, ideal para pizzas, lasañas y ensaladas, con una textura suave y cremosa.</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Cereales y Legumbres</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr"/>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Veganos</t>
+        </is>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -14480,34 +14520,34 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>9.860,00</t>
+          <t>3.530,00</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>12.644,63</t>
+          <t>5.834,71</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>15.300,00</t>
+          <t>7.060,00</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>28,24</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">44JR </t>
+          <t xml:space="preserve">38JY </t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -14517,22 +14557,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve">sumaq0002 </t>
+          <t xml:space="preserve">SUMAQ0001 </t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Quinoa blanca en menor cantidad, perfecta para quienes buscan un alimento saludable y fácil de preparar.</t>
+          <t>Quinoa blanca, un grano nutritivo y versátil, rico en proteínas y fibra, ideal para ensaladas y guisos.</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -14564,29 +14604,29 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>5.050,00</t>
+          <t>9.860,00</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>6.694,21</t>
+          <t>12.644,63</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>8.100,00</t>
+          <t>15.300,00</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>32,56</t>
+          <t>28,24</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">66QC </t>
+          <t xml:space="preserve">44JR </t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -14596,22 +14636,22 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve">sumaq0003 </t>
+          <t xml:space="preserve">sumaq0002 </t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Quinoa blanca, ideal para preparar porciones pequeñas, rica en nutrientes y fácil de cocinar.</t>
+          <t>Quinoa blanca en menor cantidad, perfecta para quienes buscan un alimento saludable y fácil de preparar.</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -14643,29 +14683,29 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2.600,00</t>
+          <t>5.050,00</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>3.438,02</t>
+          <t>6.694,21</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>4.160,00</t>
+          <t>8.100,00</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>32,23</t>
+          <t>32,56</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">91NW </t>
+          <t xml:space="preserve">66QC </t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -14675,33 +14715,33 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve">7790495003404 </t>
+          <t xml:space="preserve">sumaq0003 </t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Quinoa POP 80g ying yang</t>
+          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Quinoa POP 80g ying yang</t>
+          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Quinoa inflada, un snack ligero y crujiente, ideal para añadir a yogures o como topping.</t>
+          <t>Quinoa blanca, ideal para preparar porciones pequeñas, rica en nutrientes y fácil de cocinar.</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>yin yang (dietetica cientifica)</t>
+          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Snack</t>
+          <t>Cereales y Legumbres</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -14717,34 +14757,34 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>440,00</t>
+          <t>2.600,00</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>1.074,38</t>
+          <t>3.438,02</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>1.300,00</t>
+          <t>4.160,00</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>144,18</t>
+          <t>32,23</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">66MS </t>
+          <t xml:space="preserve">91NW </t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -14754,40 +14794,36 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACROZEN </t>
+          <t xml:space="preserve">7790495003404 </t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Sal marina fina Macrozen 500 gr</t>
+          <t>Quinoa POP 80g ying yang</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sal marina fina Macrozen 500 gr</t>
+          <t>Quinoa POP 80g ying yang</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Sal marina fina, ideal para sazonar platos y realzar sabores, sin aditivos.</t>
+          <t>Quinoa inflada, un snack ligero y crujiente, ideal para añadir a yogures o como topping.</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Eco Tierra</t>
+          <t>yin yang (dietetica cientifica)</t>
         </is>
       </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Sales y Condimentos</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
+          <t>Snack</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -14800,34 +14836,34 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>1.200,00</t>
+          <t>440,00</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>1.570,25</t>
+          <t>1.074,38</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>1.900,00</t>
+          <t>1.300,00</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>30,85</t>
+          <t>144,18</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">59VE </t>
+          <t xml:space="preserve">66MS </t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -14837,25 +14873,29 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACROZEN1 </t>
+          <t xml:space="preserve">MACROZEN </t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Sal marina gruesa Macrozen 500 gr</t>
+          <t>Sal marina fina Macrozen 500 gr</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sal marina gruesa Macrozen 500 gr</t>
+          <t>Sal marina fina Macrozen 500 gr</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Sal marina gruesa, perfecta para cocinar y sazonar, ideal para platos que requieren un toque de sal.</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr"/>
+          <t>Sal marina fina, ideal para sazonar platos y realzar sabores, sin aditivos.</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Eco Tierra</t>
+        </is>
+      </c>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
@@ -14879,7 +14919,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>15/08/2025</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -14906,7 +14946,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">90FK </t>
+          <t xml:space="preserve">59VE </t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -14916,22 +14956,22 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320056 </t>
+          <t xml:space="preserve">MACROZEN1 </t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 250g LIBERATO</t>
+          <t>Sal marina gruesa Macrozen 500 gr</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 250g LIBERATO</t>
+          <t>Sal marina gruesa Macrozen 500 gr</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Sal marina yodada, ideal para sazonar comidas, enriquecida con yodo para una dieta equilibrada.</t>
+          <t>Sal marina gruesa, perfecta para cocinar y sazonar, ideal para platos que requieren un toque de sal.</t>
         </is>
       </c>
       <c r="G184" t="inlineStr"/>
@@ -14958,34 +14998,34 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>1.315,00</t>
+          <t>1.200,00</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2.479,34</t>
+          <t>1.570,25</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>1.900,00</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>88,54</t>
+          <t>30,85</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">39IK </t>
+          <t xml:space="preserve">90FK </t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -14995,22 +15035,22 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320520 </t>
+          <t xml:space="preserve">7798168320056 </t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 250g LIBERATO</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 250g LIBERATO</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Sal marina yodada en mayor cantidad, perfecta para uso diario en la cocina.</t>
+          <t>Sal marina yodada, ideal para sazonar comidas, enriquecida con yodo para una dieta equilibrada.</t>
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
@@ -15042,29 +15082,29 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>1.300,00</t>
+          <t>1.315,00</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2.396,69</t>
+          <t>2.479,34</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>2.900,00</t>
+          <t>3.000,00</t>
         </is>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>84,36</t>
+          <t>88,54</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">28QJ </t>
+          <t xml:space="preserve">39IK </t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -15074,22 +15114,22 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320063 </t>
+          <t xml:space="preserve">7798168320520 </t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Sal marina yodada fina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 500g LIBERATO</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Sal marina yodada fina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 500g LIBERATO</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Sal marina yodada fina, ideal para aderezar y sazonar, con un sabor puro y natural.</t>
+          <t>Sal marina yodada en mayor cantidad, perfecta para uso diario en la cocina.</t>
         </is>
       </c>
       <c r="G186" t="inlineStr"/>
@@ -15143,7 +15183,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">48KK </t>
+          <t xml:space="preserve">28QJ </t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -15153,22 +15193,22 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320070 </t>
+          <t xml:space="preserve">7798168320063 </t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Sal marina yodada gruesa 500g LIBERATO</t>
+          <t>Sal marina yodada fina 500g LIBERATO</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Sal marina yodada gruesa 500g LIBERATO</t>
+          <t>Sal marina yodada fina 500g LIBERATO</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Sal marina yodada gruesa, ideal para cocinar y sazonar, con un sabor intenso.</t>
+          <t>Sal marina yodada fina, ideal para aderezar y sazonar, con un sabor puro y natural.</t>
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
@@ -15222,7 +15262,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">99YQ </t>
+          <t xml:space="preserve">48KK </t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -15232,29 +15272,25 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALROSA0001 </t>
+          <t xml:space="preserve">7798168320070 </t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya fina organica 500 gr</t>
+          <t>Sal marina yodada gruesa 500g LIBERATO</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya fina organica 500 gr</t>
+          <t>Sal marina yodada gruesa 500g LIBERATO</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya, rica en minerales, ideal para sazonar y dar un toque especial a tus platos.</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>Sol 7 -Pablo-</t>
-        </is>
-      </c>
+          <t>Sal marina yodada gruesa, ideal para cocinar y sazonar, con un sabor intenso.</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
@@ -15268,7 +15304,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15278,34 +15314,34 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2.100,00</t>
+          <t>1.300,00</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>3.384,62</t>
+          <t>2.396,69</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>3.740,00</t>
+          <t>2.900,00</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>61,17</t>
+          <t>84,36</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">46NH </t>
+          <t xml:space="preserve">99YQ </t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -15315,22 +15351,22 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALROSA0002 </t>
+          <t xml:space="preserve">SALROSA0001 </t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sal rosada del Himalaya gruesa organica 500 </t>
+          <t>Sal rosada del Himalaya fina organica 500 gr</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya gruesa organica 500 gr</t>
+          <t>Sal rosada del Himalaya fina organica 500 gr</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Sal rosada gruesa, perfecta para usar en molinillos o como sal de mesa, con un sabor único.</t>
+          <t>Sal rosada del Himalaya, rica en minerales, ideal para sazonar y dar un toque especial a tus platos.</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -15351,7 +15387,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -15371,7 +15407,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>3.090,91</t>
+          <t>3.384,62</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -15381,14 +15417,14 @@
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>47,19</t>
+          <t>61,17</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">61BI </t>
+          <t xml:space="preserve">46NH </t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -15398,22 +15434,22 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALROSA0003 </t>
+          <t xml:space="preserve">SALROSA0002 </t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sal rosada del Himalaya hierbas organica 500 </t>
+          <t xml:space="preserve">Sal rosada del Himalaya gruesa organica 500 </t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya hierbas organica 500 gr</t>
+          <t>Sal rosada del Himalaya gruesa organica 500 gr</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Sal rosada con hierbas, ideal para sazonar platos y dar un toque aromático.</t>
+          <t>Sal rosada gruesa, perfecta para usar en molinillos o como sal de mesa, con un sabor único.</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -15449,7 +15485,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2.300,00</t>
+          <t>2.100,00</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -15464,14 +15500,14 @@
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>34,39</t>
+          <t>47,19</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">96ZZ </t>
+          <t xml:space="preserve">61BI </t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -15481,36 +15517,40 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve">002320 </t>
+          <t xml:space="preserve">SALROSA0003 </t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
+          <t xml:space="preserve">Sal rosada del Himalaya hierbas organica 500 </t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
+          <t>Sal rosada del Himalaya hierbas organica 500 gr</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Salsa de soja Shoyu, ideal para aderezar platos asiáticos y dar un sabor umami.</t>
+          <t>Sal rosada con hierbas, ideal para sazonar platos y dar un toque aromático.</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Tofu Mei</t>
+          <t>Sol 7 -Pablo-</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr"/>
+          <t>Sales y Condimentos</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -15528,29 +15568,29 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>9.008,26</t>
+          <t>3.090,91</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>10.900,00</t>
+          <t>3.740,00</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>32,47</t>
+          <t>34,39</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">30UB </t>
+          <t xml:space="preserve">96ZZ </t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -15560,40 +15600,36 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791045511912 </t>
+          <t xml:space="preserve">002320 </t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
+          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
+          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Salsa de tomate ORGANICA, ideal para preparar pastas, guisos y pizzas, con un sabor casero.</t>
+          <t>Salsa de soja Shoyu, ideal para aderezar platos asiáticos y dar un sabor umami.</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Hecho en Argentina</t>
+          <t>Tofu Mei</t>
         </is>
       </c>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
-        </is>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -15606,34 +15642,34 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>3.910,00</t>
+          <t>6.800,00</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>5.785,12</t>
+          <t>9.008,26</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>7.000,00</t>
+          <t>10.900,00</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>47,96</t>
+          <t>32,47</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">52HO </t>
+          <t xml:space="preserve">30UB </t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -15643,32 +15679,40 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel18 </t>
+          <t xml:space="preserve">7791045511912 </t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Semillas de Chia 100grs</t>
+          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Semillas de Chia 100grs</t>
+          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Semillas de chía, ricas en omega-3 y fibra, perfectas para añadir a batidos y yogures.</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr"/>
+          <t>Salsa de tomate ORGANICA, ideal para preparar pastas, guisos y pizzas, con un sabor casero.</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Hecho en Argentina</t>
+        </is>
+      </c>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr"/>
+          <t>Aceites y Conservas</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Conservas</t>
+        </is>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -15681,34 +15725,34 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>350,00</t>
+          <t>3.910,00</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>578,51</t>
+          <t>5.785,12</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>700,00</t>
+          <t>7.000,00</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>47,96</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">16VW </t>
+          <t xml:space="preserve">52HO </t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -15718,22 +15762,22 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel17 </t>
+          <t xml:space="preserve">Granel18 </t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Semillas de Lino 100grs</t>
+          <t>Semillas de Chia 100grs</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Semillas de Lino 100grs</t>
+          <t>Semillas de Chia 100grs</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Semillas de lino, ricas en ácidos grasos omega-3, ideales para añadir a cereales y batidos.</t>
+          <t>Semillas de chía, ricas en omega-3 y fibra, perfectas para añadir a batidos y yogures.</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
@@ -15761,29 +15805,29 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>100,00</t>
+          <t>350,00</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>330,58</t>
+          <t>578,51</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>400,00</t>
+          <t>700,00</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>230,58</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">11CU </t>
+          <t xml:space="preserve">16VW </t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -15793,22 +15837,22 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel19 </t>
+          <t xml:space="preserve">Granel17 </t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Semillas de Sesamo 100grs</t>
+          <t>Semillas de Lino 100grs</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Semillas de Sesamo 100grs</t>
+          <t>Semillas de Lino 100grs</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Semillas de sésamo, ricas en nutrientes, perfectas para añadir a ensaladas y repostería.</t>
+          <t>Semillas de lino, ricas en ácidos grasos omega-3, ideales para añadir a cereales y batidos.</t>
         </is>
       </c>
       <c r="G195" t="inlineStr"/>
@@ -15836,29 +15880,29 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>290,00</t>
+          <t>100,00</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>479,34</t>
+          <t>330,58</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>580,00</t>
+          <t>400,00</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>230,58</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">74UK </t>
+          <t xml:space="preserve">11CU </t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -15868,22 +15912,22 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel20 </t>
+          <t xml:space="preserve">Granel19 </t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Semillas de Zapallo 100grs</t>
+          <t>Semillas de Sesamo 100grs</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Semillas de Zapallo 100grs</t>
+          <t>Semillas de Sesamo 100grs</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Semillas de zapallo, ricas en proteínas y minerales, ideales como snack o en ensaladas.</t>
+          <t>Semillas de sésamo, ricas en nutrientes, perfectas para añadir a ensaladas y repostería.</t>
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
@@ -15911,17 +15955,17 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>910,00</t>
+          <t>290,00</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>1.504,13</t>
+          <t>479,34</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>1.820,00</t>
+          <t>580,00</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
@@ -15933,7 +15977,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">62BB </t>
+          <t xml:space="preserve">74UK </t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -15943,36 +15987,32 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798028624010 </t>
+          <t xml:space="preserve">Granel20 </t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Shampoo Avena y keratina x 300 cc OMS</t>
+          <t>Semillas de Zapallo 100grs</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Shampoo Avena y keratina x 300 cc OMS</t>
+          <t>Semillas de Zapallo 100grs</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Ideal para nutrir en profundidad cabellos secos, quebradizos, dañados por agentes externos y sin brillo.</t>
+          <t>Semillas de zapallo, ricas en proteínas y minerales, ideales como snack o en ensaladas.</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Cosmetica natural</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Shampoos y Acondicionadores</t>
-        </is>
-      </c>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -15990,17 +16030,17 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>7.750,00</t>
+          <t>910,00</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>12.809,92</t>
+          <t>1.504,13</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>15.500,00</t>
+          <t>1.820,00</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
@@ -16012,7 +16052,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve">25HZ </t>
+          <t xml:space="preserve">62BB </t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -16022,22 +16062,22 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795399902297 </t>
+          <t xml:space="preserve">7798028624010 </t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
+          <t>Shampoo Avena y keratina x 300 cc OMS</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
+          <t>Shampoo Avena y keratina x 300 cc OMS</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Shampoo para cabellos normales. A base de derivados de coco, contiene vitamina E. Es humectante, contiene antioxidantes y otorga un brillo especial al cabello.</t>
+          <t>Ideal para nutrir en profundidad cabellos secos, quebradizos, dañados por agentes externos y sin brillo.</t>
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
@@ -16069,29 +16109,29 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2.900,00</t>
+          <t>7.750,00</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>5.619,83</t>
+          <t>12.809,92</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>15.500,00</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>93,79</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">23DF </t>
+          <t xml:space="preserve">25HZ </t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -16101,22 +16141,22 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795399902327 </t>
+          <t xml:space="preserve">7795399902297 </t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
+          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
+          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Shampoo, a base de derivados de coco, contiene vitamina E. Gracias a los actvivos de aloe vera y limon, es antioxidante, reduce la grasitud del cabello y combate la caspa</t>
+          <t>Shampoo para cabellos normales. A base de derivados de coco, contiene vitamina E. Es humectante, contiene antioxidantes y otorga un brillo especial al cabello.</t>
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
@@ -16170,7 +16210,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">85DD </t>
+          <t xml:space="preserve">23DF </t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -16180,23 +16220,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795399902310 </t>
+          <t xml:space="preserve">7795399902327 </t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
+          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
+          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shampoo a base de deriados del coco, contiene vitamina E. Especial para evitar la caida del cabello.
-</t>
+          <t>Shampoo, a base de derivados de coco, contiene vitamina E. Gracias a los actvivos de aloe vera y limon, es antioxidante, reduce la grasitud del cabello y combate la caspa</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -16250,7 +16289,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">85PW </t>
+          <t xml:space="preserve">85DD </t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -16260,32 +16299,37 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colonial1 </t>
+          <t xml:space="preserve">7795399902310 </t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Tableta chocolate 70% colonial 150g suelto</t>
+          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Tableta chocolate 70% colonial 150g suelto</t>
+          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Tableta de Chocolate amargo 70% primera calidad</t>
+          <t xml:space="preserve">Shampoo a base de deriados del coco, contiene vitamina E. Especial para evitar la caida del cabello.
+</t>
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr"/>
+          <t>Cosmetica natural</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Shampoos y Acondicionadores</t>
+        </is>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -16298,34 +16342,34 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2.900,00</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>6.115,70</t>
+          <t>5.619,83</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>7.400,00</t>
+          <t>6.800,00</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>93,79</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">39BS </t>
+          <t xml:space="preserve">85PW </t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -16335,29 +16379,29 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve">453678947321 </t>
+          <t xml:space="preserve">Colonial1 </t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Tahini 330grs mediano oh yeah</t>
+          <t>Tableta chocolate 70% colonial 150g suelto</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Tahini 330grs mediano oh yeah</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>Oh Yeah It's Vegan!</t>
-        </is>
-      </c>
+          <t>Tableta chocolate 70% colonial 150g suelto</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Tableta de Chocolate amargo 70% primera calidad</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Salsas y Mayonesas</t>
+          <t>Productos Sueltos</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -16373,34 +16417,34 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>6.100,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>9.008,26</t>
+          <t>6.115,70</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>10.900,00</t>
+          <t>7.400,00</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>47,68</t>
+          <t>0,00</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">30WW </t>
+          <t xml:space="preserve">39BS </t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -16410,38 +16454,38 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve">002479 </t>
+          <t xml:space="preserve">453678947321 </t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Te de burro (Burrito) PLUT 50g</t>
+          <t>Tahini 330grs mediano oh yeah</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Te de burro (Burrito) PLUT 50g</t>
+          <t>Tahini 330grs mediano oh yeah</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Hierba de burro, utilizada en infusiones, con propiedades digestivas y un sabor suave.</t>
+          <t xml:space="preserve">El tahini es una pasta cremosa elaborada a partir de semillas de sésamo molidas. Es un ingrediente esencial en la cocina de Oriente Medio y el Mediterráneo, y se utiliza para dar sabor y consistencia a platos como el hummus y el baba ganoush. Tiene un sabor a nuez, a veces con un ligero amargor, y es rico en proteínas y grasas saludables. </t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Yuyos Andy</t>
+          <t>Oh Yeah It's Vegan!</t>
         </is>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Infusiones</t>
+          <t>Aceites y Conservas</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Yuyos</t>
+          <t>Conservas</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -16456,34 +16500,34 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>1.726,00</t>
+          <t>6.100,00</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2.859,50</t>
+          <t>9.008,26</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>3.460,00</t>
+          <t>10.900,00</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>65,67</t>
+          <t>47,68</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">56PV </t>
+          <t xml:space="preserve">30WW </t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -16493,43 +16537,43 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOFUMEI0001 </t>
+          <t xml:space="preserve">002479 </t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Tofu ARTESANAL MEI 500g</t>
+          <t>Te de burro (Burrito) PLUT 50g</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Tofu ARTESANAL MEI 500g</t>
+          <t>Te de burro (Burrito) PLUT 50g</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Tofu artesanal, una excelente fuente de proteínas vegetales, ideal para salteados y ensaladas.</t>
+          <t>Hierba de burro, utilizada en infusiones, con propiedades digestivas y un sabor suave.</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Tofu Mei</t>
+          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Yuyos</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -16539,34 +16583,34 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>5.800,00</t>
+          <t>1.726,00</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>8.325,79</t>
+          <t>2.859,50</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>9.200,00</t>
+          <t>3.460,00</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>43,55</t>
+          <t>65,67</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">82LS </t>
+          <t xml:space="preserve">56PV </t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -16576,27 +16620,27 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798383880014 </t>
+          <t xml:space="preserve">TOFUMEI0001 </t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Tofu organico Soyana 350 grs</t>
+          <t>Tofu ARTESANAL MEI 500g</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Tofu organico Soyana 350 grs</t>
+          <t>Tofu ARTESANAL MEI 500g</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Tofu orgánico, rico en proteínas, ideal para preparar platos vegetarianos y veganos.</t>
+          <t>Tofu artesanal, una excelente fuente de proteínas vegetales, ideal para salteados y ensaladas.</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Soyana</t>
+          <t>Tofu Mei</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -16622,34 +16666,34 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>3.960,00</t>
+          <t>5.800,00</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>6.515,84</t>
+          <t>8.325,79</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>7.200,00</t>
+          <t>9.200,00</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>64,54</t>
+          <t>43,55</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">89LL </t>
+          <t xml:space="preserve">82LS </t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -16659,43 +16703,43 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve">7788465825354 </t>
+          <t xml:space="preserve">7798383880014 </t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tomate triturado SAPIENZA 1Lt</t>
+          <t>Tofu organico Soyana 350 grs</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Tomate triturado SAPIENZA 1Lt</t>
+          <t>Tofu organico Soyana 350 grs</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Tomate 100%  triturado natural, ideal para salsas y guisos, con un sabor fresco y natural.</t>
+          <t>Tofu orgánico, rico en proteínas, ideal para preparar platos vegetarianos y veganos.</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+          <t>Soyana</t>
         </is>
       </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Refrigerados</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Conservas</t>
+          <t>Veganos</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -16705,231 +16749,235 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/09/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2.925,00</t>
+          <t>3.960,00</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>4.380,17</t>
+          <t>6.515,84</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>5.300,00</t>
+          <t>7.200,00</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>49,75</t>
+          <t>64,54</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
+          <t xml:space="preserve">89LL </t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7788465825354 </t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Tomate triturado SAPIENZA 1Lt</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Tomate triturado SAPIENZA 1Lt</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Tomate 100%  triturado natural, ideal para salsas y guisos, con un sabor fresco y natural.</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Aceites y Conservas</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Conservas</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>03/09/2025</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>2.925,00</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>4.380,17</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>5.300,00</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>49,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
           <t xml:space="preserve">88OL </t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
         <is>
           <t xml:space="preserve">0720665957210 </t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>TOQUES GARBANZOS CASA VEGANA x420g</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>TOQUES GARBANZOS CASA VEGANA x420g</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>Toques de Garbanzos marca CASA VEGANA
 Veganos y Muy Nutritivos.</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr">
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
         <is>
           <t>Congelados</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr">
+      <c r="J208" t="inlineStr">
         <is>
           <t>Veganos</t>
         </is>
       </c>
-      <c r="K207" t="inlineStr">
+      <c r="K208" t="inlineStr">
         <is>
           <t>21,00</t>
         </is>
       </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M207" t="inlineStr">
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
         <is>
           <t>15/08/2025</t>
         </is>
       </c>
-      <c r="N207" t="inlineStr">
+      <c r="N208" t="inlineStr">
         <is>
           <t>3.200,00</t>
         </is>
       </c>
-      <c r="O207" t="inlineStr">
+      <c r="O208" t="inlineStr">
         <is>
           <t>4.776,86</t>
         </is>
       </c>
-      <c r="P207" t="inlineStr">
+      <c r="P208" t="inlineStr">
         <is>
           <t>5.780,00</t>
         </is>
       </c>
-      <c r="Q207" t="inlineStr">
+      <c r="Q208" t="inlineStr">
         <is>
           <t>49,28</t>
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t xml:space="preserve">60JI </t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0016 </t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>Torta Galesa Plutarco</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>Torta Galesa Plutarco</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>Torta galesa super humeda, sabrosa y contundente
 Elaborada a base de harina 100% integral, cacao, mix de especias y nueces.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M208" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>6.333,33</t>
-        </is>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>8.597,29</t>
-        </is>
-      </c>
-      <c r="P208" t="inlineStr">
-        <is>
-          <t>9.500,00</t>
-        </is>
-      </c>
-      <c r="Q208" t="inlineStr">
-        <is>
-          <t>35,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">88SH </t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0PUROM </t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Tortillas PURO MAIZ (GRANDES)</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Tortillas PURO MAIZ (GRANDES)</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Tortillas de maíz grandes, perfectas para hacer tacos, burritos o wraps, con un sabor auténtico.</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>Puro Maiz</t>
         </is>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Panificados Integrales</t>
         </is>
       </c>
       <c r="J209" t="inlineStr"/>
@@ -16945,34 +16993,34 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>29/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>5.400,00</t>
+          <t>6.333,33</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>7.058,82</t>
+          <t>8.597,29</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>7.800,00</t>
+          <t>9.500,00</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>30,72</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">60SC </t>
+          <t xml:space="preserve">88SH </t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -16982,35 +17030,39 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131061467 </t>
+          <t xml:space="preserve">0PUROM </t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
+          <t>Tortillas PURO MAIZ (GRANDES)</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr"/>
+          <t>Tortillas PURO MAIZ (GRANDES)</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Tortillas de maíz grandes, perfectas para hacer tacos, burritos o wraps, con un sabor auténtico.</t>
+        </is>
+      </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Fernanda - Alimentos Naturales</t>
+          <t>Puro Maiz</t>
         </is>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Refrigerados</t>
         </is>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -17020,34 +17072,34 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>29/08/2025</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>3.580,00</t>
+          <t>5.400,00</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>5.917,36</t>
+          <t>7.058,82</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>7.160,00</t>
+          <t>7.800,00</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>30,72</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">92LN </t>
+          <t xml:space="preserve">60SC </t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -17057,25 +17109,25 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t xml:space="preserve">458448 </t>
+          <t xml:space="preserve">7798131061467 </t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO</t>
+          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO NATURE</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Vinagre de sidra de manzana, ideal para aderezos y marinados, con propiedades digestivas.</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr"/>
+          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Fernanda - Alimentos Naturales</t>
+        </is>
+      </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
@@ -17095,34 +17147,34 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>6.900,00</t>
+          <t>4.110,00</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>9.504,13</t>
+          <t>6.611,57</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>11.500,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>60,87</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">99II </t>
+          <t xml:space="preserve">92LN </t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -17132,22 +17184,22 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve">236262 </t>
+          <t xml:space="preserve">458448 </t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO</t>
+          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO NATURE</t>
+          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO NATURE</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Vinagre de sidra de manzana en mayor cantidad, ideal para aderezos, marinados y como tónico natural.</t>
+          <t>Vinagre de sidra de manzana, ideal para aderezos y marinados, con propiedades digestivas.</t>
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
@@ -17175,29 +17227,29 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>7.900,00</t>
+          <t>6.900,00</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>11.487,60</t>
+          <t>9.504,13</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>13.900,00</t>
+          <t>11.500,00</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>45,41</t>
+          <t>37,74</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">62BS </t>
+          <t xml:space="preserve">99II </t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -17207,22 +17259,22 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve">9465832156492 </t>
+          <t xml:space="preserve">236262 </t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
+          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
+          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO NATURE</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Vinagre vegano, ideal para aderezar ensaladas y dar un toque ácido a tus platos.</t>
+          <t>Vinagre de sidra de manzana en mayor cantidad, ideal para aderezos, marinados y como tónico natural.</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
@@ -17245,34 +17297,34 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>4.200,00</t>
+          <t>7.900,00</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>6.347,11</t>
+          <t>11.487,60</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>7.680,00</t>
+          <t>13.900,00</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>51,12</t>
+          <t>45,41</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">38OL </t>
+          <t xml:space="preserve">62BS </t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -17282,29 +17334,25 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve">946583215647 </t>
+          <t xml:space="preserve">9465832156492 </t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
+          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
+          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Vinagre vegano en mayor cantidad, perfecto para quienes buscan un aderezo saludable y natural.</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>Oh Yeah It's Vegan!</t>
-        </is>
-      </c>
+          <t>Vinagre vegano, ideal para aderezar ensaladas y dar un toque ácido a tus platos.</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
@@ -17329,29 +17377,29 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>7.900,00</t>
+          <t>4.200,00</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>11.528,93</t>
+          <t>6.347,11</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>13.950,00</t>
+          <t>7.680,00</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>45,94</t>
+          <t>51,12</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">48OU </t>
+          <t xml:space="preserve">38OL </t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -17361,40 +17409,36 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve">090125151497 </t>
+          <t xml:space="preserve">946583215647 </t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Yerba Ajedrez 500 gr</t>
+          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Yerba Ajedrez 500 gr</t>
+          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Yerba mate Ajedrez, ideal para preparar un buen mate, con un sabor equilibrado y aromático.</t>
+          <t>Vinagre vegano en mayor cantidad, perfecto para quienes buscan un aderezo saludable y natural.</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+          <t>Oh Yeah It's Vegan!</t>
         </is>
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
+          <t>Aceites y Conservas</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17407,34 +17451,34 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2.550,00</t>
+          <t>7.900,00</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>3.388,43</t>
+          <t>11.528,93</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>4.100,00</t>
+          <t>13.950,00</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>32,88</t>
+          <t>45,94</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">91YZ </t>
+          <t xml:space="preserve">48OU </t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -17444,27 +17488,27 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798199890016 </t>
+          <t xml:space="preserve">090125151497 </t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Yerba Arapegua con palo 500g</t>
+          <t>Yerba Ajedrez 500 gr</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Yerba Arapegua con palo 500g</t>
+          <t>Yerba Ajedrez 500 gr</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Yerba mate Arapegua, con palo, ideal para quienes disfrutan de un sabor más suave y tradicional.</t>
+          <t>Yerba mate Ajedrez, ideal para preparar un buen mate, con un sabor equilibrado y aromático.</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Ino (Maelca)</t>
+          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
         </is>
       </c>
       <c r="H216" t="inlineStr"/>
@@ -17490,57 +17534,140 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>15/08/2025</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>4.840,00</t>
+          <t>2.550,00</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>7.231,40</t>
+          <t>3.388,43</t>
         </is>
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>8.750,00</t>
+          <t>4.100,00</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>49,41</t>
+          <t>32,88</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
+          <t xml:space="preserve">91YZ </t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798199890016 </t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Yerba Arapegua con palo 500g</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Yerba Arapegua con palo 500g</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Yerba mate Arapegua, con palo, ideal para quienes disfrutan de un sabor más suave y tradicional.</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Ino (Maelca)</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>27/08/2025</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>4.840,00</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>7.231,40</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>8.750,00</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>49,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
           <t xml:space="preserve">66FP </t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
         <is>
           <t xml:space="preserve">7798151510044 </t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="D218" t="inlineStr">
         <is>
           <t>Yerba Grapia Milenaria 500grs</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>Yerba Grapia Milenaria 500grs</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>Producida por pequeños agricultores que
 trabajan sin agrotóxicos y con respeto
@@ -17550,85 +17677,6 @@
 y es perfecta para compartir en cualquier momento.</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M217" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>2.750,00</t>
-        </is>
-      </c>
-      <c r="O217" t="inlineStr">
-        <is>
-          <t>3.636,36</t>
-        </is>
-      </c>
-      <c r="P217" t="inlineStr">
-        <is>
-          <t>4.400,00</t>
-        </is>
-      </c>
-      <c r="Q217" t="inlineStr">
-        <is>
-          <t>32,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15CP </t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200294 </t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>YERBA Jesper con hierbas serranas 500 gr</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>YERBA Jesper con hierbas serranas 500 gr</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>La combinación de la Yerba Mate con Menta, Peperina y Poleo combinan poderosas propiedades de hierbas naturales que favorecen la salud del organismo.</t>
-        </is>
-      </c>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
@@ -17658,29 +17706,29 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2.650,00</t>
+          <t>2.750,00</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>3.719,01</t>
+          <t>3.636,36</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>4.500,00</t>
+          <t>4.400,00</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>40,34</t>
+          <t>32,23</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">47GQ </t>
+          <t xml:space="preserve">15CP </t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -17690,29 +17738,25 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798185200478 </t>
+          <t xml:space="preserve">7798185200294 </t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>YERBA Jesper organica con palo 500 gr</t>
+          <t>YERBA Jesper con hierbas serranas 500 gr</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>YERBA Jesper organica con palo 500 gr</t>
+          <t>YERBA Jesper con hierbas serranas 500 gr</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Yerba mate orgánica Jesper, con palo, perfecta para preparar un mate saludable y sabroso.</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>Los Nogales</t>
-        </is>
-      </c>
+          <t>La combinación de la Yerba Mate con Menta, Peperina y Poleo combinan poderosas propiedades de hierbas naturales que favorecen la salud del organismo.</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
@@ -17763,7 +17807,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">74BI </t>
+          <t xml:space="preserve">47GQ </t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -17773,25 +17817,29 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798185200287 </t>
+          <t xml:space="preserve">7798185200478 </t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>YERBA Jesper tradicional 500 gr roja</t>
+          <t>YERBA Jesper organica con palo 500 gr</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>YERBA Jesper tradicional 500 gr roja</t>
+          <t>YERBA Jesper organica con palo 500 gr</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Producto elaborado con palo y resultado de un cuidadoso proceso de estacionamiento natural que permite que sus hojas desarrollen un sabor más equilibrado, sin amargor excesivo.</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr"/>
+          <t>Yerba mate orgánica Jesper, con palo, perfecta para preparar un mate saludable y sabroso.</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
@@ -17842,7 +17890,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">98TJ </t>
+          <t xml:space="preserve">74BI </t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -17852,29 +17900,25 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791312000224 </t>
+          <t xml:space="preserve">7798185200287 </t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>yerba Kalena con palo 500 gr</t>
+          <t>YERBA Jesper tradicional 500 gr roja</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>yerba Kalena con palo 500 gr</t>
+          <t>YERBA Jesper tradicional 500 gr roja</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Yerba mate Kalena, con palo, ideal para quienes buscan un sabor auténtico y tradicional.</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>Los Nogales</t>
-        </is>
-      </c>
+          <t>Producto elaborado con palo y resultado de un cuidadoso proceso de estacionamiento natural que permite que sus hojas desarrollen un sabor más equilibrado, sin amargor excesivo.</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
@@ -17898,34 +17942,34 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>3.150,00</t>
+          <t>2.650,00</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>3.719,01</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>4.500,00</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>31,18</t>
+          <t>40,34</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">69ET </t>
+          <t xml:space="preserve">98TJ </t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -17935,22 +17979,22 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791312000392 </t>
+          <t xml:space="preserve">7791312000224 </t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>yerba Kalena DESPALADA 500 gr</t>
+          <t>yerba Kalena con palo 500 gr</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>yerba Kalena DESPALADA 500 gr</t>
+          <t>yerba Kalena con palo 500 gr</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Yerba mate Kalena despalada, con un sabor más intenso, ideal para los amantes del mate fuerte.</t>
+          <t>Yerba mate Kalena, con palo, ideal para quienes buscan un sabor auténtico y tradicional.</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -17986,29 +18030,29 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>3.795,00</t>
+          <t>3.150,00</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>4.958,68</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>6.000,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>30,66</t>
+          <t>31,18</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve">67GY </t>
+          <t xml:space="preserve">69ET </t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -18018,25 +18062,29 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve">076625246352 </t>
+          <t xml:space="preserve">7791312000392 </t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Yerba La Buena 1kg</t>
+          <t>yerba Kalena DESPALADA 500 gr</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Yerba La Buena 1kg</t>
+          <t>yerba Kalena DESPALADA 500 gr</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr"/>
+          <t>Yerba mate Kalena despalada, con un sabor más intenso, ideal para los amantes del mate fuerte.</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
@@ -18060,34 +18108,34 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>22/08/2025</t>
+          <t>15/08/2025</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>5.700,00</t>
+          <t>3.795,00</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>7.355,37</t>
+          <t>4.958,68</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>8.900,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>29,04</t>
+          <t>30,66</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve">19PM </t>
+          <t xml:space="preserve">67GY </t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -18097,17 +18145,17 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t xml:space="preserve">754697526977 </t>
+          <t xml:space="preserve">076625246352 </t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Yerba La Buena 500 gr</t>
+          <t>Yerba La Buena 1kg</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Yerba La Buena 500 gr</t>
+          <t>Yerba La Buena 1kg</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -18144,29 +18192,29 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>5.700,00</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>7.355,37</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>8.900,00</t>
         </is>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>29,04</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t xml:space="preserve">24OB </t>
+          <t xml:space="preserve">19PM </t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -18176,23 +18224,22 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798019800010 </t>
+          <t xml:space="preserve">754697526977 </t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Yerba mate 500g LAS TUNAS</t>
+          <t>Yerba La Buena 500 gr</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Yerba mate 500g LAS TUNAS</t>
+          <t>Yerba La Buena 500 gr</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Elaborada con palo, estacionamiento natural, sin componentes químicos.  Apta Celíacos.
-Producida por La cooperativa Las Tunas, ubicada en Misiones,  recibe anualmente 1 millón 500 mil kilos de hoja verde de sus socios y elabora entre 20 y 25 mil kilos de yerba mate que son comercializados en distintos lugares de la Argentina bajo la modalidad de venta directa, esto es: del productor al consumidor</t>
+          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
@@ -18219,57 +18266,137 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>22/08/2025</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2.050,00</t>
+          <t>3.000,00</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>3.388,43</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>4.100,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>37,74</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
+          <t xml:space="preserve">24OB </t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798019800010 </t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Yerba mate 500g LAS TUNAS</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Yerba mate 500g LAS TUNAS</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Elaborada con palo, estacionamiento natural, sin componentes químicos.  Apta Celíacos.
+Producida por La cooperativa Las Tunas, ubicada en Misiones,  recibe anualmente 1 millón 500 mil kilos de hoja verde de sus socios y elabora entre 20 y 25 mil kilos de yerba mate que son comercializados en distintos lugares de la Argentina bajo la modalidad de venta directa, esto es: del productor al consumidor</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>2.050,00</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>3.388,43</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>4.100,00</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
           <t xml:space="preserve">87DC </t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
         <is>
           <t xml:space="preserve">7798146780018 </t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="D227" t="inlineStr">
         <is>
           <t>Yerba Mate Legado 500g</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E227" t="inlineStr">
         <is>
           <t>Yerba Mate Legado 500g</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t xml:space="preserve">Es un producto orgánico, sin aditivos químicos y cultivado en yerbales orgánicos, lleva el sello de certificación OIA de la empresa certificadora "Organización Internacional Agropecuaria" de Buenos Aires.
 Se extraen principalmente hojas maduras con ramas que luego se seleccionan enviando al “secadero” las de pequeño diámetro y descartando las de mayor grosor. Este proceso se denomina “quiebra” 
@@ -18277,90 +18404,7 @@
 </t>
         </is>
       </c>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>2.300,00</t>
-        </is>
-      </c>
-      <c r="O226" t="inlineStr">
-        <is>
-          <t>3.057,85</t>
-        </is>
-      </c>
-      <c r="P226" t="inlineStr">
-        <is>
-          <t>3.700,00</t>
-        </is>
-      </c>
-      <c r="Q226" t="inlineStr">
-        <is>
-          <t>32,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t xml:space="preserve">78TZ </t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200041 </t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Yerba Roapipo suave 500g</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Yerba Roapipo suave 500g</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Yerba mate Roapipo, suave y aromática, perfecta para quienes buscan un mate ligero.</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>Eco Tierra</t>
-        </is>
-      </c>
+      <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
@@ -18389,29 +18433,29 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2.710,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>3.057,85</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>3.700,00</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>52,48</t>
+          <t>32,95</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">58DG </t>
+          <t xml:space="preserve">78TZ </t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -18421,25 +18465,29 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798140140023 </t>
+          <t xml:space="preserve">7798185200041 </t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Yerba TITRAYJU 500g</t>
+          <t>Yerba Roapipo suave 500g</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Yerba TITRAYJU 500g</t>
+          <t>Yerba Roapipo suave 500g</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Yerba mate Titrayju, con un sabor fuerte y característico, ideal para los amantes del mate intenso.</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr"/>
+          <t>Yerba mate Roapipo, suave y aromática, perfecta para quienes buscan un mate ligero.</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Eco Tierra</t>
+        </is>
+      </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
@@ -18463,34 +18511,34 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>3.100,00</t>
+          <t>2.710,00</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>5.123,97</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>52,48</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t xml:space="preserve">51OP </t>
+          <t xml:space="preserve">58DG </t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -18500,22 +18548,22 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795568960271 </t>
+          <t xml:space="preserve">7798140140023 </t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Yerba Tucangua 500grs</t>
+          <t>Yerba TITRAYJU 500g</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Yerba Tucangua 500grs</t>
+          <t>Yerba TITRAYJU 500g</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Esta yerba tiene un perfil de sabor suave y sin notas amargas, a diferencia de otras yerbas. Se seca de manera natural y se añeja, y es 100% orgánica</t>
+          <t>Yerba mate Titrayju, con un sabor fuerte y característico, ideal para los amantes del mate intenso.</t>
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
@@ -18542,34 +18590,34 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2.800,00</t>
+          <t>3.100,00</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>5.123,97</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>47,58</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">15ZF </t>
+          <t xml:space="preserve">51OP </t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -18579,43 +18627,39 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480309 </t>
+          <t xml:space="preserve">7795568960271 </t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Yogurth bebible F, bosque 500cm3 La Choza (N</t>
+          <t>Yerba Tucangua 500grs</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Yogurth bebible F, bosque 500cm3 La Choza (NO incluye el envase)</t>
+          <t>Yerba Tucangua 500grs</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Yogurth bebible de sabor bosque, cremoso y nutritivo, ideal para un snack saludable.</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>La Choza</t>
-        </is>
-      </c>
+          <t>Esta yerba tiene un perfil de sabor suave y sin notas amargas, a diferencia de otras yerbas. Se seca de manera natural y se añeja, y es 100% orgánica</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Yerba Mate</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -18625,34 +18669,34 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>4.150,00</t>
+          <t>2.800,00</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>5.248,87</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>5.800,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>26,48</t>
+          <t>47,58</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">20YC </t>
+          <t xml:space="preserve">15ZF </t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -18662,22 +18706,22 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480071 </t>
+          <t xml:space="preserve">7798328480309 </t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 1LT La Choza (NO in</t>
+          <t>Yogurth bebible F, bosque 500cm3 La Choza (N</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 1LT La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible F, bosque 500cm3 La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutilla, delicioso y refrescante, perfecto para disfrutar en cualquier momento.</t>
+          <t>Yogurth bebible de sabor bosque, cremoso y nutritivo, ideal para un snack saludable.</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -18713,29 +18757,29 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>6.640,00</t>
+          <t>4.150,00</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>8.416,29</t>
+          <t>5.248,87</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>9.300,00</t>
+          <t>5.800,00</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>26,75</t>
+          <t>26,48</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">47BB </t>
+          <t xml:space="preserve">20YC </t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -18745,22 +18789,22 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480361 </t>
+          <t xml:space="preserve">7798328480071 </t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 500cm3 La Choza (NO</t>
+          <t>Yogurth bebible frutilla 1LT La Choza (NO in</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 500cm3 La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible frutilla 1LT La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutilla en menor cantidad, ideal para un snack rápido y sabroso.</t>
+          <t>Yogurth bebible de frutilla, delicioso y refrescante, perfecto para disfrutar en cualquier momento.</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -18796,29 +18840,29 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>4.000,00</t>
+          <t>6.640,00</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>5.067,87</t>
+          <t>8.416,29</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>5.600,00</t>
+          <t>9.300,00</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>26,70</t>
+          <t>26,75</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">63AA </t>
+          <t xml:space="preserve">47BB </t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -18828,22 +18872,22 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480057 </t>
+          <t xml:space="preserve">7798328480361 </t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutos rojos 1 LT La Choza (</t>
+          <t>Yogurth bebible frutilla 500cm3 La Choza (NO</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutos rojos 1 LT La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible frutilla 500cm3 La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutos rojos, rico en sabor y nutrientes, ideal para un desayuno o merienda.</t>
+          <t>Yogurth bebible de frutilla en menor cantidad, ideal para un snack rápido y sabroso.</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -18879,29 +18923,29 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>6.790,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>8.597,29</t>
+          <t>5.067,87</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>9.500,00</t>
+          <t>5.600,00</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>26,62</t>
+          <t>26,70</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">85ST </t>
+          <t xml:space="preserve">63AA </t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -18911,25 +18955,29 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve">325225 </t>
+          <t xml:space="preserve">7798328480057 </t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Yogurth griego 170g KAY</t>
+          <t>Yogurth bebible frutos rojos 1 LT La Choza (</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Yogurth griego 170g KAY</t>
+          <t>Yogurth bebible frutos rojos 1 LT La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Yogurth griego, cremoso y rico en proteínas, ideal para disfrutar solo o con frutas.</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr"/>
+          <t>Yogurth bebible de frutos rojos, rico en sabor y nutrientes, ideal para un desayuno o merienda.</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
@@ -18943,7 +18991,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -18953,34 +19001,34 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>18/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>3.390,00</t>
+          <t>6.790,00</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>5.123,97</t>
+          <t>8.597,29</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>9.500,00</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>51,15</t>
+          <t>26,62</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">12DU </t>
+          <t xml:space="preserve">85ST </t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -18990,22 +19038,22 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve">125151421 </t>
+          <t xml:space="preserve">325225 </t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Yogurth griego 400g KAY</t>
+          <t>Yogurth griego 170g KAY</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Yogurth griego 400g KAY</t>
+          <t>Yogurth griego 170g KAY</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Yogurth griego, perfecto para quienes buscan un snack saludable y nutritivo.</t>
+          <t>Yogurth griego, cremoso y rico en proteínas, ideal para disfrutar solo o con frutas.</t>
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
@@ -19037,29 +19085,29 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>7.270,00</t>
+          <t>3.390,00</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>11.157,02</t>
+          <t>5.123,97</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>13.500,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>53,47</t>
+          <t>51,15</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">73AZ </t>
+          <t xml:space="preserve">12DU </t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -19069,22 +19117,22 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t xml:space="preserve">4123241 </t>
+          <t xml:space="preserve">125151421 </t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 200g</t>
+          <t>Yogurth griego 400g KAY</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 200g</t>
+          <t>Yogurth griego 400g KAY</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+          <t>Yogurth griego, perfecto para quienes buscan un snack saludable y nutritivo.</t>
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
@@ -19111,34 +19159,34 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>18/08/2025</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2.600,00</t>
+          <t>7.270,00</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>11.157,02</t>
         </is>
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>13.500,00</t>
         </is>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>58,93</t>
+          <t>53,47</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">85LG </t>
+          <t xml:space="preserve">73AZ </t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -19148,17 +19196,17 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t xml:space="preserve">42355322 </t>
+          <t xml:space="preserve">4123241 </t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 370g</t>
+          <t>Yogurth griego natural ghurt 200g</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 370g</t>
+          <t>Yogurth griego natural ghurt 200g</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -19166,11 +19214,7 @@
           <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>Camila GHURTH yogurth griego</t>
-        </is>
-      </c>
+      <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
@@ -19199,29 +19243,29 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>4.800,00</t>
+          <t>2.600,00</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>7.685,95</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>9.300,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>60,12</t>
+          <t>58,93</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve">49HA </t>
+          <t xml:space="preserve">85LG </t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -19231,17 +19275,17 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve">21712414 </t>
+          <t xml:space="preserve">42355322 </t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 750g</t>
+          <t>Yogurth griego natural ghurt 370g</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 750g</t>
+          <t>Yogurth griego natural ghurt 370g</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -19249,7 +19293,11 @@
           <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr"/>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Camila GHURTH yogurth griego</t>
+        </is>
+      </c>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
@@ -19278,20 +19326,99 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
+          <t>4.800,00</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>7.685,95</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>9.300,00</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>60,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49HA </t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21712414 </t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 750g</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 750g</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Lacteos</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
           <t>9.200,00</t>
         </is>
       </c>
-      <c r="O238" t="inlineStr">
+      <c r="O239" t="inlineStr">
         <is>
           <t>14.380,17</t>
         </is>
       </c>
-      <c r="P238" t="inlineStr">
+      <c r="P239" t="inlineStr">
         <is>
           <t>17.400,00</t>
         </is>
       </c>
-      <c r="Q238" t="inlineStr">
+      <c r="Q239" t="inlineStr">
         <is>
           <t>56,31</t>
         </is>

--- a/media/articulos_filtrados.xlsx
+++ b/media/articulos_filtrados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q239"/>
+  <dimension ref="A1:Q242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,7 +632,11 @@
           <t>Huevos de campo 100% agroecologicos</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Coeco</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
@@ -652,12 +656,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>20/08/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2.950,00</t>
+          <t>3.050,00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -672,7 +676,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>31,67</t>
+          <t>27,35</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1117,11 @@
 </t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
@@ -1192,7 +1200,11 @@
           <t>Aceite de coco neutro en Aerosol.Simple, práctico y rendidor. Agitas, rocias y listo!</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
@@ -1271,7 +1283,11 @@
           <t>Aceite de girasol con alto contenido de ácidos grasos monoinsaturados, perfecto para cocinar a altas temperaturas y freír.</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
@@ -2326,7 +2342,11 @@
           <t>Alfajor Celienergy con Avellanas y baño de chocolate nego, sin tacc.</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -2405,7 +2425,11 @@
           <t>Alfajor Dubai crema de pistacho y chocolate amargo Pasticcino 60g. Sabor sofisticado, relleno cremoso y cobertura intensa. Ideal para quienes buscan una experiencia dulce premium.</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
@@ -2713,7 +2737,11 @@
           <t>Arroz basmati de grano largo, aromático y ligero, ideal para acompañar platos de curry o como base de ensaladas.</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
@@ -2775,12 +2803,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Arroz blanco g, largo 500 g Plutarco</t>
+          <t>Arroz blanco g. largo 500 g Plutarco</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Arroz blanco g, largo 500 g Plutarco</t>
+          <t>Arroz blanco g. largo 500 g Plutarco</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2867,7 +2895,11 @@
           <t>Arroz integral, rico en fibra y nutrientes, ideal para una alimentación saludable.</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
@@ -3199,27 +3231,27 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>625,00</t>
+          <t>750,00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1.074,38</t>
+          <t>1.239,67</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.300,00</t>
+          <t>1.500,00</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>71,90</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
@@ -3357,12 +3389,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1.150,00</t>
+          <t>1.250,00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3377,7 +3409,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>58,82</t>
+          <t>46,12</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3446,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Mi Soja (Soja SRL)</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -3491,7 +3523,11 @@
           <t>Azúcar rubia orgánica, perfecta para endulzar postres y bebidas, con un sabor más profundo que el azúcar blanco.</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
@@ -3590,12 +3626,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>3.400,00</t>
+          <t>3.950,00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3610,7 +3646,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>90,31</t>
+          <t>63,81</t>
         </is>
       </c>
     </row>
@@ -3803,7 +3839,11 @@
           <t>Barras de almendras, datiles y cacao x 30g - Laddubar, snack nutritivo con frutos secos y cacao para un sabor equilibrado.</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
@@ -3882,7 +3922,11 @@
           <t>Barras de avellanas, datiles y cacao x 30g - Laddubar, combinacion natural y energetica con un toque de chocolate intenso</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -3961,7 +4005,11 @@
           <t>Barra de cereales con coco y cacao, un snack saludable y delicioso, ideal para llevar.</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -4199,7 +4247,11 @@
           <t>Cacao en polvo sin azúcar, ideal para repostería y bebidas, rico en antioxidantes.</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
@@ -4381,12 +4433,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>25/08/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>10.100,00</t>
+          <t>10.800,00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4401,7 +4453,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>47,29</t>
+          <t>37,74</t>
         </is>
       </c>
     </row>
@@ -4464,27 +4516,27 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>37.500,00</t>
+          <t>38.200,00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>46.280,99</t>
+          <t>47.355,37</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>56.000,00</t>
+          <t>57.300,00</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23,42</t>
+          <t>23,97</t>
         </is>
       </c>
     </row>
@@ -4547,12 +4599,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>25/08/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>10.100,00</t>
+          <t>10.800,00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4567,7 +4619,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>47,29</t>
+          <t>37,74</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4891,11 @@
           <t>Chips de chocolate, perfectos para repostería o como snack dulce.</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
@@ -4938,7 +4994,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>06/10/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -5017,12 +5073,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>6.700,00</t>
+          <t>8.500,00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -5037,7 +5093,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>30,29</t>
         </is>
       </c>
     </row>
@@ -5068,7 +5124,11 @@
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
@@ -5098,17 +5158,17 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2.396,69</t>
+          <t>2.561,98</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2.900,00</t>
+          <t>3.100,00</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>76,69</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5353,11 @@
           <t>Coronita de mani y chocolate x 18g Chia Graal, bocadito energetico con combinacion perfecta de dulzura y crocancia</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
@@ -5374,7 +5438,11 @@
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Plutarco</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
@@ -5452,7 +5520,11 @@
 </t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Plutarco</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
@@ -5772,7 +5844,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Beatriz cosméticos</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -5851,7 +5923,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Tienda veggie (Holy places srl)</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -5928,7 +6000,11 @@
           <t>Crackers mediterraneos SIN TACC, una opcion crujiente y sabrosa para acompanhar dips y quesos.</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
@@ -6027,27 +6103,27 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1.260,00</t>
+          <t>1.350,00</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>1.809,95</t>
+          <t>1.945,70</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>2.150,00</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>43,65</t>
+          <t>44,13</t>
         </is>
       </c>
     </row>
@@ -6078,7 +6154,11 @@
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
@@ -6157,7 +6237,11 @@
           <t>Crudda bar proteica sabor avellana y chocolate x 40g - Crudda, snack nutritivo con un balance ideal entre dulzura y proteina.</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
@@ -6236,7 +6320,11 @@
           <t>Crudda bar proteica sabor banana y toffee x 40g - Crudda, sabor intenso y cremoso en una barra llena de energia natural.</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
@@ -6315,7 +6403,11 @@
           <t>Barra Crudda sabor brownie, un snack saludable y delicioso, ideal para llevar a cualquier parte.</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
@@ -6394,7 +6486,11 @@
           <t>Crudda bar proteica sabor coco y chocolate x 40g - Crudda, combinacion tropical y chocolatosa para un boost de energia saludable.</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
@@ -6473,7 +6569,11 @@
           <t>Barrita de maní y caramelo, un dulce snack lleno de energía.</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
@@ -7998,7 +8098,11 @@
 Granola con Pistacho, Avena, miel, chocolate y crocante!</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
@@ -8326,7 +8430,11 @@
           <t>Quinola granola de quinoa sabor manzana &amp; canela x 240g - Urban Farm, mezcla aromatica y reconfortante, ideal para el desayuno.</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
@@ -8906,12 +9014,12 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2.175,00</t>
+          <t>2.523,00</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8926,7 +9034,7 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>90,15</t>
+          <t>63,92</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9227,11 @@
           <t>Jugo de manzana roja, 100% natural, sin aditivos, ideal para disfrutar en cualquier momento.</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
@@ -9196,7 +9308,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Mi Soja (Soja SRL)</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -9275,7 +9387,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Mi Soja (Soja SRL)</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -9352,7 +9464,11 @@
           <t>Jugo de manzana Kissabel, con un sabor único y refrescante, ideal para cualquier ocasión.</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
@@ -9427,7 +9543,11 @@
           <t>Jugo de manzana y frutilla, una combinación deliciosa y refrescante, perfecta para disfrutar.</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
@@ -9504,7 +9624,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Sonder</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -9583,7 +9703,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Tienda veggie (Holy places srl)</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -9666,7 +9786,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Eco Tierra</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -9749,7 +9869,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Eco Tierra</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -10383,7 +10503,11 @@
           <t>Huevos de campo 100% agroecologicos.</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Coeco</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
@@ -10403,12 +10527,12 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>9.700,00</t>
+          <t>10.000,00</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -10423,7 +10547,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>34,62</t>
+          <t>30,58</t>
         </is>
       </c>
     </row>
@@ -10723,12 +10847,12 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>25/08/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>7.180,00</t>
+          <t>7.400,00</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -10743,7 +10867,7 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>32,37</t>
+          <t>28,43</t>
         </is>
       </c>
     </row>
@@ -10778,7 +10902,11 @@
           <t>Miel cruda, sin procesar ni pasteurizar, rica en nutrientes, antioxidantes y vitaminas.</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
@@ -10798,12 +10926,12 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>3.150,00</t>
+          <t>3.800,00</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -10818,7 +10946,7 @@
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>37,02</t>
         </is>
       </c>
     </row>
@@ -11476,7 +11604,11 @@
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Plutarco</t>
+        </is>
+      </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
@@ -12908,7 +13040,11 @@
           <t>Pimienta blanca en polvo, perfecta para aderezar ensaladas y platos cocinados.</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Yuyos Andy</t>
+        </is>
+      </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
@@ -13155,7 +13291,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Sabias Semillas</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -13177,12 +13313,12 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>1.270,00</t>
+          <t>1.290,00</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -13197,7 +13333,7 @@
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>49,67</t>
+          <t>47,35</t>
         </is>
       </c>
     </row>
@@ -13469,7 +13605,11 @@
           <t>Porotos alubia, ideales para preparar guisos y platos tradicionales.</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
@@ -13619,7 +13759,11 @@
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
@@ -13694,7 +13838,11 @@
           <t>Porotos pallares, ideales para guisos y platos de legumbres, ricos en proteínas.</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
@@ -13932,7 +14080,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>CRUDDA (QU)</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
@@ -14015,7 +14163,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>CRUDDA (QU)</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
@@ -15397,27 +15545,27 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2.100,00</t>
+          <t>2.400,00</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>3.384,62</t>
+          <t>3.475,11</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>3.740,00</t>
+          <t>3.840,00</t>
         </is>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>61,17</t>
+          <t>44,80</t>
         </is>
       </c>
     </row>
@@ -15480,27 +15628,27 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2.100,00</t>
+          <t>2.400,00</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>3.090,91</t>
+          <t>3.173,55</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>3.740,00</t>
+          <t>3.840,00</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>47,19</t>
+          <t>32,23</t>
         </is>
       </c>
     </row>
@@ -15563,27 +15711,27 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2.300,00</t>
+          <t>2.400,00</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>3.090,91</t>
+          <t>3.173,55</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>3.740,00</t>
+          <t>3.840,00</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>34,39</t>
+          <t>32,23</t>
         </is>
       </c>
     </row>
@@ -16922,17 +17070,17 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>4.776,86</t>
+          <t>4.876,03</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>5.780,00</t>
+          <t>5.900,00</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>49,28</t>
+          <t>52,38</t>
         </is>
       </c>
     </row>
@@ -17082,17 +17230,17 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>7.058,82</t>
+          <t>7.239,82</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>7.800,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>30,72</t>
+          <t>34,07</t>
         </is>
       </c>
     </row>
@@ -17125,7 +17273,7 @@
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Fernanda - Alimentos Naturales</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H211" t="inlineStr"/>
@@ -17478,7 +17626,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">48OU </t>
+          <t xml:space="preserve">98CK </t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -17488,40 +17636,36 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve">090125151497 </t>
+          <t xml:space="preserve">7798131680149 </t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Yerba Ajedrez 500 gr</t>
+          <t>Vino organico familia cecchin Malbec Roble</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Yerba Ajedrez 500 gr</t>
+          <t>Vino organico familia cecchin Malbec Roble</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Yerba mate Ajedrez, ideal para preparar un buen mate, con un sabor equilibrado y aromático.</t>
+          <t xml:space="preserve">Color rojo ciruela con reflejos violáceos, en nariz se perciben el cassis, ciruela madura, vainilla. </t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+          <t>Hecho en Argentina</t>
         </is>
       </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
+          <t>Bebidas</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17534,34 +17678,34 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2.550,00</t>
+          <t>5.790,00</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>3.388,43</t>
+          <t>8.677,69</t>
         </is>
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>4.100,00</t>
+          <t>10.500,00</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>32,88</t>
+          <t>49,87</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">91YZ </t>
+          <t xml:space="preserve">78DC </t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -17571,40 +17715,36 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798199890016 </t>
+          <t xml:space="preserve">7798131680194 </t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Yerba Arapegua con palo 500g</t>
+          <t>Vino organico familia cecchin syrah 750ml</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Yerba Arapegua con palo 500g</t>
+          <t>Vino organico familia cecchin syrah 750ml</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Yerba mate Arapegua, con palo, ideal para quienes disfrutan de un sabor más suave y tradicional.</t>
+          <t xml:space="preserve">Oscuro color rojo sangre, su sabor se asocia a especias y su aroma a higos y frutas secas. </t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Ino (Maelca)</t>
+          <t>Hecho en Argentina</t>
         </is>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
+          <t>Bebidas</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17617,57 +17757,302 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>4.840,00</t>
+          <t>5.790,00</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>7.231,40</t>
+          <t>8.677,69</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>8.750,00</t>
+          <t>10.500,00</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>49,41</t>
+          <t>49,87</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
+          <t xml:space="preserve">41HO </t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798131680378 </t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Vino picum malbec 750ml</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Vino picum malbec 750ml</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>100% Vino orgánico Malbec. Es un vino rojo, granada. Intenso. Aroma a fresa y cereza. En boca taninos suaves y ductiles, final prolongado.</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Hecho en Argentina</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Bebidas</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>3.420,00</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>5.652,89</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>6.840,00</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">48OU </t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">090125151497 </t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Yerba Ajedrez 500 gr</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Yerba Ajedrez 500 gr</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Yerba mate Ajedrez, ideal para preparar un buen mate, con un sabor equilibrado y aromático.</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>2.550,00</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>3.388,43</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>4.100,00</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>32,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91YZ </t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798199890016 </t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Yerba Arapegua con palo 500g</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Yerba Arapegua con palo 500g</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Yerba mate Arapegua, con palo, ideal para quienes disfrutan de un sabor más suave y tradicional.</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Ino (Maelca)</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>27/08/2025</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>4.840,00</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>7.231,40</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>8.750,00</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>49,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
           <t xml:space="preserve">66FP </t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
         <is>
           <t xml:space="preserve">7798151510044 </t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="D221" t="inlineStr">
         <is>
           <t>Yerba Grapia Milenaria 500grs</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>Yerba Grapia Milenaria 500grs</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F221" t="inlineStr">
         <is>
           <t>Producida por pequeños agricultores que
 trabajan sin agrotóxicos y con respeto
@@ -17677,247 +18062,6 @@
 y es perfecta para compartir en cualquier momento.</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M218" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>2.750,00</t>
-        </is>
-      </c>
-      <c r="O218" t="inlineStr">
-        <is>
-          <t>3.636,36</t>
-        </is>
-      </c>
-      <c r="P218" t="inlineStr">
-        <is>
-          <t>4.400,00</t>
-        </is>
-      </c>
-      <c r="Q218" t="inlineStr">
-        <is>
-          <t>32,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15CP </t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200294 </t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>YERBA Jesper con hierbas serranas 500 gr</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>YERBA Jesper con hierbas serranas 500 gr</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>La combinación de la Yerba Mate con Menta, Peperina y Poleo combinan poderosas propiedades de hierbas naturales que favorecen la salud del organismo.</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M219" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>2.650,00</t>
-        </is>
-      </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>3.719,01</t>
-        </is>
-      </c>
-      <c r="P219" t="inlineStr">
-        <is>
-          <t>4.500,00</t>
-        </is>
-      </c>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>40,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t xml:space="preserve">47GQ </t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200478 </t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>YERBA Jesper organica con palo 500 gr</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>YERBA Jesper organica con palo 500 gr</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Yerba mate orgánica Jesper, con palo, perfecta para preparar un mate saludable y sabroso.</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>Los Nogales</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M220" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N220" t="inlineStr">
-        <is>
-          <t>2.650,00</t>
-        </is>
-      </c>
-      <c r="O220" t="inlineStr">
-        <is>
-          <t>3.719,01</t>
-        </is>
-      </c>
-      <c r="P220" t="inlineStr">
-        <is>
-          <t>4.500,00</t>
-        </is>
-      </c>
-      <c r="Q220" t="inlineStr">
-        <is>
-          <t>40,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t xml:space="preserve">74BI </t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200287 </t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>YERBA Jesper tradicional 500 gr roja</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>YERBA Jesper tradicional 500 gr roja</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Producto elaborado con palo y resultado de un cuidadoso proceso de estacionamiento natural que permite que sus hojas desarrollen un sabor más equilibrado, sin amargor excesivo.</t>
-        </is>
-      </c>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
@@ -17942,12 +18086,12 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2.650,00</t>
+          <t>2.800,00</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -17962,14 +18106,14 @@
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>40,34</t>
+          <t>32,82</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">98TJ </t>
+          <t xml:space="preserve">15CP </t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -17979,29 +18123,25 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791312000224 </t>
+          <t xml:space="preserve">7798185200294 </t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>yerba Kalena con palo 500 gr</t>
+          <t>YERBA Jesper con hierbas serranas 500 gr</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>yerba Kalena con palo 500 gr</t>
+          <t>YERBA Jesper con hierbas serranas 500 gr</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Yerba mate Kalena, con palo, ideal para quienes buscan un sabor auténtico y tradicional.</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>Los Nogales</t>
-        </is>
-      </c>
+          <t>La combinación de la Yerba Mate con Menta, Peperina y Poleo combinan poderosas propiedades de hierbas naturales que favorecen la salud del organismo.</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
@@ -18025,34 +18165,34 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>3.150,00</t>
+          <t>2.650,00</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>3.719,01</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>4.500,00</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>31,18</t>
+          <t>40,34</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve">69ET </t>
+          <t xml:space="preserve">47GQ </t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -18062,22 +18202,22 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791312000392 </t>
+          <t xml:space="preserve">7798185200478 </t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>yerba Kalena DESPALADA 500 gr</t>
+          <t>YERBA Jesper organica con palo 500 gr</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>yerba Kalena DESPALADA 500 gr</t>
+          <t>YERBA Jesper organica con palo 500 gr</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Yerba mate Kalena despalada, con un sabor más intenso, ideal para los amantes del mate fuerte.</t>
+          <t>Yerba mate orgánica Jesper, con palo, perfecta para preparar un mate saludable y sabroso.</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -18108,34 +18248,34 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>3.795,00</t>
+          <t>2.650,00</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>4.958,68</t>
+          <t>3.719,01</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>6.000,00</t>
+          <t>4.500,00</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>30,66</t>
+          <t>40,34</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve">67GY </t>
+          <t xml:space="preserve">74BI </t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -18145,22 +18285,22 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t xml:space="preserve">076625246352 </t>
+          <t xml:space="preserve">7798185200287 </t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Yerba La Buena 1kg</t>
+          <t>YERBA Jesper tradicional 500 gr roja</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Yerba La Buena 1kg</t>
+          <t>YERBA Jesper tradicional 500 gr roja</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
+          <t>Producto elaborado con palo y resultado de un cuidadoso proceso de estacionamiento natural que permite que sus hojas desarrollen un sabor más equilibrado, sin amargor excesivo.</t>
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
@@ -18187,34 +18327,34 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>22/08/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>5.700,00</t>
+          <t>2.650,00</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>7.355,37</t>
+          <t>3.719,01</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>8.900,00</t>
+          <t>4.500,00</t>
         </is>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>29,04</t>
+          <t>40,34</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t xml:space="preserve">19PM </t>
+          <t xml:space="preserve">98TJ </t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -18224,25 +18364,29 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t xml:space="preserve">754697526977 </t>
+          <t xml:space="preserve">7791312000224 </t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Yerba La Buena 500 gr</t>
+          <t>yerba Kalena con palo 500 gr</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Yerba La Buena 500 gr</t>
+          <t>yerba Kalena con palo 500 gr</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr"/>
+          <t>Yerba mate Kalena, con palo, ideal para quienes buscan un sabor auténtico y tradicional.</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
@@ -18266,12 +18410,12 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>22/08/2025</t>
+          <t>15/08/2025</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>3.150,00</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -18286,117 +18430,358 @@
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>31,18</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
+          <t xml:space="preserve">69ET </t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7791312000392 </t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>yerba Kalena DESPALADA 500 gr</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>yerba Kalena DESPALADA 500 gr</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Yerba mate Kalena despalada, con un sabor más intenso, ideal para los amantes del mate fuerte.</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>2.843,00</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>4.958,68</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>6.000,00</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>74,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">67GY </t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">076625246352 </t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Yerba La Buena 1kg</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Yerba La Buena 1kg</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>5.700,00</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>7.355,37</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>8.900,00</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>29,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19PM </t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">754697526977 </t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Yerba La Buena 500 gr</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Yerba La Buena 500 gr</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>4.132,23</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>5.000,00</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>37,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
           <t xml:space="preserve">24OB </t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
         <is>
           <t xml:space="preserve">7798019800010 </t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="D229" t="inlineStr">
         <is>
           <t>Yerba mate 500g LAS TUNAS</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>Yerba mate 500g LAS TUNAS</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="F229" t="inlineStr">
         <is>
           <t>Elaborada con palo, estacionamiento natural, sin componentes químicos.  Apta Celíacos.
 Producida por La cooperativa Las Tunas, ubicada en Misiones,  recibe anualmente 1 millón 500 mil kilos de hoja verde de sus socios y elabora entre 20 y 25 mil kilos de yerba mate que son comercializados en distintos lugares de la Argentina bajo la modalidad de venta directa, esto es: del productor al consumidor</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr">
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
         <is>
           <t>Infusiones</t>
         </is>
       </c>
-      <c r="J226" t="inlineStr">
+      <c r="J229" t="inlineStr">
         <is>
           <t>Yerba Mate</t>
         </is>
       </c>
-      <c r="K226" t="inlineStr">
+      <c r="K229" t="inlineStr">
         <is>
           <t>21,00</t>
         </is>
       </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M226" t="inlineStr">
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
         <is>
           <t>13/08/2025</t>
         </is>
       </c>
-      <c r="N226" t="inlineStr">
+      <c r="N229" t="inlineStr">
         <is>
           <t>2.050,00</t>
         </is>
       </c>
-      <c r="O226" t="inlineStr">
+      <c r="O229" t="inlineStr">
         <is>
           <t>3.388,43</t>
         </is>
       </c>
-      <c r="P226" t="inlineStr">
+      <c r="P229" t="inlineStr">
         <is>
           <t>4.100,00</t>
         </is>
       </c>
-      <c r="Q226" t="inlineStr">
+      <c r="Q229" t="inlineStr">
         <is>
           <t>65,29</t>
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="inlineStr">
         <is>
           <t xml:space="preserve">87DC </t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
         <is>
           <t xml:space="preserve">7798146780018 </t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="D230" t="inlineStr">
         <is>
           <t>Yerba Mate Legado 500g</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>Yerba Mate Legado 500g</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t xml:space="preserve">Es un producto orgánico, sin aditivos químicos y cultivado en yerbales orgánicos, lleva el sello de certificación OIA de la empresa certificadora "Organización Internacional Agropecuaria" de Buenos Aires.
 Se extraen principalmente hojas maduras con ramas que luego se seleccionan enviando al “secadero” las de pequeño diámetro y descartando las de mayor grosor. Este proceso se denomina “quiebra” 
@@ -18404,247 +18789,6 @@
 </t>
         </is>
       </c>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>2.300,00</t>
-        </is>
-      </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t>3.057,85</t>
-        </is>
-      </c>
-      <c r="P227" t="inlineStr">
-        <is>
-          <t>3.700,00</t>
-        </is>
-      </c>
-      <c r="Q227" t="inlineStr">
-        <is>
-          <t>32,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t xml:space="preserve">78TZ </t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200041 </t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Yerba Roapipo suave 500g</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Yerba Roapipo suave 500g</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Yerba mate Roapipo, suave y aromática, perfecta para quienes buscan un mate ligero.</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>Eco Tierra</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M228" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N228" t="inlineStr">
-        <is>
-          <t>2.710,00</t>
-        </is>
-      </c>
-      <c r="O228" t="inlineStr">
-        <is>
-          <t>4.132,23</t>
-        </is>
-      </c>
-      <c r="P228" t="inlineStr">
-        <is>
-          <t>5.000,00</t>
-        </is>
-      </c>
-      <c r="Q228" t="inlineStr">
-        <is>
-          <t>52,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t xml:space="preserve">58DG </t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798140140023 </t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Yerba TITRAYJU 500g</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Yerba TITRAYJU 500g</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Yerba mate Titrayju, con un sabor fuerte y característico, ideal para los amantes del mate intenso.</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M229" t="inlineStr">
-        <is>
-          <t>13/08/2025</t>
-        </is>
-      </c>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>3.100,00</t>
-        </is>
-      </c>
-      <c r="O229" t="inlineStr">
-        <is>
-          <t>5.123,97</t>
-        </is>
-      </c>
-      <c r="P229" t="inlineStr">
-        <is>
-          <t>6.200,00</t>
-        </is>
-      </c>
-      <c r="Q229" t="inlineStr">
-        <is>
-          <t>65,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t xml:space="preserve">51OP </t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7795568960271 </t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Yerba Tucangua 500grs</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Yerba Tucangua 500grs</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Esta yerba tiene un perfil de sabor suave y sin notas amargas, a diferencia de otras yerbas. Se seca de manera natural y se añeja, y es 100% orgánica</t>
-        </is>
-      </c>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
@@ -18674,29 +18818,29 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2.800,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>3.057,85</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>3.700,00</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>47,58</t>
+          <t>32,95</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">15ZF </t>
+          <t xml:space="preserve">78TZ </t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -18706,43 +18850,43 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480309 </t>
+          <t xml:space="preserve">7798185200041 </t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Yogurth bebible F, bosque 500cm3 La Choza (N</t>
+          <t>Yerba Roapipo suave 500g</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Yogurth bebible F, bosque 500cm3 La Choza (NO incluye el envase)</t>
+          <t>Yerba Roapipo suave 500g</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Yogurth bebible de sabor bosque, cremoso y nutritivo, ideal para un snack saludable.</t>
+          <t>Yerba mate Roapipo, suave y aromática, perfecta para quienes buscan un mate ligero.</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>La Choza</t>
+          <t>Eco Tierra</t>
         </is>
       </c>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Yerba Mate</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -18752,34 +18896,34 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>4.150,00</t>
+          <t>2.710,00</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>5.248,87</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>5.800,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>26,48</t>
+          <t>52,48</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">20YC </t>
+          <t xml:space="preserve">58DG </t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -18789,43 +18933,39 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480071 </t>
+          <t xml:space="preserve">7798140140023 </t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 1LT La Choza (NO in</t>
+          <t>Yerba TITRAYJU 500g</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 1LT La Choza (NO incluye el envase)</t>
+          <t>Yerba TITRAYJU 500g</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutilla, delicioso y refrescante, perfecto para disfrutar en cualquier momento.</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>La Choza</t>
-        </is>
-      </c>
+          <t>Yerba mate Titrayju, con un sabor fuerte y característico, ideal para los amantes del mate intenso.</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Yerba Mate</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -18835,34 +18975,34 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>6.640,00</t>
+          <t>3.100,00</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>8.416,29</t>
+          <t>5.123,97</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>9.300,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>26,75</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">47BB </t>
+          <t xml:space="preserve">51OP </t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -18872,43 +19012,39 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480361 </t>
+          <t xml:space="preserve">7795568960271 </t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 500cm3 La Choza (NO</t>
+          <t>Yerba Tucangua 500grs</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 500cm3 La Choza (NO incluye el envase)</t>
+          <t>Yerba Tucangua 500grs</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutilla en menor cantidad, ideal para un snack rápido y sabroso.</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>La Choza</t>
-        </is>
-      </c>
+          <t>Esta yerba tiene un perfil de sabor suave y sin notas amargas, a diferencia de otras yerbas. Se seca de manera natural y se añeja, y es 100% orgánica</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Yerba Mate</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -18918,34 +19054,34 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>4.000,00</t>
+          <t>2.800,00</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>5.067,87</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>5.600,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>26,70</t>
+          <t>47,58</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">63AA </t>
+          <t xml:space="preserve">15ZF </t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -18955,22 +19091,22 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480057 </t>
+          <t xml:space="preserve">7798328480309 </t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutos rojos 1 LT La Choza (</t>
+          <t>Yogurth bebible F, bosque 500cm3 La Choza (N</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutos rojos 1 LT La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible F, bosque 500cm3 La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutos rojos, rico en sabor y nutrientes, ideal para un desayuno o merienda.</t>
+          <t>Yogurth bebible de sabor bosque, cremoso y nutritivo, ideal para un snack saludable.</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -19006,29 +19142,29 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>6.790,00</t>
+          <t>4.150,00</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>8.597,29</t>
+          <t>5.248,87</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>9.500,00</t>
+          <t>5.800,00</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>26,62</t>
+          <t>26,48</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">85ST </t>
+          <t xml:space="preserve">20YC </t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -19038,25 +19174,29 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve">325225 </t>
+          <t xml:space="preserve">7798328480071 </t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Yogurth griego 170g KAY</t>
+          <t>Yogurth bebible frutilla 1LT La Choza (NO in</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Yogurth griego 170g KAY</t>
+          <t>Yogurth bebible frutilla 1LT La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Yogurth griego, cremoso y rico en proteínas, ideal para disfrutar solo o con frutas.</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr"/>
+          <t>Yogurth bebible de frutilla, delicioso y refrescante, perfecto para disfrutar en cualquier momento.</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
@@ -19070,7 +19210,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -19080,34 +19220,34 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>18/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>3.390,00</t>
+          <t>6.640,00</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>5.123,97</t>
+          <t>8.416,29</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>9.300,00</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>51,15</t>
+          <t>26,75</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">12DU </t>
+          <t xml:space="preserve">47BB </t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -19117,25 +19257,29 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t xml:space="preserve">125151421 </t>
+          <t xml:space="preserve">7798328480361 </t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Yogurth griego 400g KAY</t>
+          <t>Yogurth bebible frutilla 500cm3 La Choza (NO</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Yogurth griego 400g KAY</t>
+          <t>Yogurth bebible frutilla 500cm3 La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Yogurth griego, perfecto para quienes buscan un snack saludable y nutritivo.</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr"/>
+          <t>Yogurth bebible de frutilla en menor cantidad, ideal para un snack rápido y sabroso.</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
@@ -19149,7 +19293,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -19159,34 +19303,34 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>18/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>7.270,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>11.157,02</t>
+          <t>5.067,87</t>
         </is>
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>13.500,00</t>
+          <t>5.600,00</t>
         </is>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>53,47</t>
+          <t>26,70</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">73AZ </t>
+          <t xml:space="preserve">63AA </t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -19196,25 +19340,29 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t xml:space="preserve">4123241 </t>
+          <t xml:space="preserve">7798328480057 </t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 200g</t>
+          <t>Yogurth bebible frutos rojos 1 LT La Choza (</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 200g</t>
+          <t>Yogurth bebible frutos rojos 1 LT La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr"/>
+          <t>Yogurth bebible de frutos rojos, rico en sabor y nutrientes, ideal para un desayuno o merienda.</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
@@ -19228,7 +19376,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -19238,34 +19386,34 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2.600,00</t>
+          <t>6.790,00</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>8.597,29</t>
         </is>
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>9.500,00</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>58,93</t>
+          <t>26,62</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve">85LG </t>
+          <t xml:space="preserve">85ST </t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -19275,29 +19423,25 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve">42355322 </t>
+          <t xml:space="preserve">325225 </t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 370g</t>
+          <t>Yogurth griego 170g KAY</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 370g</t>
+          <t>Yogurth griego 170g KAY</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>Camila GHURTH yogurth griego</t>
-        </is>
-      </c>
+          <t>Yogurth griego, cremoso y rico en proteínas, ideal para disfrutar solo o con frutas.</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
@@ -19321,34 +19465,34 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>18/08/2025</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>4.800,00</t>
+          <t>3.390,00</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>7.685,95</t>
+          <t>5.123,97</t>
         </is>
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>9.300,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>60,12</t>
+          <t>51,15</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">49HA </t>
+          <t xml:space="preserve">12DU </t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -19358,22 +19502,22 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t xml:space="preserve">21712414 </t>
+          <t xml:space="preserve">125151421 </t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 750g</t>
+          <t>Yogurth griego 400g KAY</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 750g</t>
+          <t>Yogurth griego 400g KAY</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+          <t>Yogurth griego, perfecto para quienes buscan un snack saludable y nutritivo.</t>
         </is>
       </c>
       <c r="G239" t="inlineStr"/>
@@ -19400,27 +19544,268 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>18/08/2025</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>9.200,00</t>
+          <t>7.270,00</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>14.380,17</t>
+          <t>11.157,02</t>
         </is>
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>17.400,00</t>
+          <t>13.500,00</t>
         </is>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>56,31</t>
+          <t>53,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">73AZ </t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4123241 </t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 200g</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 200g</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Lacteos</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>4.132,23</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>5.000,00</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>37,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85LG </t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42355322 </t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 370g</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 370g</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Camila GHURTH yogurth griego</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Lacteos</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>5.600,00</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>7.685,95</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>9.300,00</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>37,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49HA </t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21712414 </t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 750g</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 750g</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Lacteos</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>10.800,00</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>14.462,81</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>17.500,00</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>33,91</t>
         </is>
       </c>
     </row>

--- a/media/articulos_filtrados.xlsx
+++ b/media/articulos_filtrados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q255"/>
+  <dimension ref="A1:Q257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6354,17 +6354,17 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>1.990,95</t>
+          <t>2.081,45</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2.200,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>65,91</t>
+          <t>73,45</t>
         </is>
       </c>
     </row>
@@ -6437,17 +6437,17 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>1.990,95</t>
+          <t>2.081,45</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2.200,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>65,91</t>
+          <t>73,45</t>
         </is>
       </c>
     </row>
@@ -6520,17 +6520,17 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>1.990,95</t>
+          <t>2.081,45</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2.200,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>65,91</t>
+          <t>73,45</t>
         </is>
       </c>
     </row>
@@ -6603,17 +6603,17 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>1.990,95</t>
+          <t>2.081,45</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2.200,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>65,91</t>
+          <t>73,45</t>
         </is>
       </c>
     </row>
@@ -6686,17 +6686,17 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>1.990,95</t>
+          <t>2.081,45</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2.200,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>65,91</t>
+          <t>73,45</t>
         </is>
       </c>
     </row>
@@ -6769,17 +6769,17 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>1.818,18</t>
+          <t>1.900,83</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2.200,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>51,52</t>
+          <t>58,40</t>
         </is>
       </c>
     </row>
@@ -11995,17 +11995,17 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>7.239,82</t>
+          <t>7.420,81</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>8.000,00</t>
+          <t>8.200,00</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>101,11</t>
+          <t>106,13</t>
         </is>
       </c>
     </row>
@@ -12875,198 +12875,190 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
+          <t xml:space="preserve">94SP </t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PLUT0035 </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Pan Dulce Chico SIN TACC Plutarco</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Pan Dulce Chico SIN TACC Plutarco</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Plutarco</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>12.396,69</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>15.000,00</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59BG </t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PLUT0011 </t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Pan Dulce Grande Plutarco</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Pan Dulce Grande Plutarco</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Plutarco</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Panaderia y Comidas</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>10,50</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>7.000,00</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>18.099,55</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>20.000,00</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>158,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
           <t xml:space="preserve">80TH </t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0062 </t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>Pan integral SIN SAL</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>Pan integral SIN SAL</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>Elaborado a base de harina 100% integral organica, mix de semillas y masa madre. No contiene sal de ningun tipo.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>3.633,33</t>
-        </is>
-      </c>
-      <c r="O156" t="inlineStr">
-        <is>
-          <t>4.504,13</t>
-        </is>
-      </c>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>5.450,00</t>
-        </is>
-      </c>
-      <c r="Q156" t="inlineStr">
-        <is>
-          <t>23,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18FB </t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PLUT0060 </t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Pan Vollkorn Plutarco</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Pan Vollkorn Plutarco</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>PROXIMAMENTE EN STOCK</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>4.133,33</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>5.610,86</t>
-        </is>
-      </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>6.200,00</t>
-        </is>
-      </c>
-      <c r="Q157" t="inlineStr">
-        <is>
-          <t>35,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t xml:space="preserve">67ML </t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Granel16 </t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Pasas de Uva 100grs</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Pasas de Uva 100grs</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Pasas de uva, un snack dulce y nutritivo, perfectas para picar o añadir a cereales.</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
+          <t>Panificados Integrales</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -13082,34 +13074,34 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>395,00</t>
+          <t>3.633,33</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>652,89</t>
+          <t>4.504,13</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>790,00</t>
+          <t>5.450,00</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>23,97</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">54DA </t>
+          <t xml:space="preserve">18FB </t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -13119,35 +13111,39 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel24 </t>
+          <t xml:space="preserve">PLUT0060 </t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Pasas de Uva con Chocolate 100grs</t>
+          <t>Pan Vollkorn Plutarco</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Pasas de Uva con Chocolate 100grs</t>
+          <t>Pan Vollkorn Plutarco</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Pasas cubiertas de chocolate, un delicioso snack que combina lo dulce con lo saludable.</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr"/>
+          <t>PROXIMAMENTE EN STOCK</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Plutarco</t>
+        </is>
+      </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
+          <t>Panificados Integrales</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -13157,399 +13153,387 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>1.335,00</t>
+          <t>4.133,33</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2.206,61</t>
+          <t>5.610,86</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>2.670,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
+          <t xml:space="preserve">67ML </t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Granel16 </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Pasas de Uva 100grs</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Pasas de Uva 100grs</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Pasas de uva, un snack dulce y nutritivo, perfectas para picar o añadir a cereales.</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>395,00</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>652,89</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>790,00</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">54DA </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Granel24 </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Pasas de Uva con Chocolate 100grs</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Pasas de Uva con Chocolate 100grs</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Pasas cubiertas de chocolate, un delicioso snack que combina lo dulce con lo saludable.</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>1.335,00</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>2.206,61</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>2.670,00</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
           <t xml:space="preserve">68NZ </t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0013 </t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>Pepas Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>Pepas Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>Esponjosa pepa elaborada artesanalmente con Membrillo organico, harina integral y azucar mascabo.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr">
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
         <is>
           <t>Panificados Integrales</t>
         </is>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
         <is>
           <t>10,50</t>
         </is>
       </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>17/09/2025</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr">
+      <c r="N162" t="inlineStr">
         <is>
           <t>2.213,33</t>
         </is>
       </c>
-      <c r="O160" t="inlineStr">
+      <c r="O162" t="inlineStr">
         <is>
           <t>3.004,52</t>
         </is>
       </c>
-      <c r="P160" t="inlineStr">
+      <c r="P162" t="inlineStr">
         <is>
           <t>3.320,00</t>
         </is>
       </c>
-      <c r="Q160" t="inlineStr">
+      <c r="Q162" t="inlineStr">
         <is>
           <t>35,75</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t xml:space="preserve">94NP </t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t xml:space="preserve">001996 </t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>Peperina 50g Plut</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>Peperina 50g Plut</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>Hierba de peperina, utilizada en infusiones, con un sabor refrescante y propiedades digestivas.</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>Yuyos Andy</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr">
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
         <is>
           <t>Infusiones</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>Yuyos</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="N161" t="inlineStr">
+      <c r="N163" t="inlineStr">
         <is>
           <t>1.770,00</t>
         </is>
       </c>
-      <c r="O161" t="inlineStr">
+      <c r="O163" t="inlineStr">
         <is>
           <t>2.925,62</t>
         </is>
       </c>
-      <c r="P161" t="inlineStr">
+      <c r="P163" t="inlineStr">
         <is>
           <t>3.540,00</t>
         </is>
       </c>
-      <c r="Q161" t="inlineStr">
+      <c r="Q163" t="inlineStr">
         <is>
           <t>65,29</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t xml:space="preserve">34BM </t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0050 </t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>Pepitos con chips Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>Pepitos con chips Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>Esponjosa pepa elaborada artesanalmente con chips de chocolate semiamargo, harina integral y azucar mascabo.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>2.213,33</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>2.743,80</t>
-        </is>
-      </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>3.320,00</t>
-        </is>
-      </c>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>23,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28HE </t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t xml:space="preserve">736372523969 </t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Piedra de Alumbre desodorante LAIMA</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Piedra de Alumbre desodorante LAIMA</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>El desodorante de piedra de alumbre 100% natural Laima de 80-100 gramos es una opción natural y efectiva para controlar el olor corporal.</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>Cosmetica natural</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Desodorantes</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>13/08/2025</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>7.500,00</t>
-        </is>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>12.396,69</t>
-        </is>
-      </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>15.000,00</t>
-        </is>
-      </c>
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>65,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">60FN </t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">002008 </t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Pimenton Ahumado 50g Plut</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Pimenton Ahumado 50g Plut</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Pimentón ahumado, ideal para dar sabor a platos y salsas, con un toque ahumado distintivo.</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Sales y Condimentos</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>Condimentos</t>
-        </is>
-      </c>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -13562,34 +13546,34 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>1.546,50</t>
+          <t>2.213,33</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2.561,98</t>
+          <t>2.743,80</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>3.100,00</t>
+          <t>3.320,00</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>65,66</t>
+          <t>23,97</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">11BS </t>
+          <t xml:space="preserve">28HE </t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -13599,38 +13583,34 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve">002019 </t>
+          <t xml:space="preserve">736372523969 </t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Pimienta blanca en grano 50g Plut</t>
+          <t>Piedra de Alumbre desodorante LAIMA</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Pimienta blanca en grano 50g Plut</t>
+          <t>Piedra de Alumbre desodorante LAIMA</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Pimienta blanca en grano, perfecta para sazonar comidas con un sabor suave.</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>Yuyos Andy</t>
-        </is>
-      </c>
+          <t>El desodorante de piedra de alumbre 100% natural Laima de 80-100 gramos es una opción natural y efectiva para controlar el olor corporal.</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Sales y Condimentos</t>
+          <t>Cosmetica natural</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Condimentos</t>
+          <t>Desodorantes</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -13645,34 +13625,34 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2.272,50</t>
+          <t>7.500,00</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>3.760,33</t>
+          <t>12.396,69</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>4.550,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>65,47</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">49QQ </t>
+          <t xml:space="preserve">60FN </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -13682,22 +13662,22 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">002018 </t>
+          <t xml:space="preserve">002008 </t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo 50g Plut</t>
+          <t>Pimenton Ahumado 50g Plut</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo 50g Plut</t>
+          <t>Pimenton Ahumado 50g Plut</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo, ideal para sazonar platos y dar un toque de sabor.</t>
+          <t>Pimentón ahumado, ideal para dar sabor a platos y salsas, con un toque ahumado distintivo.</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -13733,29 +13713,29 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2.272,50</t>
+          <t>1.546,50</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>3.760,33</t>
+          <t>2.561,98</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>4.550,00</t>
+          <t>3.100,00</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>65,47</t>
+          <t>65,66</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">19SC </t>
+          <t xml:space="preserve">11BS </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -13765,22 +13745,22 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">011501 </t>
+          <t xml:space="preserve">002019 </t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>pimienta blanca polvo 50g plut</t>
+          <t>Pimienta blanca en grano 50g Plut</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>pimienta blanca polvo 50g plut</t>
+          <t>Pimienta blanca en grano 50g Plut</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo, perfecta para aderezar ensaladas y platos cocinados.</t>
+          <t>Pimienta blanca en grano, perfecta para sazonar comidas con un sabor suave.</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -13811,34 +13791,34 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>1.072,06</t>
+          <t>2.272,50</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>1.772,00</t>
+          <t>3.760,33</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>2.144,12</t>
+          <t>4.550,00</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>65,47</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">20OZ </t>
+          <t xml:space="preserve">49QQ </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -13848,22 +13828,22 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">002017 </t>
+          <t xml:space="preserve">002018 </t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Pimienta negra en grano x 50grs PLUT</t>
+          <t>Pimienta blanca en polvo 50g Plut</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Pimienta negra en grano x 50grs PLUT</t>
+          <t>Pimienta blanca en polvo 50g Plut</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Pimienta negra en grano, ideal para moler y dar un sabor intenso a tus comidas.</t>
+          <t>Pimienta blanca en polvo, ideal para sazonar platos y dar un toque de sabor.</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -13899,29 +13879,29 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2.575,00</t>
+          <t>2.272,50</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>4.256,20</t>
+          <t>3.760,33</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>5.150,00</t>
+          <t>4.550,00</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>65,47</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">78HB </t>
+          <t xml:space="preserve">19SC </t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -13931,22 +13911,22 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve">002020 </t>
+          <t xml:space="preserve">011501 </t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Pimienta negra molida 50g Plut</t>
+          <t>pimienta blanca polvo 50g plut</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Pimienta negra molida 50g Plut</t>
+          <t>pimienta blanca polvo 50g plut</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Pimienta negra molida, perfecta para sazonar platos y dar un toque picante.</t>
+          <t>Pimienta blanca en polvo, perfecta para aderezar ensaladas y platos cocinados.</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -13982,17 +13962,17 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>1.100,00</t>
+          <t>1.072,06</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>1.818,18</t>
+          <t>1.772,00</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>2.200,00</t>
+          <t>2.144,12</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
@@ -14004,7 +13984,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">72JJ </t>
+          <t xml:space="preserve">20OZ </t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -14014,36 +13994,40 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">0020221 </t>
+          <t xml:space="preserve">002017 </t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Pistacho salado con cascara 100gr Plutarco</t>
+          <t>Pimienta negra en grano x 50grs PLUT</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Pistacho salado con cascara 100gr Plutarco</t>
+          <t>Pimienta negra en grano x 50grs PLUT</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Pistachos salados con cascara naturales</t>
+          <t>Pimienta negra en grano, ideal para moler y dar un sabor intenso a tus comidas.</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr"/>
+          <t>Sales y Condimentos</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Condimentos</t>
+        </is>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -14056,34 +14040,34 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>3.675,00</t>
+          <t>2.575,00</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>5.495,87</t>
+          <t>4.256,20</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>6.650,00</t>
+          <t>5.150,00</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>49,55</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">98IA </t>
+          <t xml:space="preserve">78HB </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -14093,36 +14077,40 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">pistachos2 </t>
+          <t xml:space="preserve">002020 </t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Pistacho tostado pelado con sal PLUTARCO 100g</t>
+          <t>Pimienta negra molida 50g Plut</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Pistacho tostado pelado con sal PLUTARCO 100g</t>
+          <t>Pimienta negra molida 50g Plut</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Pistacho tostado, pelado y natural</t>
+          <t>Pimienta negra molida, perfecta para sazonar platos y dar un toque picante.</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr"/>
+          <t>Sales y Condimentos</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Condimentos</t>
+        </is>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -14135,34 +14123,34 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>06/10/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>5.775,00</t>
+          <t>1.100,00</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>7.438,02</t>
+          <t>1.818,18</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>9.000,00</t>
+          <t>2.200,00</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>28,80</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">82OM </t>
+          <t xml:space="preserve">72JJ </t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -14172,33 +14160,33 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798378750025 </t>
+          <t xml:space="preserve">0020221 </t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Pochoclos organico con sal marina BAMBOO</t>
+          <t>Pistacho salado con cascara 100gr Plutarco</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Pochoclos organico con sal marina BAMBOO</t>
+          <t>Pistacho salado con cascara 100gr Plutarco</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Pochoclos orgánicos, ligeros y crujientes, con un toque de sal marina, ideales como snack.</t>
+          <t>Pistachos salados con cascara naturales</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Green &amp; CO</t>
+          <t>Los Nogales</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Snack</t>
+          <t>Productos Sueltos</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -14214,34 +14202,34 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>1.290,00</t>
+          <t>3.675,00</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>1.900,83</t>
+          <t>5.495,87</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>2.300,00</t>
+          <t>6.650,00</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>47,35</t>
+          <t>49,55</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">90JG </t>
+          <t xml:space="preserve">98IA </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -14251,39 +14239,39 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798004720071 </t>
+          <t xml:space="preserve">pistachos2 </t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Polenta Del Campo 500 gr</t>
+          <t>Pistacho tostado pelado con sal PLUTARCO 100g</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Polenta Del Campo 500 gr</t>
+          <t>Pistacho tostado pelado con sal PLUTARCO 100g</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Polenta, un alimento a base de maíz, ideal para preparar platos cremosos o como acompañamiento.</t>
+          <t>Pistacho tostado, pelado y natural</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Eco Tierra</t>
+          <t>Los Nogales</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Cereales y Legumbres</t>
+          <t>Productos Sueltos</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -14293,34 +14281,34 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>03/09/2025</t>
+          <t>06/10/2025</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>1.210,00</t>
+          <t>5.775,00</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>1.809,95</t>
+          <t>7.438,02</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>9.000,00</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>49,58</t>
+          <t>28,80</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">81VO </t>
+          <t xml:space="preserve">82OM </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -14330,22 +14318,22 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve">7793323004932 </t>
+          <t xml:space="preserve">7798378750025 </t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Polenta Organica 450g Dicomere</t>
+          <t>Pochoclos organico con sal marina BAMBOO</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Polenta Organica 450g Dicomere</t>
+          <t>Pochoclos organico con sal marina BAMBOO</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Polenta orgánica, perfecta para preparar platos saludables y nutritivos.</t>
+          <t>Pochoclos orgánicos, ligeros y crujientes, con un toque de sal marina, ideales como snack.</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -14356,7 +14344,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Cereales y Legumbres</t>
+          <t>Snack</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -14372,34 +14360,34 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>900,00</t>
+          <t>1.290,00</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>1.487,60</t>
+          <t>1.900,83</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>1.800,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>47,35</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">77PT </t>
+          <t xml:space="preserve">90JG </t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -14409,27 +14397,27 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve">021891 </t>
+          <t xml:space="preserve">7798004720071 </t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Poroto Aduki 500g Plutarco</t>
+          <t>Polenta Del Campo 500 gr</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Poroto Aduki 500g Plutarco</t>
+          <t>Polenta Del Campo 500 gr</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Porotos aduki, ricos en proteínas y fibra, ideales para guisos y ensaladas.</t>
+          <t>Polenta, un alimento a base de maíz, ideal para preparar platos cremosos o como acompañamiento.</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Eco Tierra</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -14441,7 +14429,7 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -14451,34 +14439,34 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>03/09/2025</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>800,00</t>
+          <t>1.210,00</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>1.322,31</t>
+          <t>1.809,95</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>1.600,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>49,58</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">24MR </t>
+          <t xml:space="preserve">81VO </t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -14488,27 +14476,27 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">217227 </t>
+          <t xml:space="preserve">7793323004932 </t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Poroto Alubia 500g Plutarco</t>
+          <t>Polenta Organica 450g Dicomere</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Poroto Alubia 500g Plutarco</t>
+          <t>Polenta Organica 450g Dicomere</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Porotos alubia, ideales para preparar guisos y platos tradicionales.</t>
+          <t>Polenta orgánica, perfecta para preparar platos saludables y nutritivos.</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H176" t="inlineStr"/>
@@ -14535,17 +14523,17 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>1.410,00</t>
+          <t>900,00</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2.330,58</t>
+          <t>1.487,60</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>2.820,00</t>
+          <t>1.800,00</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
@@ -14557,7 +14545,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">22LL </t>
+          <t xml:space="preserve">77PT </t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -14567,22 +14555,22 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve">017393 </t>
+          <t xml:space="preserve">021891 </t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Poroto colorados 500g Plutarco</t>
+          <t>Poroto Aduki 500g Plutarco</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Poroto colorados 500g Plutarco</t>
+          <t>Poroto Aduki 500g Plutarco</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Porotos colorados, ricos en nutrientes, perfectos para guisos y ensaladas.</t>
+          <t>Porotos aduki, ricos en proteínas y fibra, ideales para guisos y ensaladas.</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -14609,34 +14597,34 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>1.520,00</t>
+          <t>800,00</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2.504,13</t>
+          <t>1.322,31</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>3.030,00</t>
+          <t>1.600,00</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>64,75</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">83YO </t>
+          <t xml:space="preserve">24MR </t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -14646,20 +14634,24 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve">325239 </t>
+          <t xml:space="preserve">217227 </t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Porotos negros 500g Plutarco</t>
+          <t>Poroto Alubia 500g Plutarco</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Porotos negros 500g Plutarco</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr"/>
+          <t>Poroto Alubia 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Porotos alubia, ideales para preparar guisos y platos tradicionales.</t>
+        </is>
+      </c>
       <c r="G178" t="inlineStr">
         <is>
           <t>Los Nogales</t>
@@ -14689,17 +14681,17 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>1.155,00</t>
+          <t>1.410,00</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>1.909,09</t>
+          <t>2.330,58</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>2.310,00</t>
+          <t>2.820,00</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
@@ -14711,7 +14703,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">24YI </t>
+          <t xml:space="preserve">22LL </t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -14721,22 +14713,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve">137329 </t>
+          <t xml:space="preserve">017393 </t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Porotos Pallares 500g Plutarco</t>
+          <t>Poroto colorados 500g Plutarco</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Porotos Pallares 500g Plutarco</t>
+          <t>Poroto colorados 500g Plutarco</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Porotos pallares, ideales para guisos y platos de legumbres, ricos en proteínas.</t>
+          <t>Porotos colorados, ricos en nutrientes, perfectos para guisos y ensaladas.</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -14768,319 +14760,307 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>1.520,00</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>4.669,42</t>
+          <t>2.504,13</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>5.650,00</t>
+          <t>3.030,00</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>55,65</t>
+          <t>64,75</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
+          <t xml:space="preserve">83YO </t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">325239 </t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Porotos negros 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Porotos negros 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Cereales y Legumbres</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>1.155,00</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>1.909,09</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>2.310,00</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24YI </t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">137329 </t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Porotos Pallares 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Porotos Pallares 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Porotos pallares, ideales para guisos y platos de legumbres, ricos en proteínas.</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Cereales y Legumbres</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>4.669,42</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>5.650,00</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>55,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
           <t xml:space="preserve">35QS </t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0015 </t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>Pre-pizza de arroz Plutarco</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>Pre-pizza de arroz Plutarco</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>Pre-pizza elaborada a base de Arroz Yamani, feculas y aceite de oliva organico. 
 Libre de gluten  (contiene contaminacion cruzada)
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr">
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
         <is>
           <t>Panificados Integrales</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
         <is>
           <t>10,50</t>
         </is>
       </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M180" t="inlineStr">
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
         <is>
           <t>17/09/2025</t>
         </is>
       </c>
-      <c r="N180" t="inlineStr">
+      <c r="N182" t="inlineStr">
         <is>
           <t>2.213,33</t>
         </is>
       </c>
-      <c r="O180" t="inlineStr">
+      <c r="O182" t="inlineStr">
         <is>
           <t>3.004,52</t>
         </is>
       </c>
-      <c r="P180" t="inlineStr">
+      <c r="P182" t="inlineStr">
         <is>
           <t>3.320,00</t>
         </is>
       </c>
-      <c r="Q180" t="inlineStr">
+      <c r="Q182" t="inlineStr">
         <is>
           <t>35,75</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t xml:space="preserve">72ET </t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0014 </t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>Pre-pizza integral Plutarco</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>Pre-pizza integral Plutarco</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>Elaborado a base de harina 100% integral organica, mix de semillas y masa madre.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>1.713,33</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>2.325,79</t>
-        </is>
-      </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>2.570,00</t>
-        </is>
-      </c>
-      <c r="Q181" t="inlineStr">
-        <is>
-          <t>35,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31EW </t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798338250077 </t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Queso castañas caju QU CRUDDA CLASICO</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Queso castañas caju QU CRUDDA CLASICO</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Queso vegano a base de castañas de cajú, ideal para untar o como ingrediente en ensaladas.</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>Green &amp; CO</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Veganos</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>13/08/2025</t>
-        </is>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>3.550,00</t>
-        </is>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>5.867,77</t>
-        </is>
-      </c>
-      <c r="P182" t="inlineStr">
-        <is>
-          <t>7.100,00</t>
-        </is>
-      </c>
-      <c r="Q182" t="inlineStr">
-        <is>
-          <t>65,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">36ES </t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798338250084 </t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Queso vegano de castañas de cajú con especias, perfecto para dar un toque especial a tus platos.</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Veganos</t>
-        </is>
-      </c>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15090,225 +15070,233 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>3.550,00</t>
+          <t>1.713,33</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>5.867,77</t>
+          <t>2.325,79</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>7.100,00</t>
+          <t>2.570,00</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
+          <t xml:space="preserve">31EW </t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798338250077 </t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Queso castañas caju QU CRUDDA CLASICO</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Queso castañas caju QU CRUDDA CLASICO</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Queso vegano a base de castañas de cajú, ideal para untar o como ingrediente en ensaladas.</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Veganos</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>3.550,00</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>5.867,77</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>7.100,00</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36ES </t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798338250084 </t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Queso vegano de castañas de cajú con especias, perfecto para dar un toque especial a tus platos.</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Veganos</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>3.550,00</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>5.867,77</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>7.100,00</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
           <t xml:space="preserve">65FX </t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
         <is>
           <t xml:space="preserve">7798414430010 </t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>Queso crema REBELDE</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>Queso crema REBELDE</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>Queso crema sin conservantes ni azucares agregados. 
 Perfecto para acompañar cualquier tipo de plato.</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>REBELDE (Panda Organic)</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Lacteos</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>20/08/2025</t>
-        </is>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>3.110,00</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>5.067,87</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>5.600,00</t>
-        </is>
-      </c>
-      <c r="Q184" t="inlineStr">
-        <is>
-          <t>62,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">52GA </t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">763571697221 </t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Queso Cremoso 250grs Felices las vacas</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Queso Cremoso 250grs Felices las vacas</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Queso cremoso, ideal para untar en tostadas o como ingrediente en recetas.</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Veganos</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M185" t="inlineStr">
-        <is>
-          <t>13/08/2025</t>
-        </is>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>1.865,00</t>
-        </is>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>3.082,64</t>
-        </is>
-      </c>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>3.730,00</t>
-        </is>
-      </c>
-      <c r="Q185" t="inlineStr">
-        <is>
-          <t>65,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">85VZ </t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">656750732656 </t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Queso Cremoso 500g Felices Las Vacas</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Queso Cremoso 500g Felices Las Vacas</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Queso cremoso en mayor cantidad, perfecto para quienes disfrutan de un queso suave y untar.</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
@@ -15317,12 +15305,12 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Lacteos</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -15332,34 +15320,34 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>20/08/2025</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>3.530,00</t>
+          <t>3.110,00</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>5.834,71</t>
+          <t>5.067,87</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>7.060,00</t>
+          <t>5.600,00</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>62,95</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">13NR </t>
+          <t xml:space="preserve">52GA </t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -15369,25 +15357,25 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480118 </t>
+          <t xml:space="preserve">763571697221 </t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Queso Cuartirolo 350grs x unidad La Choza ya</t>
+          <t>Queso Cremoso 250grs Felices las vacas</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Queso Cuartirolo 350grs x unidad La Choza ya fraccionado</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>La Choza</t>
-        </is>
-      </c>
+          <t>Queso Cremoso 250grs Felices las vacas</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Queso cremoso, ideal para untar en tostadas o como ingrediente en recetas.</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
@@ -15396,12 +15384,12 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Veganos</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -15411,34 +15399,34 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>6.430,00</t>
+          <t>1.865,00</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>8.144,80</t>
+          <t>3.082,64</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>9.000,00</t>
+          <t>3.730,00</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>26,67</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">50NS </t>
+          <t xml:space="preserve">85VZ </t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -15448,22 +15436,22 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve">763571697214 </t>
+          <t xml:space="preserve">656750732656 </t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Queso Mozzarella 250grs Felices las Vacas</t>
+          <t>Queso Cremoso 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Mozzarella 250grs Felices las Vacas</t>
+          <t>Queso Cremoso 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Mozzarella VEGANA, ideal para pizzas, ensaladas y platos italianos.</t>
+          <t>Queso cremoso en mayor cantidad, perfecto para quienes disfrutan de un queso suave y untar.</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
@@ -15495,17 +15483,17 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>1.865,00</t>
+          <t>3.530,00</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>3.082,64</t>
+          <t>5.834,71</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>3.730,00</t>
+          <t>7.060,00</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
@@ -15517,7 +15505,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">60GZ </t>
+          <t xml:space="preserve">13NR </t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -15527,25 +15515,25 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve">076625286228 </t>
+          <t xml:space="preserve">7798328480118 </t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Queso Mozzarella 500g Felices Las Vacas</t>
+          <t>Queso Cuartirolo 350grs x unidad La Choza ya</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Queso Mozzarella 500g Felices Las Vacas</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Mozzarella VEGANA, ideal para pizzas, lasañas y ensaladas, con una textura suave y cremosa.</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr"/>
+          <t>Queso Cuartirolo 350grs x unidad La Choza ya fraccionado</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
@@ -15554,12 +15542,12 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Lacteos</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -15569,34 +15557,34 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>3.530,00</t>
+          <t>6.430,00</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>5.834,71</t>
+          <t>8.144,80</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>7.060,00</t>
+          <t>9.000,00</t>
         </is>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>26,67</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">38JY </t>
+          <t xml:space="preserve">50NS </t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -15606,36 +15594,36 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMAQ0001 </t>
+          <t xml:space="preserve">763571697214 </t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
+          <t>Queso Mozzarella 250grs Felices las Vacas</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
+          <t>Mozzarella 250grs Felices las Vacas</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Quinoa blanca, un grano nutritivo y versátil, rico en proteínas y fibra, ideal para ensaladas y guisos.</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
-        </is>
-      </c>
+          <t>Mozzarella VEGANA, ideal para pizzas, ensaladas y platos italianos.</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Cereales y Legumbres</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr"/>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Veganos</t>
+        </is>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -15648,34 +15636,34 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>9.860,00</t>
+          <t>1.865,00</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>12.644,63</t>
+          <t>3.082,64</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>15.300,00</t>
+          <t>3.730,00</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>28,24</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">44JR </t>
+          <t xml:space="preserve">60GZ </t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -15685,36 +15673,36 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve">sumaq0002 </t>
+          <t xml:space="preserve">076625286228 </t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
+          <t>Queso Mozzarella 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
+          <t>Queso Mozzarella 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Quinoa blanca en menor cantidad, perfecta para quienes buscan un alimento saludable y fácil de preparar.</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
-        </is>
-      </c>
+          <t>Mozzarella VEGANA, ideal para pizzas, lasañas y ensaladas, con una textura suave y cremosa.</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Cereales y Legumbres</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr"/>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Veganos</t>
+        </is>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -15727,34 +15715,34 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>5.050,00</t>
+          <t>3.530,00</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>6.694,21</t>
+          <t>5.834,71</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>8.100,00</t>
+          <t>7.060,00</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>32,56</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">66QC </t>
+          <t xml:space="preserve">38JY </t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -15764,22 +15752,22 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve">sumaq0003 </t>
+          <t xml:space="preserve">SUMAQ0001 </t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Quinoa blanca, ideal para preparar porciones pequeñas, rica en nutrientes y fácil de cocinar.</t>
+          <t>Quinoa blanca, un grano nutritivo y versátil, rico en proteínas y fibra, ideal para ensaladas y guisos.</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -15811,29 +15799,29 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2.600,00</t>
+          <t>9.860,00</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>3.438,02</t>
+          <t>12.644,63</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>4.160,00</t>
+          <t>15.300,00</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>32,23</t>
+          <t>28,24</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">91NW </t>
+          <t xml:space="preserve">44JR </t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -15843,33 +15831,33 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve">7790495003404 </t>
+          <t xml:space="preserve">sumaq0002 </t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Quinoa POP 80g ying yang</t>
+          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Quinoa POP 80g ying yang</t>
+          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Quinoa inflada, un snack ligero y crujiente, ideal para añadir a yogures o como topping.</t>
+          <t>Quinoa blanca en menor cantidad, perfecta para quienes buscan un alimento saludable y fácil de preparar.</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>yin yang (dietetica cientifica)</t>
+          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
         </is>
       </c>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Snack</t>
+          <t>Cereales y Legumbres</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -15885,34 +15873,34 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>440,00</t>
+          <t>5.050,00</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>1.074,38</t>
+          <t>6.694,21</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>1.300,00</t>
+          <t>8.100,00</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>144,18</t>
+          <t>32,56</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">66MS </t>
+          <t xml:space="preserve">66QC </t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -15922,40 +15910,36 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACROZEN </t>
+          <t xml:space="preserve">sumaq0003 </t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Sal marina fina Macrozen 500 gr</t>
+          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Sal marina fina Macrozen 500 gr</t>
+          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Sal marina fina, ideal para sazonar platos y realzar sabores, sin aditivos.</t>
+          <t>Quinoa blanca, ideal para preparar porciones pequeñas, rica en nutrientes y fácil de cocinar.</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Eco Tierra</t>
+          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Sales y Condimentos</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
+          <t>Cereales y Legumbres</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -15968,34 +15952,34 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>1.200,00</t>
+          <t>2.600,00</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>1.570,25</t>
+          <t>3.438,02</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>1.900,00</t>
+          <t>4.160,00</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>30,85</t>
+          <t>32,23</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">59VE </t>
+          <t xml:space="preserve">91NW </t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -16005,36 +15989,36 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACROZEN1 </t>
+          <t xml:space="preserve">7790495003404 </t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Sal marina gruesa Macrozen 500 gr</t>
+          <t>Quinoa POP 80g ying yang</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Sal marina gruesa Macrozen 500 gr</t>
+          <t>Quinoa POP 80g ying yang</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Sal marina gruesa, perfecta para cocinar y sazonar, ideal para platos que requieren un toque de sal.</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr"/>
+          <t>Quinoa inflada, un snack ligero y crujiente, ideal para añadir a yogures o como topping.</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>yin yang (dietetica cientifica)</t>
+        </is>
+      </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Sales y Condimentos</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
+          <t>Snack</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -16047,34 +16031,34 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>1.200,00</t>
+          <t>440,00</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>1.570,25</t>
+          <t>1.074,38</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>1.900,00</t>
+          <t>1.300,00</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>30,85</t>
+          <t>144,18</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">90FK </t>
+          <t xml:space="preserve">66MS </t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -16084,25 +16068,29 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320056 </t>
+          <t xml:space="preserve">MACROZEN </t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 250g LIBERATO</t>
+          <t>Sal marina fina Macrozen 500 gr</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 250g LIBERATO</t>
+          <t>Sal marina fina Macrozen 500 gr</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Sal marina yodada, ideal para sazonar comidas, enriquecida con yodo para una dieta equilibrada.</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr"/>
+          <t>Sal marina fina, ideal para sazonar platos y realzar sabores, sin aditivos.</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Eco Tierra</t>
+        </is>
+      </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
@@ -16126,34 +16114,34 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>1.500,00</t>
+          <t>1.250,00</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2.809,92</t>
+          <t>1.652,89</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>3.400,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>87,33</t>
+          <t>32,23</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">39IK </t>
+          <t xml:space="preserve">59VE </t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -16163,22 +16151,22 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320520 </t>
+          <t xml:space="preserve">MACROZEN1 </t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 500g LIBERATO</t>
+          <t>Sal marina gruesa Macrozen 500 gr</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 500g LIBERATO</t>
+          <t>Sal marina gruesa Macrozen 500 gr</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Sal marina yodada en mayor cantidad, perfecta para uso diario en la cocina.</t>
+          <t>Sal marina gruesa, perfecta para cocinar y sazonar, ideal para platos que requieren un toque de sal.</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
@@ -16205,34 +16193,34 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>1.390,00</t>
+          <t>1.250,00</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2.644,63</t>
+          <t>1.652,89</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>3.200,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>90,26</t>
+          <t>32,23</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve">28QJ </t>
+          <t xml:space="preserve">90FK </t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -16242,22 +16230,22 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320063 </t>
+          <t xml:space="preserve">7798168320056 </t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Sal marina yodada fina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 250g LIBERATO</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Sal marina yodada fina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 250g LIBERATO</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Sal marina yodada fina, ideal para aderezar y sazonar, con un sabor puro y natural.</t>
+          <t>Sal marina yodada, ideal para sazonar comidas, enriquecida con yodo para una dieta equilibrada.</t>
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
@@ -16289,29 +16277,29 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>1.390,00</t>
+          <t>1.500,00</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2.644,63</t>
+          <t>2.809,92</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>3.200,00</t>
+          <t>3.400,00</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>90,26</t>
+          <t>87,33</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">48KK </t>
+          <t xml:space="preserve">39IK </t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -16321,22 +16309,22 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320070 </t>
+          <t xml:space="preserve">7798168320520 </t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Sal marina yodada gruesa 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 500g LIBERATO</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Sal marina yodada gruesa 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 500g LIBERATO</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Sal marina yodada gruesa, ideal para cocinar y sazonar, con un sabor intenso.</t>
+          <t>Sal marina yodada en mayor cantidad, perfecta para uso diario en la cocina.</t>
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
@@ -16390,7 +16378,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">99YQ </t>
+          <t xml:space="preserve">28QJ </t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -16400,29 +16388,25 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALROSA0001 </t>
+          <t xml:space="preserve">7798168320063 </t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya fina organica 500 gr</t>
+          <t>Sal marina yodada fina 500g LIBERATO</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya fina organica 500 gr</t>
+          <t>Sal marina yodada fina 500g LIBERATO</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya, rica en minerales, ideal para sazonar y dar un toque especial a tus platos.</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>Sol 7 -Pablo-</t>
-        </is>
-      </c>
+          <t>Sal marina yodada fina, ideal para aderezar y sazonar, con un sabor puro y natural.</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
@@ -16436,7 +16420,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -16451,29 +16435,29 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2.600,00</t>
+          <t>1.390,00</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>3.710,41</t>
+          <t>2.644,63</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>4.100,00</t>
+          <t>3.200,00</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>42,71</t>
+          <t>90,26</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">46NH </t>
+          <t xml:space="preserve">48KK </t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -16483,29 +16467,25 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALROSA0002 </t>
+          <t xml:space="preserve">7798168320070 </t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sal rosada del Himalaya gruesa organica 500 </t>
+          <t>Sal marina yodada gruesa 500g LIBERATO</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya gruesa organica 500 gr</t>
+          <t>Sal marina yodada gruesa 500g LIBERATO</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Sal rosada gruesa, perfecta para usar en molinillos o como sal de mesa, con un sabor único.</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>Sol 7 -Pablo-</t>
-        </is>
-      </c>
+          <t>Sal marina yodada gruesa, ideal para cocinar y sazonar, con un sabor intenso.</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
@@ -16534,29 +16514,29 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2.600,00</t>
+          <t>1.390,00</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>3.388,43</t>
+          <t>2.644,63</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>4.100,00</t>
+          <t>3.200,00</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>30,32</t>
+          <t>90,26</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">61BI </t>
+          <t xml:space="preserve">99YQ </t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -16566,22 +16546,22 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALROSA0003 </t>
+          <t xml:space="preserve">SALROSA0001 </t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sal rosada del Himalaya hierbas organica 500 </t>
+          <t>Sal rosada del Himalaya fina organica 500 gr</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya hierbas organica 500 gr</t>
+          <t>Sal rosada del Himalaya fina organica 500 gr</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Sal rosada con hierbas, ideal para sazonar platos y dar un toque aromático.</t>
+          <t>Sal rosada del Himalaya, rica en minerales, ideal para sazonar y dar un toque especial a tus platos.</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -16602,7 +16582,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -16622,7 +16602,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>3.388,43</t>
+          <t>3.710,41</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
@@ -16632,14 +16612,14 @@
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>30,32</t>
+          <t>42,71</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">96ZZ </t>
+          <t xml:space="preserve">46NH </t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -16649,36 +16629,40 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve">002320 </t>
+          <t xml:space="preserve">SALROSA0002 </t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
+          <t xml:space="preserve">Sal rosada del Himalaya gruesa organica 500 </t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
+          <t>Sal rosada del Himalaya gruesa organica 500 gr</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Salsa de soja Shoyu, ideal para aderezar platos asiáticos y dar un sabor umami.</t>
+          <t>Sal rosada gruesa, perfecta para usar en molinillos o como sal de mesa, con un sabor único.</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Tofu Mei</t>
+          <t>Sol 7 -Pablo-</t>
         </is>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J203" t="inlineStr"/>
+          <t>Sales y Condimentos</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -16691,34 +16675,34 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>2.600,00</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>9.008,26</t>
+          <t>3.388,43</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>10.900,00</t>
+          <t>4.100,00</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>32,47</t>
+          <t>30,32</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">31PU </t>
+          <t xml:space="preserve">61BI </t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -16728,34 +16712,38 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798429310116 </t>
+          <t xml:space="preserve">SALROSA0003 </t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Salsa de tomate hecha pomarola 500cc FINCA P</t>
+          <t xml:space="preserve">Sal rosada del Himalaya hierbas organica 500 </t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Salsa de tomate hecha pomarola 500cc FINCA PARU</t>
+          <t>Sal rosada del Himalaya hierbas organica 500 gr</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Producto de la agricultura organica, libre de gluten</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr"/>
+          <t>Sal rosada con hierbas, ideal para sazonar platos y dar un toque aromático.</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Sol 7 -Pablo-</t>
+        </is>
+      </c>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Sales y Condimentos</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Conservas</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -16770,34 +16758,34 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2.560,00</t>
+          <t>2.600,00</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>3.842,98</t>
+          <t>3.388,43</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>4.650,00</t>
+          <t>4.100,00</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>50,12</t>
+          <t>30,32</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">30UB </t>
+          <t xml:space="preserve">96ZZ </t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -16807,40 +16795,36 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791045511912 </t>
+          <t xml:space="preserve">002320 </t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
+          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
+          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Salsa de tomate ORGANICA, ideal para preparar pastas, guisos y pizzas, con un sabor casero.</t>
+          <t>Salsa de soja Shoyu, ideal para aderezar platos asiáticos y dar un sabor umami.</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Hecho en Argentina</t>
+          <t>Tofu Mei</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -16853,34 +16837,34 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>3.910,00</t>
+          <t>6.800,00</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>5.785,12</t>
+          <t>9.008,26</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>7.000,00</t>
+          <t>10.900,00</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>47,96</t>
+          <t>32,47</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">52HO </t>
+          <t xml:space="preserve">31PU </t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -16890,32 +16874,36 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel18 </t>
+          <t xml:space="preserve">7798429310116 </t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Semillas de Chia 100grs</t>
+          <t>Salsa de tomate hecha pomarola 500cc FINCA P</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Semillas de Chia 100grs</t>
+          <t>Salsa de tomate hecha pomarola 500cc FINCA PARU</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Semillas de chía, ricas en omega-3 y fibra, perfectas para añadir a batidos y yogures.</t>
+          <t>Producto de la agricultura organica, libre de gluten</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr"/>
+          <t>Aceites y Conservas</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Conservas</t>
+        </is>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -16928,34 +16916,34 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>350,00</t>
+          <t>2.560,00</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>578,51</t>
+          <t>3.842,98</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>700,00</t>
+          <t>4.650,00</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>50,12</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">16VW </t>
+          <t xml:space="preserve">30UB </t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -16965,32 +16953,40 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel17 </t>
+          <t xml:space="preserve">7791045511912 </t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Semillas de Lino 100grs</t>
+          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Semillas de Lino 100grs</t>
+          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Semillas de lino, ricas en ácidos grasos omega-3, ideales para añadir a cereales y batidos.</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr"/>
+          <t>Salsa de tomate ORGANICA, ideal para preparar pastas, guisos y pizzas, con un sabor casero.</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Hecho en Argentina</t>
+        </is>
+      </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr"/>
+          <t>Aceites y Conservas</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Conservas</t>
+        </is>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17003,34 +16999,34 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>100,00</t>
+          <t>3.910,00</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>330,58</t>
+          <t>5.785,12</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>400,00</t>
+          <t>7.000,00</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>230,58</t>
+          <t>47,96</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">11CU </t>
+          <t xml:space="preserve">52HO </t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -17040,22 +17036,22 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel19 </t>
+          <t xml:space="preserve">Granel18 </t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Semillas de Sesamo 100grs</t>
+          <t>Semillas de Chia 100grs</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Semillas de Sesamo 100grs</t>
+          <t>Semillas de Chia 100grs</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Semillas de sésamo, ricas en nutrientes, perfectas para añadir a ensaladas y repostería.</t>
+          <t>Semillas de chía, ricas en omega-3 y fibra, perfectas para añadir a batidos y yogures.</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -17083,17 +17079,17 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>290,00</t>
+          <t>350,00</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>479,34</t>
+          <t>578,51</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>580,00</t>
+          <t>700,00</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
@@ -17105,7 +17101,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">74UK </t>
+          <t xml:space="preserve">16VW </t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -17115,22 +17111,22 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel20 </t>
+          <t xml:space="preserve">Granel17 </t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Semillas de Zapallo 100grs</t>
+          <t>Semillas de Lino 100grs</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Semillas de Zapallo 100grs</t>
+          <t>Semillas de Lino 100grs</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Semillas de zapallo, ricas en proteínas y minerales, ideales como snack o en ensaladas.</t>
+          <t>Semillas de lino, ricas en ácidos grasos omega-3, ideales para añadir a cereales y batidos.</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -17158,29 +17154,29 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>910,00</t>
+          <t>100,00</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>1.504,13</t>
+          <t>330,58</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>1.820,00</t>
+          <t>400,00</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>230,58</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">62BB </t>
+          <t xml:space="preserve">11CU </t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -17190,36 +17186,32 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798028624010 </t>
+          <t xml:space="preserve">Granel19 </t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Shampoo Avena y keratina x 300 cc OMS</t>
+          <t>Semillas de Sesamo 100grs</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Shampoo Avena y keratina x 300 cc OMS</t>
+          <t>Semillas de Sesamo 100grs</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Ideal para nutrir en profundidad cabellos secos, quebradizos, dañados por agentes externos y sin brillo.</t>
+          <t>Semillas de sésamo, ricas en nutrientes, perfectas para añadir a ensaladas y repostería.</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Cosmetica natural</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Shampoos y Acondicionadores</t>
-        </is>
-      </c>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17237,17 +17229,17 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>7.750,00</t>
+          <t>290,00</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>12.809,92</t>
+          <t>479,34</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>15.500,00</t>
+          <t>580,00</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
@@ -17259,7 +17251,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">25HZ </t>
+          <t xml:space="preserve">74UK </t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -17269,36 +17261,32 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795399902297 </t>
+          <t xml:space="preserve">Granel20 </t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
+          <t>Semillas de Zapallo 100grs</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
+          <t>Semillas de Zapallo 100grs</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Shampoo para cabellos normales. A base de derivados de coco, contiene vitamina E. Es humectante, contiene antioxidantes y otorga un brillo especial al cabello.</t>
+          <t>Semillas de zapallo, ricas en proteínas y minerales, ideales como snack o en ensaladas.</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Cosmetica natural</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Shampoos y Acondicionadores</t>
-        </is>
-      </c>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17316,29 +17304,29 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2.900,00</t>
+          <t>910,00</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>5.619,83</t>
+          <t>1.504,13</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>1.820,00</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>93,79</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">23DF </t>
+          <t xml:space="preserve">62BB </t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -17348,22 +17336,22 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795399902327 </t>
+          <t xml:space="preserve">7798028624010 </t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
+          <t>Shampoo Avena y keratina x 300 cc OMS</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
+          <t>Shampoo Avena y keratina x 300 cc OMS</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Shampoo, a base de derivados de coco, contiene vitamina E. Gracias a los actvivos de aloe vera y limon, es antioxidante, reduce la grasitud del cabello y combate la caspa</t>
+          <t>Ideal para nutrir en profundidad cabellos secos, quebradizos, dañados por agentes externos y sin brillo.</t>
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
@@ -17395,29 +17383,29 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2.900,00</t>
+          <t>7.750,00</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>5.619,83</t>
+          <t>12.809,92</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>15.500,00</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>93,79</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">85DD </t>
+          <t xml:space="preserve">25HZ </t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -17427,23 +17415,22 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795399902310 </t>
+          <t xml:space="preserve">7795399902297 </t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
+          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
+          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shampoo a base de deriados del coco, contiene vitamina E. Especial para evitar la caida del cabello.
-</t>
+          <t>Shampoo para cabellos normales. A base de derivados de coco, contiene vitamina E. Es humectante, contiene antioxidantes y otorga un brillo especial al cabello.</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
@@ -17497,7 +17484,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">85PW </t>
+          <t xml:space="preserve">23DF </t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -17507,32 +17494,36 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colonial1 </t>
+          <t xml:space="preserve">7795399902327 </t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Tableta chocolate 70% colonial 150g suelto</t>
+          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Tableta chocolate 70% colonial 150g suelto</t>
+          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Tableta de Chocolate amargo 70% primera calidad</t>
+          <t>Shampoo, a base de derivados de coco, contiene vitamina E. Gracias a los actvivos de aloe vera y limon, es antioxidante, reduce la grasitud del cabello y combate la caspa</t>
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J214" t="inlineStr"/>
+          <t>Cosmetica natural</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Shampoos y Acondicionadores</t>
+        </is>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17545,34 +17536,34 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2.900,00</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>6.115,70</t>
+          <t>5.619,83</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>7.400,00</t>
+          <t>6.800,00</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>93,79</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">39BS </t>
+          <t xml:space="preserve">85DD </t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -17582,38 +17573,35 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve">453678947321 </t>
+          <t xml:space="preserve">7795399902310 </t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Tahini 330grs mediano oh yeah</t>
+          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Tahini 330grs mediano oh yeah</t>
+          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t xml:space="preserve">El tahini es una pasta cremosa elaborada a partir de semillas de sésamo molidas. Es un ingrediente esencial en la cocina de Oriente Medio y el Mediterráneo, y se utiliza para dar sabor y consistencia a platos como el hummus y el baba ganoush. Tiene un sabor a nuez, a veces con un ligero amargor, y es rico en proteínas y grasas saludables. </t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>Oh Yeah It's Vegan!</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Shampoo a base de deriados del coco, contiene vitamina E. Especial para evitar la caida del cabello.
+</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Cosmetica natural</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Conservas</t>
+          <t>Shampoos y Acondicionadores</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -17628,34 +17616,34 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>6.100,00</t>
+          <t>2.900,00</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>9.008,26</t>
+          <t>5.619,83</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>10.900,00</t>
+          <t>6.800,00</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>47,68</t>
+          <t>93,79</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">30WW </t>
+          <t xml:space="preserve">85PW </t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -17665,40 +17653,32 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve">002479 </t>
+          <t xml:space="preserve">Colonial1 </t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Te de burro (Burrito) PLUT 50g</t>
+          <t>Tableta chocolate 70% colonial 150g suelto</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Te de burro (Burrito) PLUT 50g</t>
+          <t>Tableta chocolate 70% colonial 150g suelto</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Hierba de burro, utilizada en infusiones, con propiedades digestivas y un sabor suave.</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>Yuyos Andy</t>
-        </is>
-      </c>
+          <t>Tableta de Chocolate amargo 70% primera calidad</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Yuyos</t>
-        </is>
-      </c>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17716,29 +17696,29 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>1.726,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2.859,50</t>
+          <t>6.115,70</t>
         </is>
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>3.460,00</t>
+          <t>7.400,00</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>65,67</t>
+          <t>0,00</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">56PV </t>
+          <t xml:space="preserve">39BS </t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -17748,43 +17728,43 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOFUMEI0001 </t>
+          <t xml:space="preserve">453678947321 </t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tofu ARTESANAL MEI 500g</t>
+          <t>Tahini 330grs mediano oh yeah</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Tofu ARTESANAL MEI 500g</t>
+          <t>Tahini 330grs mediano oh yeah</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Tofu artesanal, una excelente fuente de proteínas vegetales, ideal para salteados y ensaladas.</t>
+          <t xml:space="preserve">El tahini es una pasta cremosa elaborada a partir de semillas de sésamo molidas. Es un ingrediente esencial en la cocina de Oriente Medio y el Mediterráneo, y se utiliza para dar sabor y consistencia a platos como el hummus y el baba ganoush. Tiene un sabor a nuez, a veces con un ligero amargor, y es rico en proteínas y grasas saludables. </t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Tofu Mei</t>
+          <t>Oh Yeah It's Vegan!</t>
         </is>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Aceites y Conservas</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Conservas</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17799,29 +17779,29 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>5.800,00</t>
+          <t>6.100,00</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>8.325,79</t>
+          <t>9.008,26</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>9.200,00</t>
+          <t>10.900,00</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>43,55</t>
+          <t>47,68</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">82LS </t>
+          <t xml:space="preserve">30WW </t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -17831,43 +17811,43 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798383880014 </t>
+          <t xml:space="preserve">002479 </t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tofu organico Soyana 350 grs</t>
+          <t>Te de burro (Burrito) PLUT 50g</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Tofu organico Soyana 350 grs</t>
+          <t>Te de burro (Burrito) PLUT 50g</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Tofu orgánico, rico en proteínas, ideal para preparar platos vegetarianos y veganos.</t>
+          <t>Hierba de burro, utilizada en infusiones, con propiedades digestivas y un sabor suave.</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Soyana</t>
+          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Yuyos</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -17877,34 +17857,34 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>4.120,00</t>
+          <t>1.726,00</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>6.787,33</t>
+          <t>2.859,50</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>7.500,00</t>
+          <t>3.460,00</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>64,74</t>
+          <t>65,67</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">89LL </t>
+          <t xml:space="preserve">56PV </t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -17914,43 +17894,43 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve">7788465825354 </t>
+          <t xml:space="preserve">TOFUMEI0001 </t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tomate triturado SAPIENZA 1Lt</t>
+          <t>Tofu ARTESANAL MEI 500g</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Tomate triturado SAPIENZA 1Lt</t>
+          <t>Tofu ARTESANAL MEI 500g</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Tomate 100%  triturado natural, ideal para salsas y guisos, con un sabor fresco y natural.</t>
+          <t>Tofu artesanal, una excelente fuente de proteínas vegetales, ideal para salteados y ensaladas.</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+          <t>Tofu Mei</t>
         </is>
       </c>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Refrigerados</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Conservas</t>
+          <t>Veganos</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -17960,34 +17940,34 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>03/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2.925,00</t>
+          <t>5.800,00</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>4.380,17</t>
+          <t>8.325,79</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>5.300,00</t>
+          <t>9.200,00</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>49,75</t>
+          <t>43,55</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">10PH </t>
+          <t xml:space="preserve">82LS </t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -17997,39 +17977,43 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve">0025881 </t>
+          <t xml:space="preserve">7798383880014 </t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Tomates deshidratados Plutarco x100g</t>
+          <t>Tofu organico Soyana 350 grs</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Tomates deshidratados Plutarco x100g</t>
+          <t>Tofu organico Soyana 350 grs</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Tomates deshidratados, secos al sol</t>
+          <t>Tofu orgánico, rico en proteínas, ideal para preparar platos vegetarianos y veganos.</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Soyana</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J220" t="inlineStr"/>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Veganos</t>
+        </is>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -18039,312 +18023,320 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>528,00</t>
+          <t>4.120,00</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>872,73</t>
+          <t>6.787,33</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>1.056,00</t>
+          <t>7.500,00</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>64,74</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
+          <t xml:space="preserve">89LL </t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7788465825354 </t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Tomate triturado SAPIENZA 1Lt</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Tomate triturado SAPIENZA 1Lt</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Tomate 100%  triturado natural, ideal para salsas y guisos, con un sabor fresco y natural.</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Aceites y Conservas</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Conservas</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>03/09/2025</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>2.925,00</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>4.380,17</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>5.300,00</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>49,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10PH </t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0025881 </t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Tomates deshidratados Plutarco x100g</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Tomates deshidratados Plutarco x100g</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Tomates deshidratados, secos al sol</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>528,00</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>872,73</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>1.056,00</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
           <t xml:space="preserve">88OL </t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
         <is>
           <t xml:space="preserve">0720665957210 </t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="D223" t="inlineStr">
         <is>
           <t>TOQUES GARBANZOS CASA VEGANA x420g</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>TOQUES GARBANZOS CASA VEGANA x420g</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>Toques de Garbanzos marca CASA VEGANA
 Veganos y Muy Nutritivos.</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr">
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
         <is>
           <t>Congelados</t>
         </is>
       </c>
-      <c r="J221" t="inlineStr">
+      <c r="J223" t="inlineStr">
         <is>
           <t>Veganos</t>
         </is>
       </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M221" t="inlineStr">
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
         <is>
           <t>15/08/2025</t>
         </is>
       </c>
-      <c r="N221" t="inlineStr">
+      <c r="N223" t="inlineStr">
         <is>
           <t>3.200,00</t>
         </is>
       </c>
-      <c r="O221" t="inlineStr">
+      <c r="O223" t="inlineStr">
         <is>
           <t>4.876,03</t>
         </is>
       </c>
-      <c r="P221" t="inlineStr">
+      <c r="P223" t="inlineStr">
         <is>
           <t>5.900,00</t>
         </is>
       </c>
-      <c r="Q221" t="inlineStr">
+      <c r="Q223" t="inlineStr">
         <is>
           <t>52,38</t>
         </is>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t xml:space="preserve">60JI </t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0016 </t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="D224" t="inlineStr">
         <is>
           <t>Torta Galesa Plutarco</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>Torta Galesa Plutarco</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>Torta galesa super humeda, sabrosa y contundente
 Elaborada a base de harina 100% integral, cacao, mix de especias y nueces.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M222" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>6.333,33</t>
-        </is>
-      </c>
-      <c r="O222" t="inlineStr">
-        <is>
-          <t>8.597,29</t>
-        </is>
-      </c>
-      <c r="P222" t="inlineStr">
-        <is>
-          <t>9.500,00</t>
-        </is>
-      </c>
-      <c r="Q222" t="inlineStr">
-        <is>
-          <t>35,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t xml:space="preserve">88SH </t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0PUROM </t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Tortillas PURO MAIZ (GRANDES)</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Tortillas PURO MAIZ (GRANDES)</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Tortillas de maíz grandes, perfectas para hacer tacos, burritos o wraps, con un sabor auténtico.</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>Puro Maiz</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M223" t="inlineStr">
-        <is>
-          <t>29/08/2025</t>
-        </is>
-      </c>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>5.400,00</t>
-        </is>
-      </c>
-      <c r="O223" t="inlineStr">
-        <is>
-          <t>7.239,82</t>
-        </is>
-      </c>
-      <c r="P223" t="inlineStr">
-        <is>
-          <t>8.000,00</t>
-        </is>
-      </c>
-      <c r="Q223" t="inlineStr">
-        <is>
-          <t>34,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t xml:space="preserve">60SC </t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798131061467 </t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Panificados Integrales</t>
         </is>
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -18354,34 +18346,34 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>4.110,00</t>
+          <t>6.333,33</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>6.611,57</t>
+          <t>8.597,29</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>8.000,00</t>
+          <t>9.500,00</t>
         </is>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>60,87</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t xml:space="preserve">92LN </t>
+          <t xml:space="preserve">88SH </t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -18391,35 +18383,39 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t xml:space="preserve">458448 </t>
+          <t xml:space="preserve">0PUROM </t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO</t>
+          <t>Tortillas PURO MAIZ (GRANDES)</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO NATURE</t>
+          <t>Tortillas PURO MAIZ (GRANDES)</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Vinagre de sidra de manzana, ideal para aderezos y marinados, con propiedades digestivas.</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr"/>
+          <t>Tortillas de maíz grandes, perfectas para hacer tacos, burritos o wraps, con un sabor auténtico.</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Puro Maiz</t>
+        </is>
+      </c>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Refrigerados</t>
         </is>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -18429,34 +18425,34 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>29/08/2025</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>6.900,00</t>
+          <t>5.400,00</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>9.504,13</t>
+          <t>7.239,82</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>11.500,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>34,07</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">99II </t>
+          <t xml:space="preserve">60SC </t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -18466,25 +18462,25 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t xml:space="preserve">236262 </t>
+          <t xml:space="preserve">7798131061467 </t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO</t>
+          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO NATURE</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Vinagre de sidra de manzana en mayor cantidad, ideal para aderezos, marinados y como tónico natural.</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr"/>
+          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
@@ -18504,34 +18500,34 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>7.900,00</t>
+          <t>4.110,00</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>11.487,60</t>
+          <t>6.611,57</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>13.900,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>45,41</t>
+          <t>60,87</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t xml:space="preserve">62BS </t>
+          <t xml:space="preserve">92LN </t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -18541,22 +18537,22 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t xml:space="preserve">9465832156492 </t>
+          <t xml:space="preserve">458448 </t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
+          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
+          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO NATURE</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Vinagre vegano, ideal para aderezar ensaladas y dar un toque ácido a tus platos.</t>
+          <t>Vinagre de sidra de manzana, ideal para aderezos y marinados, con propiedades digestivas.</t>
         </is>
       </c>
       <c r="G227" t="inlineStr"/>
@@ -18579,34 +18575,34 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>4.200,00</t>
+          <t>6.900,00</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>6.347,11</t>
+          <t>9.504,13</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>7.680,00</t>
+          <t>11.500,00</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>51,12</t>
+          <t>37,74</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">38OL </t>
+          <t xml:space="preserve">99II </t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -18616,29 +18612,25 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t xml:space="preserve">946583215647 </t>
+          <t xml:space="preserve">236262 </t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
+          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
+          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO NATURE</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Vinagre vegano en mayor cantidad, perfecto para quienes buscan un aderezo saludable y natural.</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>Oh Yeah It's Vegan!</t>
-        </is>
-      </c>
+          <t>Vinagre de sidra de manzana en mayor cantidad, ideal para aderezos, marinados y como tónico natural.</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
@@ -18658,7 +18650,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -18668,24 +18660,24 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>11.528,93</t>
+          <t>11.487,60</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>13.950,00</t>
+          <t>13.900,00</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>45,94</t>
+          <t>45,41</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t xml:space="preserve">98CK </t>
+          <t xml:space="preserve">62BS </t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -18695,33 +18687,29 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131680149 </t>
+          <t xml:space="preserve">9465832156492 </t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin Malbec Roble</t>
+          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin Malbec Roble</t>
+          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color rojo ciruela con reflejos violáceos, en nariz se perciben el cassis, ciruela madura, vainilla. </t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>Hecho en Argentina</t>
-        </is>
-      </c>
+          <t>Vinagre vegano, ideal para aderezar ensaladas y dar un toque ácido a tus platos.</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Aceites y Conservas</t>
         </is>
       </c>
       <c r="J229" t="inlineStr"/>
@@ -18737,34 +18725,34 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>5.790,00</t>
+          <t>4.200,00</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>8.677,69</t>
+          <t>6.347,11</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>10.500,00</t>
+          <t>7.680,00</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>49,87</t>
+          <t>51,12</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">78DC </t>
+          <t xml:space="preserve">38OL </t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -18774,33 +18762,33 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131680194 </t>
+          <t xml:space="preserve">946583215647 </t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin syrah 750ml</t>
+          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin syrah 750ml</t>
+          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oscuro color rojo sangre, su sabor se asocia a especias y su aroma a higos y frutas secas. </t>
+          <t>Vinagre vegano en mayor cantidad, perfecto para quienes buscan un aderezo saludable y natural.</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Hecho en Argentina</t>
+          <t>Oh Yeah It's Vegan!</t>
         </is>
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Aceites y Conservas</t>
         </is>
       </c>
       <c r="J230" t="inlineStr"/>
@@ -18816,34 +18804,34 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>5.790,00</t>
+          <t>7.900,00</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>8.677,69</t>
+          <t>11.528,93</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>10.500,00</t>
+          <t>13.950,00</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>49,87</t>
+          <t>45,94</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">41HO </t>
+          <t xml:space="preserve">98CK </t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -18853,22 +18841,22 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131680378 </t>
+          <t xml:space="preserve">7798131680149 </t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Vino picum malbec 750ml</t>
+          <t>Vino organico familia cecchin Malbec Roble</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Vino picum malbec 750ml</t>
+          <t>Vino organico familia cecchin Malbec Roble</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>100% Vino orgánico Malbec. Es un vino rojo, granada. Intenso. Aroma a fresa y cereza. En boca taninos suaves y ductiles, final prolongado.</t>
+          <t xml:space="preserve">Color rojo ciruela con reflejos violáceos, en nariz se perciben el cassis, ciruela madura, vainilla. </t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -18895,34 +18883,34 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>4.660,00</t>
+          <t>5.790,00</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>6.859,50</t>
+          <t>8.677,69</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>8.300,00</t>
+          <t>10.500,00</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>47,20</t>
+          <t>49,87</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">48OU </t>
+          <t xml:space="preserve">78DC </t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -18932,40 +18920,36 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve">090125151497 </t>
+          <t xml:space="preserve">7798131680194 </t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Yerba Ajedrez 500 gr</t>
+          <t>Vino organico familia cecchin syrah 750ml</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Yerba Ajedrez 500 gr</t>
+          <t>Vino organico familia cecchin syrah 750ml</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Yerba mate Ajedrez, ideal para preparar un buen mate, con un sabor equilibrado y aromático.</t>
+          <t xml:space="preserve">Oscuro color rojo sangre, su sabor se asocia a especias y su aroma a higos y frutas secas. </t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+          <t>Hecho en Argentina</t>
         </is>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
+          <t>Bebidas</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -18978,34 +18962,34 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2.720,00</t>
+          <t>5.790,00</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>3.595,04</t>
+          <t>8.677,69</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>4.350,00</t>
+          <t>10.500,00</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>32,17</t>
+          <t>49,87</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">91YZ </t>
+          <t xml:space="preserve">41HO </t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -19015,40 +18999,36 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798199890016 </t>
+          <t xml:space="preserve">7798131680378 </t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Yerba Arapegua con palo 500g</t>
+          <t>Vino picum malbec 750ml</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Yerba Arapegua con palo 500g</t>
+          <t>Vino picum malbec 750ml</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Yerba mate Arapegua, con palo, ideal para quienes disfrutan de un sabor más suave y tradicional.</t>
+          <t>100% Vino orgánico Malbec. Es un vino rojo, granada. Intenso. Aroma a fresa y cereza. En boca taninos suaves y ductiles, final prolongado.</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Ino (Maelca)</t>
+          <t>Hecho en Argentina</t>
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
+          <t>Bebidas</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -19061,57 +19041,223 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>4.840,00</t>
+          <t>4.660,00</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>7.231,40</t>
+          <t>6.859,50</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>8.750,00</t>
+          <t>8.300,00</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>49,41</t>
+          <t>47,20</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
+          <t xml:space="preserve">48OU </t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">090125151497 </t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Yerba Ajedrez 500 gr</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Yerba Ajedrez 500 gr</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Yerba mate Ajedrez, ideal para preparar un buen mate, con un sabor equilibrado y aromático.</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>2.720,00</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>3.595,04</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>4.350,00</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>32,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91YZ </t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798199890016 </t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Yerba Arapegua con palo 500g</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Yerba Arapegua con palo 500g</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Yerba mate Arapegua, con palo, ideal para quienes disfrutan de un sabor más suave y tradicional.</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Ino (Maelca)</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>27/08/2025</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>4.840,00</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>7.231,40</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>8.750,00</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>49,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
           <t xml:space="preserve">66FP </t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
+      <c r="B236" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
         <is>
           <t xml:space="preserve">7798151510044 </t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
+      <c r="D236" t="inlineStr">
         <is>
           <t>Yerba Grapia Milenaria 500grs</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>Yerba Grapia Milenaria 500grs</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>Producida por pequeños agricultores que
 trabajan sin agrotóxicos y con respeto
@@ -19121,169 +19267,7 @@
 y es perfecta para compartir en cualquier momento.</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t>30/10/2025</t>
-        </is>
-      </c>
-      <c r="N234" t="inlineStr">
-        <is>
-          <t>2.800,00</t>
-        </is>
-      </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>3.719,01</t>
-        </is>
-      </c>
-      <c r="P234" t="inlineStr">
-        <is>
-          <t>4.500,00</t>
-        </is>
-      </c>
-      <c r="Q234" t="inlineStr">
-        <is>
-          <t>32,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15CP </t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200294 </t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>YERBA Jesper con hierbas serranas 500 gr</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>YERBA Jesper con hierbas serranas 500 gr</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>La combinación de la Yerba Mate con Menta, Peperina y Poleo combinan poderosas propiedades de hierbas naturales que favorecen la salud del organismo.</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M235" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N235" t="inlineStr">
-        <is>
-          <t>2.650,00</t>
-        </is>
-      </c>
-      <c r="O235" t="inlineStr">
-        <is>
-          <t>3.719,01</t>
-        </is>
-      </c>
-      <c r="P235" t="inlineStr">
-        <is>
-          <t>4.500,00</t>
-        </is>
-      </c>
-      <c r="Q235" t="inlineStr">
-        <is>
-          <t>40,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t xml:space="preserve">47GQ </t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200478 </t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>YERBA Jesper organica con palo 500 gr</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>YERBA Jesper organica con palo 500 gr</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Yerba mate orgánica Jesper, con palo, perfecta para preparar un mate saludable y sabroso.</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>Los Nogales</t>
-        </is>
-      </c>
+      <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
@@ -19307,12 +19291,12 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2.650,00</t>
+          <t>2.800,00</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -19327,14 +19311,14 @@
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>40,34</t>
+          <t>32,82</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">74BI </t>
+          <t xml:space="preserve">15CP </t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -19344,22 +19328,22 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798185200287 </t>
+          <t xml:space="preserve">7798185200294 </t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>YERBA Jesper tradicional 500 gr roja</t>
+          <t>YERBA Jesper con hierbas serranas 500 gr</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>YERBA Jesper tradicional 500 gr roja</t>
+          <t>YERBA Jesper con hierbas serranas 500 gr</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Producto elaborado con palo y resultado de un cuidadoso proceso de estacionamiento natural que permite que sus hojas desarrollen un sabor más equilibrado, sin amargor excesivo.</t>
+          <t>La combinación de la Yerba Mate con Menta, Peperina y Poleo combinan poderosas propiedades de hierbas naturales que favorecen la salud del organismo.</t>
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
@@ -19413,7 +19397,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve">98TJ </t>
+          <t xml:space="preserve">47GQ </t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -19423,22 +19407,22 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791312000224 </t>
+          <t xml:space="preserve">7798185200478 </t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>yerba Kalena con palo 500 gr</t>
+          <t>YERBA Jesper organica con palo 500 gr</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>yerba Kalena con palo 500 gr</t>
+          <t>YERBA Jesper organica con palo 500 gr</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Yerba mate Kalena, con palo, ideal para quienes buscan un sabor auténtico y tradicional.</t>
+          <t>Yerba mate orgánica Jesper, con palo, perfecta para preparar un mate saludable y sabroso.</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -19469,34 +19453,34 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>3.150,00</t>
+          <t>2.650,00</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>3.719,01</t>
         </is>
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>4.500,00</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>31,18</t>
+          <t>40,34</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">69ET </t>
+          <t xml:space="preserve">74BI </t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -19506,29 +19490,25 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791312000392 </t>
+          <t xml:space="preserve">7798185200287 </t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>yerba Kalena DESPALADA 500 gr</t>
+          <t>YERBA Jesper tradicional 500 gr roja</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>yerba Kalena DESPALADA 500 gr</t>
+          <t>YERBA Jesper tradicional 500 gr roja</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Yerba mate Kalena despalada, con un sabor más intenso, ideal para los amantes del mate fuerte.</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>Los Nogales</t>
-        </is>
-      </c>
+          <t>Producto elaborado con palo y resultado de un cuidadoso proceso de estacionamiento natural que permite que sus hojas desarrollen un sabor más equilibrado, sin amargor excesivo.</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
@@ -19552,34 +19532,34 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>30/10/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2.843,00</t>
+          <t>2.650,00</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>4.958,68</t>
+          <t>3.719,01</t>
         </is>
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>6.000,00</t>
+          <t>4.500,00</t>
         </is>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>74,42</t>
+          <t>40,34</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t xml:space="preserve">67GY </t>
+          <t xml:space="preserve">98TJ </t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -19589,25 +19569,29 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t xml:space="preserve">076625246352 </t>
+          <t xml:space="preserve">7791312000224 </t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Yerba La Buena 1kg</t>
+          <t>yerba Kalena con palo 500 gr</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Yerba La Buena 1kg</t>
+          <t>yerba Kalena con palo 500 gr</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr"/>
+          <t>Yerba mate Kalena, con palo, ideal para quienes buscan un sabor auténtico y tradicional.</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
@@ -19631,34 +19615,34 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>22/08/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>5.700,00</t>
+          <t>3.210,00</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>7.355,37</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>8.900,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>29,04</t>
+          <t>28,73</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t xml:space="preserve">19PM </t>
+          <t xml:space="preserve">69ET </t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -19668,25 +19652,29 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve">754697526977 </t>
+          <t xml:space="preserve">7791312000392 </t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Yerba La Buena 500 gr</t>
+          <t>yerba Kalena DESPALADA 500 gr</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Yerba La Buena 500 gr</t>
+          <t>yerba Kalena DESPALADA 500 gr</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr"/>
+          <t>Yerba mate Kalena despalada, con un sabor más intenso, ideal para los amantes del mate fuerte.</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
@@ -19710,34 +19698,34 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>22/08/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>3.850,00</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>4.958,68</t>
         </is>
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>28,80</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t xml:space="preserve">24OB </t>
+          <t xml:space="preserve">67GY </t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -19747,23 +19735,22 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798019800010 </t>
+          <t xml:space="preserve">076625246352 </t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Yerba mate 500g LAS TUNAS</t>
+          <t>Yerba La Buena 1kg</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Yerba mate 500g LAS TUNAS</t>
+          <t>Yerba La Buena 1kg</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Elaborada con palo, estacionamiento natural, sin componentes químicos.  Apta Celíacos.
-Producida por La cooperativa Las Tunas, ubicada en Misiones,  recibe anualmente 1 millón 500 mil kilos de hoja verde de sus socios y elabora entre 20 y 25 mil kilos de yerba mate que son comercializados en distintos lugares de la Argentina bajo la modalidad de venta directa, esto es: del productor al consumidor</t>
+          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
@@ -19790,57 +19777,216 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>22/08/2025</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2.050,00</t>
+          <t>5.700,00</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>3.388,43</t>
+          <t>7.355,37</t>
         </is>
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>4.100,00</t>
+          <t>8.900,00</t>
         </is>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>29,04</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
+          <t xml:space="preserve">19PM </t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">754697526977 </t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Yerba La Buena 500 gr</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Yerba La Buena 500 gr</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>4.132,23</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>5.000,00</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>37,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24OB </t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798019800010 </t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Yerba mate 500g LAS TUNAS</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Yerba mate 500g LAS TUNAS</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Elaborada con palo, estacionamiento natural, sin componentes químicos.  Apta Celíacos.
+Producida por La cooperativa Las Tunas, ubicada en Misiones,  recibe anualmente 1 millón 500 mil kilos de hoja verde de sus socios y elabora entre 20 y 25 mil kilos de yerba mate que son comercializados en distintos lugares de la Argentina bajo la modalidad de venta directa, esto es: del productor al consumidor</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>2.050,00</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>3.388,43</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>4.100,00</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
           <t xml:space="preserve">87DC </t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
+      <c r="B245" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
         <is>
           <t xml:space="preserve">7798146780018 </t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="D245" t="inlineStr">
         <is>
           <t>Yerba Mate Legado 500g</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>Yerba Mate Legado 500g</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="F245" t="inlineStr">
         <is>
           <t xml:space="preserve">Es un producto orgánico, sin aditivos químicos y cultivado en yerbales orgánicos, lleva el sello de certificación OIA de la empresa certificadora "Organización Internacional Agropecuaria" de Buenos Aires.
 Se extraen principalmente hojas maduras con ramas que luego se seleccionan enviando al “secadero” las de pequeño diámetro y descartando las de mayor grosor. Este proceso se denomina “quiebra” 
@@ -19848,168 +19994,6 @@
 </t>
         </is>
       </c>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M243" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N243" t="inlineStr">
-        <is>
-          <t>2.300,00</t>
-        </is>
-      </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>3.057,85</t>
-        </is>
-      </c>
-      <c r="P243" t="inlineStr">
-        <is>
-          <t>3.700,00</t>
-        </is>
-      </c>
-      <c r="Q243" t="inlineStr">
-        <is>
-          <t>32,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t xml:space="preserve">78TZ </t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200041 </t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Yerba Roapipo suave 500g</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Yerba Roapipo suave 500g</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Yerba mate Roapipo, suave y aromática, perfecta para quienes buscan un mate ligero.</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>Eco Tierra</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M244" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N244" t="inlineStr">
-        <is>
-          <t>2.710,00</t>
-        </is>
-      </c>
-      <c r="O244" t="inlineStr">
-        <is>
-          <t>4.132,23</t>
-        </is>
-      </c>
-      <c r="P244" t="inlineStr">
-        <is>
-          <t>5.000,00</t>
-        </is>
-      </c>
-      <c r="Q244" t="inlineStr">
-        <is>
-          <t>52,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t xml:space="preserve">58DG </t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798140140023 </t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Yerba TITRAYJU 500g</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>Yerba TITRAYJU 500g</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Yerba mate Titrayju, con un sabor fuerte y característico, ideal para los amantes del mate intenso.</t>
-        </is>
-      </c>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
@@ -20034,34 +20018,34 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>3.900,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>5.123,97</t>
+          <t>3.057,85</t>
         </is>
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>3.700,00</t>
         </is>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>31,38</t>
+          <t>32,95</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t xml:space="preserve">51OP </t>
+          <t xml:space="preserve">78TZ </t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -20071,25 +20055,29 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795568960271 </t>
+          <t xml:space="preserve">7798185200041 </t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Yerba Tucangua 500grs</t>
+          <t>Yerba Roapipo suave 500g</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Yerba Tucangua 500grs</t>
+          <t>Yerba Roapipo suave 500g</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Esta yerba tiene un perfil de sabor suave y sin notas amargas, a diferencia de otras yerbas. Se seca de manera natural y se añeja, y es 100% orgánica</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr"/>
+          <t>Yerba mate Roapipo, suave y aromática, perfecta para quienes buscan un mate ligero.</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Eco Tierra</t>
+        </is>
+      </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
@@ -20118,7 +20106,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2.800,00</t>
+          <t>2.710,00</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -20133,14 +20121,14 @@
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>47,58</t>
+          <t>52,48</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t xml:space="preserve">15ZF </t>
+          <t xml:space="preserve">58DG </t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -20150,43 +20138,39 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480309 </t>
+          <t xml:space="preserve">7798140140023 </t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Yogurth bebible F, bosque 500cm3 La Choza (N</t>
+          <t>Yerba TITRAYJU 500g</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Yogurth bebible F, bosque 500cm3 La Choza (NO incluye el envase)</t>
+          <t>Yerba TITRAYJU 500g</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Yogurth bebible de sabor bosque, cremoso y nutritivo, ideal para un snack saludable.</t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>La Choza</t>
-        </is>
-      </c>
+          <t>Yerba mate Titrayju, con un sabor fuerte y característico, ideal para los amantes del mate intenso.</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Yerba Mate</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -20196,34 +20180,34 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>4.150,00</t>
+          <t>3.900,00</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>5.248,87</t>
+          <t>5.123,97</t>
         </is>
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>5.800,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>26,48</t>
+          <t>31,38</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t xml:space="preserve">20YC </t>
+          <t xml:space="preserve">51OP </t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -20233,43 +20217,39 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480071 </t>
+          <t xml:space="preserve">7795568960271 </t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 1LT La Choza (NO in</t>
+          <t>Yerba Tucangua 500grs</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 1LT La Choza (NO incluye el envase)</t>
+          <t>Yerba Tucangua 500grs</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutilla, delicioso y refrescante, perfecto para disfrutar en cualquier momento.</t>
-        </is>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>La Choza</t>
-        </is>
-      </c>
+          <t>Esta yerba tiene un perfil de sabor suave y sin notas amargas, a diferencia de otras yerbas. Se seca de manera natural y se añeja, y es 100% orgánica</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Yerba Mate</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -20279,34 +20259,34 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>6.640,00</t>
+          <t>3.050,00</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>8.416,29</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>9.300,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>26,75</t>
+          <t>35,48</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t xml:space="preserve">47BB </t>
+          <t xml:space="preserve">15ZF </t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -20316,22 +20296,22 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480361 </t>
+          <t xml:space="preserve">7798328480309 </t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 500cm3 La Choza (NO</t>
+          <t>Yogurth bebible F, bosque 500cm3 La Choza (N</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 500cm3 La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible F, bosque 500cm3 La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutilla en menor cantidad, ideal para un snack rápido y sabroso.</t>
+          <t>Yogurth bebible de sabor bosque, cremoso y nutritivo, ideal para un snack saludable.</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -20367,29 +20347,29 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>4.000,00</t>
+          <t>4.150,00</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>5.067,87</t>
+          <t>5.248,87</t>
         </is>
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>5.600,00</t>
+          <t>5.800,00</t>
         </is>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>26,70</t>
+          <t>26,48</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t xml:space="preserve">63AA </t>
+          <t xml:space="preserve">20YC </t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -20399,22 +20379,22 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480057 </t>
+          <t xml:space="preserve">7798328480071 </t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutos rojos 1 LT La Choza (</t>
+          <t>Yogurth bebible frutilla 1LT La Choza (NO in</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutos rojos 1 LT La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible frutilla 1LT La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutos rojos, rico en sabor y nutrientes, ideal para un desayuno o merienda.</t>
+          <t>Yogurth bebible de frutilla, delicioso y refrescante, perfecto para disfrutar en cualquier momento.</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -20450,29 +20430,29 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>6.790,00</t>
+          <t>6.640,00</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>8.597,29</t>
+          <t>8.416,29</t>
         </is>
       </c>
       <c r="P250" t="inlineStr">
         <is>
-          <t>9.500,00</t>
+          <t>9.300,00</t>
         </is>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>26,62</t>
+          <t>26,75</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t xml:space="preserve">85ST </t>
+          <t xml:space="preserve">47BB </t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -20482,25 +20462,29 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t xml:space="preserve">325225 </t>
+          <t xml:space="preserve">7798328480361 </t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Yogurth griego 170g KAY</t>
+          <t>Yogurth bebible frutilla 500cm3 La Choza (NO</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Yogurth griego 170g KAY</t>
+          <t>Yogurth bebible frutilla 500cm3 La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Yogurth griego, cremoso y rico en proteínas, ideal para disfrutar solo o con frutas.</t>
-        </is>
-      </c>
-      <c r="G251" t="inlineStr"/>
+          <t>Yogurth bebible de frutilla en menor cantidad, ideal para un snack rápido y sabroso.</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
@@ -20514,7 +20498,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -20524,34 +20508,34 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>18/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>3.390,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>5.123,97</t>
+          <t>5.067,87</t>
         </is>
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>5.600,00</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>51,15</t>
+          <t>26,70</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t xml:space="preserve">12DU </t>
+          <t xml:space="preserve">63AA </t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -20561,25 +20545,29 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve">125151421 </t>
+          <t xml:space="preserve">7798328480057 </t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Yogurth griego 400g KAY</t>
+          <t>Yogurth bebible frutos rojos 1 LT La Choza (</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Yogurth griego 400g KAY</t>
+          <t>Yogurth bebible frutos rojos 1 LT La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Yogurth griego, perfecto para quienes buscan un snack saludable y nutritivo.</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr"/>
+          <t>Yogurth bebible de frutos rojos, rico en sabor y nutrientes, ideal para un desayuno o merienda.</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
@@ -20593,7 +20581,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -20603,34 +20591,34 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>18/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>7.270,00</t>
+          <t>6.790,00</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>11.157,02</t>
+          <t>8.597,29</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>13.500,00</t>
+          <t>9.500,00</t>
         </is>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>53,47</t>
+          <t>26,62</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t xml:space="preserve">73AZ </t>
+          <t xml:space="preserve">85ST </t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -20640,22 +20628,22 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t xml:space="preserve">4123241 </t>
+          <t xml:space="preserve">325225 </t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 200g</t>
+          <t>Yogurth griego 170g KAY</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 200g</t>
+          <t>Yogurth griego 170g KAY</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+          <t>Yogurth griego, cremoso y rico en proteínas, ideal para disfrutar solo o con frutas.</t>
         </is>
       </c>
       <c r="G253" t="inlineStr"/>
@@ -20682,34 +20670,34 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>18/08/2025</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>3.390,00</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>5.123,97</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>51,15</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t xml:space="preserve">85LG </t>
+          <t xml:space="preserve">12DU </t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -20719,29 +20707,25 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve">42355322 </t>
+          <t xml:space="preserve">125151421 </t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 370g</t>
+          <t>Yogurth griego 400g KAY</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 370g</t>
+          <t>Yogurth griego 400g KAY</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
-        </is>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>Camila GHURTH yogurth griego</t>
-        </is>
-      </c>
+          <t>Yogurth griego, perfecto para quienes buscan un snack saludable y nutritivo.</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
@@ -20765,34 +20749,34 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>18/08/2025</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>5.600,00</t>
+          <t>7.270,00</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>7.685,95</t>
+          <t>11.157,02</t>
         </is>
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>9.300,00</t>
+          <t>13.500,00</t>
         </is>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>37,25</t>
+          <t>53,47</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve">49HA </t>
+          <t xml:space="preserve">73AZ </t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -20802,17 +20786,17 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve">21712414 </t>
+          <t xml:space="preserve">4123241 </t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 750g</t>
+          <t>Yogurth griego natural ghurt 200g</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 750g</t>
+          <t>Yogurth griego natural ghurt 200g</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -20849,20 +20833,182 @@
       </c>
       <c r="N255" t="inlineStr">
         <is>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>4.132,23</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>5.000,00</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>37,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85LG </t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42355322 </t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 370g</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 370g</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Camila GHURTH yogurth griego</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Lacteos</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>5.600,00</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>7.685,95</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>9.300,00</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>37,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49HA </t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21712414 </t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 750g</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 750g</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Lacteos</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
           <t>10.800,00</t>
         </is>
       </c>
-      <c r="O255" t="inlineStr">
+      <c r="O257" t="inlineStr">
         <is>
           <t>14.462,81</t>
         </is>
       </c>
-      <c r="P255" t="inlineStr">
+      <c r="P257" t="inlineStr">
         <is>
           <t>17.500,00</t>
         </is>
       </c>
-      <c r="Q255" t="inlineStr">
+      <c r="Q257" t="inlineStr">
         <is>
           <t>33,91</t>
         </is>

--- a/media/articulos_filtrados.xlsx
+++ b/media/articulos_filtrados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q257"/>
+  <dimension ref="A1:Q258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4364,17 +4364,17 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>6.289,59</t>
+          <t>6.334,84</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>6.950,00</t>
+          <t>7.000,00</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>35,75</t>
+          <t>36,72</t>
         </is>
       </c>
     </row>
@@ -5634,17 +5634,17 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2.217,19</t>
+          <t>2.714,93</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2.450,00</t>
+          <t>3.000,00</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>121,72</t>
+          <t>171,49</t>
         </is>
       </c>
     </row>
@@ -5716,17 +5716,17 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>4.338,84</t>
+          <t>4.958,68</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>5.250,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>165,64</t>
+          <t>203,59</t>
         </is>
       </c>
     </row>
@@ -5797,17 +5797,17 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>4.751,13</t>
+          <t>5.429,86</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>5.250,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>35,75</t>
+          <t>55,14</t>
         </is>
       </c>
     </row>
@@ -5878,17 +5878,17 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>9.502,26</t>
+          <t>9.954,75</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>10.500,00</t>
+          <t>11.000,00</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>35,75</t>
+          <t>42,21</t>
         </is>
       </c>
     </row>
@@ -5959,17 +5959,17 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>18.552,04</t>
+          <t>18.099,55</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>20.500,00</t>
+          <t>20.000,00</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>35,75</t>
+          <t>32,44</t>
         </is>
       </c>
     </row>
@@ -12381,12 +12381,12 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>4.338,84</t>
+          <t>4.958,68</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>5.250,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
@@ -12858,17 +12858,17 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>4.932,13</t>
+          <t>5.067,87</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>5.450,00</t>
+          <t>5.600,00</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>35,75</t>
+          <t>39,48</t>
         </is>
       </c>
     </row>
@@ -12898,7 +12898,16 @@
           <t>Pan Dulce Chico SIN TACC Plutarco</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Pan dulce organico, artesanal y sin tacc
+Continene harina de almendra y harina de sarraceno, gran variedad de frutos secos, especias y jugo de frutas.
+Sus ingredientes le proporcionan un sabor único, fresco y natural.
+Ideal para compartir en familia.
+Peso aproximado 350g
+ATENCION: contiene contaminacion cruzada, no apto celiaco extricto</t>
+        </is>
+      </c>
       <c r="G156" t="inlineStr">
         <is>
           <t>Plutarco</t>
@@ -12969,7 +12978,15 @@
           <t>Pan Dulce Grande Plutarco</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Pan dulce integral, organico y artesanal
+Continene gran variedad de frutos secos y especias.
+Sus ingredientes le proporcionan un sabor único, fresco y natural.
+Ideal para compartir en familia.
+Peso aproximado 950g</t>
+        </is>
+      </c>
       <c r="G157" t="inlineStr">
         <is>
           <t>Plutarco</t>
@@ -13021,114 +13038,119 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t xml:space="preserve">53WX </t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PLUT0036 </t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Pan Dulce Grande SIN TACC Plutarco</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Pan Dulce Grande SIN TACC Plutarco</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Pan dulce organico, artesanal y sin tacc
+Continene harina de almendra y harina de sarraceno, gran variedad de frutos secos, especias y jugo de frutas.
+Sus ingredientes le proporcionan un sabor único, fresco y natural.
+Ideal para compartir en familia.
+Peso aproximado 800g
+ATENCION: contiene contaminacion cruzada, no apto celiaco extricto</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Plutarco</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>20.661,16</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>25.000,00</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
           <t xml:space="preserve">80TH </t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0062 </t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>Pan integral SIN SAL</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>Pan integral SIN SAL</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>Elaborado a base de harina 100% integral organica, mix de semillas y masa madre. No contiene sal de ningun tipo.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>3.633,33</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>4.504,13</t>
-        </is>
-      </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>5.450,00</t>
-        </is>
-      </c>
-      <c r="Q158" t="inlineStr">
-        <is>
-          <t>23,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18FB </t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PLUT0060 </t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Pan Vollkorn Plutarco</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Pan Vollkorn Plutarco</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>PROXIMAMENTE EN STOCK</t>
-        </is>
-      </c>
       <c r="G159" t="inlineStr">
         <is>
           <t>Plutarco</t>
@@ -13143,7 +13165,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -13158,29 +13180,29 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>4.133,33</t>
+          <t>3.633,33</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>5.610,86</t>
+          <t>4.504,13</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>5.450,00</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>35,75</t>
+          <t>23,97</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">67ML </t>
+          <t xml:space="preserve">18FB </t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -13190,35 +13212,39 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel16 </t>
+          <t xml:space="preserve">PLUT0060 </t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Pasas de Uva 100grs</t>
+          <t>Pan Vollkorn Plutarco</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Pasas de Uva 100grs</t>
+          <t>Pan Vollkorn Plutarco</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Pasas de uva, un snack dulce y nutritivo, perfectas para picar o añadir a cereales.</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
+          <t>PROXIMAMENTE EN STOCK</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Plutarco</t>
+        </is>
+      </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
+          <t>Panificados Integrales</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -13228,34 +13254,34 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>395,00</t>
+          <t>4.133,33</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>652,89</t>
+          <t>5.610,86</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>790,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">54DA </t>
+          <t xml:space="preserve">67ML </t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -13265,22 +13291,22 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel24 </t>
+          <t xml:space="preserve">Granel16 </t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Pasas de Uva con Chocolate 100grs</t>
+          <t>Pasas de Uva 100grs</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Pasas de Uva con Chocolate 100grs</t>
+          <t>Pasas de Uva 100grs</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Pasas cubiertas de chocolate, un delicioso snack que combina lo dulce con lo saludable.</t>
+          <t>Pasas de uva, un snack dulce y nutritivo, perfectas para picar o añadir a cereales.</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
@@ -13308,17 +13334,17 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>1.335,00</t>
+          <t>395,00</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2.206,61</t>
+          <t>652,89</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>2.670,00</t>
+          <t>790,00</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
@@ -13330,133 +13356,125 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
+          <t xml:space="preserve">54DA </t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Granel24 </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Pasas de Uva con Chocolate 100grs</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Pasas de Uva con Chocolate 100grs</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Pasas cubiertas de chocolate, un delicioso snack que combina lo dulce con lo saludable.</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>1.335,00</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>2.206,61</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>2.670,00</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
           <t xml:space="preserve">68NZ </t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0013 </t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>Pepas Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>Pepas Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>Esponjosa pepa elaborada artesanalmente con Membrillo organico, harina integral y azucar mascabo.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>2.213,33</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>3.004,52</t>
-        </is>
-      </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>3.320,00</t>
-        </is>
-      </c>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>35,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t xml:space="preserve">94NP </t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t xml:space="preserve">001996 </t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Peperina 50g Plut</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Peperina 50g Plut</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Hierba de peperina, utilizada en infusiones, con un sabor refrescante y propiedades digestivas.</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Yuyos</t>
-        </is>
-      </c>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -13466,153 +13484,157 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>1.770,00</t>
+          <t>2.213,33</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2.925,62</t>
+          <t>3.004,52</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>3.540,00</t>
+          <t>3.320,00</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
+          <t xml:space="preserve">94NP </t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">001996 </t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Peperina 50g Plut</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Peperina 50g Plut</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Hierba de peperina, utilizada en infusiones, con un sabor refrescante y propiedades digestivas.</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Yuyos Andy</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Yuyos</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>1.770,00</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>2.925,62</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>3.540,00</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
           <t xml:space="preserve">34BM </t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0050 </t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>Pepitos con chips Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>Pepitos con chips Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>Esponjosa pepa elaborada artesanalmente con chips de chocolate semiamargo, harina integral y azucar mascabo.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>2.213,33</t>
-        </is>
-      </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>2.743,80</t>
-        </is>
-      </c>
-      <c r="P164" t="inlineStr">
-        <is>
-          <t>3.320,00</t>
-        </is>
-      </c>
-      <c r="Q164" t="inlineStr">
-        <is>
-          <t>23,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28HE </t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">736372523969 </t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Piedra de Alumbre desodorante LAIMA</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Piedra de Alumbre desodorante LAIMA</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>El desodorante de piedra de alumbre 100% natural Laima de 80-100 gramos es una opción natural y efectiva para controlar el olor corporal.</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Cosmetica natural</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>Desodorantes</t>
-        </is>
-      </c>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -13625,34 +13647,34 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>7.500,00</t>
+          <t>2.213,33</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>12.396,69</t>
+          <t>2.743,80</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>15.000,00</t>
+          <t>3.320,00</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>23,97</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">60FN </t>
+          <t xml:space="preserve">28HE </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -13662,38 +13684,34 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">002008 </t>
+          <t xml:space="preserve">736372523969 </t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Pimenton Ahumado 50g Plut</t>
+          <t>Piedra de Alumbre desodorante LAIMA</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Pimenton Ahumado 50g Plut</t>
+          <t>Piedra de Alumbre desodorante LAIMA</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Pimentón ahumado, ideal para dar sabor a platos y salsas, con un toque ahumado distintivo.</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>Yuyos Andy</t>
-        </is>
-      </c>
+          <t>El desodorante de piedra de alumbre 100% natural Laima de 80-100 gramos es una opción natural y efectiva para controlar el olor corporal.</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Sales y Condimentos</t>
+          <t>Cosmetica natural</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Condimentos</t>
+          <t>Desodorantes</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -13708,34 +13726,34 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>1.546,50</t>
+          <t>7.500,00</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2.561,98</t>
+          <t>12.396,69</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>3.100,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>65,66</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">11BS </t>
+          <t xml:space="preserve">60FN </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -13745,22 +13763,22 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">002019 </t>
+          <t xml:space="preserve">002008 </t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Pimienta blanca en grano 50g Plut</t>
+          <t>Pimenton Ahumado 50g Plut</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Pimienta blanca en grano 50g Plut</t>
+          <t>Pimenton Ahumado 50g Plut</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Pimienta blanca en grano, perfecta para sazonar comidas con un sabor suave.</t>
+          <t>Pimentón ahumado, ideal para dar sabor a platos y salsas, con un toque ahumado distintivo.</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -13796,29 +13814,29 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2.272,50</t>
+          <t>1.546,50</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>3.760,33</t>
+          <t>2.561,98</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>4.550,00</t>
+          <t>3.100,00</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>65,47</t>
+          <t>65,66</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">49QQ </t>
+          <t xml:space="preserve">11BS </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -13828,22 +13846,22 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">002018 </t>
+          <t xml:space="preserve">002019 </t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo 50g Plut</t>
+          <t>Pimienta blanca en grano 50g Plut</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo 50g Plut</t>
+          <t>Pimienta blanca en grano 50g Plut</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo, ideal para sazonar platos y dar un toque de sabor.</t>
+          <t>Pimienta blanca en grano, perfecta para sazonar comidas con un sabor suave.</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -13901,7 +13919,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">19SC </t>
+          <t xml:space="preserve">49QQ </t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -13911,22 +13929,22 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve">011501 </t>
+          <t xml:space="preserve">002018 </t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>pimienta blanca polvo 50g plut</t>
+          <t>Pimienta blanca en polvo 50g Plut</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>pimienta blanca polvo 50g plut</t>
+          <t>Pimienta blanca en polvo 50g Plut</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo, perfecta para aderezar ensaladas y platos cocinados.</t>
+          <t>Pimienta blanca en polvo, ideal para sazonar platos y dar un toque de sabor.</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -13957,34 +13975,34 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>1.072,06</t>
+          <t>2.272,50</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>1.772,00</t>
+          <t>3.760,33</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>2.144,12</t>
+          <t>4.550,00</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>65,47</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">20OZ </t>
+          <t xml:space="preserve">19SC </t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -13994,22 +14012,22 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">002017 </t>
+          <t xml:space="preserve">011501 </t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Pimienta negra en grano x 50grs PLUT</t>
+          <t>pimienta blanca polvo 50g plut</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Pimienta negra en grano x 50grs PLUT</t>
+          <t>pimienta blanca polvo 50g plut</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Pimienta negra en grano, ideal para moler y dar un sabor intenso a tus comidas.</t>
+          <t>Pimienta blanca en polvo, perfecta para aderezar ensaladas y platos cocinados.</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -14040,22 +14058,22 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2.575,00</t>
+          <t>1.072,06</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>4.256,20</t>
+          <t>1.772,00</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>5.150,00</t>
+          <t>2.144,12</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
@@ -14067,7 +14085,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">78HB </t>
+          <t xml:space="preserve">20OZ </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -14077,22 +14095,22 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">002020 </t>
+          <t xml:space="preserve">002017 </t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Pimienta negra molida 50g Plut</t>
+          <t>Pimienta negra en grano x 50grs PLUT</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Pimienta negra molida 50g Plut</t>
+          <t>Pimienta negra en grano x 50grs PLUT</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Pimienta negra molida, perfecta para sazonar platos y dar un toque picante.</t>
+          <t>Pimienta negra en grano, ideal para moler y dar un sabor intenso a tus comidas.</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -14123,22 +14141,22 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>1.100,00</t>
+          <t>2.575,00</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>1.818,18</t>
+          <t>4.256,20</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>2.200,00</t>
+          <t>5.150,00</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
@@ -14150,7 +14168,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">72JJ </t>
+          <t xml:space="preserve">78HB </t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -14160,36 +14178,40 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve">0020221 </t>
+          <t xml:space="preserve">002020 </t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Pistacho salado con cascara 100gr Plutarco</t>
+          <t>Pimienta negra molida 50g Plut</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Pistacho salado con cascara 100gr Plutarco</t>
+          <t>Pimienta negra molida 50g Plut</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Pistachos salados con cascara naturales</t>
+          <t>Pimienta negra molida, perfecta para sazonar platos y dar un toque picante.</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr"/>
+          <t>Sales y Condimentos</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Condimentos</t>
+        </is>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -14202,34 +14224,34 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>3.675,00</t>
+          <t>1.100,00</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>5.495,87</t>
+          <t>1.818,18</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>6.650,00</t>
+          <t>2.200,00</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>49,55</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">98IA </t>
+          <t xml:space="preserve">72JJ </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -14239,22 +14261,22 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">pistachos2 </t>
+          <t xml:space="preserve">0020221 </t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Pistacho tostado pelado con sal PLUTARCO 100g</t>
+          <t>Pistacho salado con cascara 100gr Plutarco</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Pistacho tostado pelado con sal PLUTARCO 100g</t>
+          <t>Pistacho salado con cascara 100gr Plutarco</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Pistacho tostado, pelado y natural</t>
+          <t>Pistachos salados con cascara naturales</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -14281,34 +14303,34 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>06/10/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>5.775,00</t>
+          <t>3.675,00</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>7.438,02</t>
+          <t>5.495,87</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>9.000,00</t>
+          <t>6.650,00</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>28,80</t>
+          <t>49,55</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">82OM </t>
+          <t xml:space="preserve">98IA </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -14318,33 +14340,33 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798378750025 </t>
+          <t xml:space="preserve">pistachos2 </t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Pochoclos organico con sal marina BAMBOO</t>
+          <t>Pistacho tostado pelado con sal PLUTARCO 100g</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Pochoclos organico con sal marina BAMBOO</t>
+          <t>Pistacho tostado pelado con sal PLUTARCO 100g</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Pochoclos orgánicos, ligeros y crujientes, con un toque de sal marina, ideales como snack.</t>
+          <t>Pistacho tostado, pelado y natural</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Green &amp; CO</t>
+          <t>Los Nogales</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Snack</t>
+          <t>Productos Sueltos</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -14360,34 +14382,34 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>06/10/2025</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>1.290,00</t>
+          <t>5.775,00</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>1.900,83</t>
+          <t>7.438,02</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>2.300,00</t>
+          <t>9.000,00</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>47,35</t>
+          <t>28,80</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">90JG </t>
+          <t xml:space="preserve">82OM </t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -14397,39 +14419,39 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798004720071 </t>
+          <t xml:space="preserve">7798378750025 </t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Polenta Del Campo 500 gr</t>
+          <t>Pochoclos organico con sal marina BAMBOO</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Polenta Del Campo 500 gr</t>
+          <t>Pochoclos organico con sal marina BAMBOO</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Polenta, un alimento a base de maíz, ideal para preparar platos cremosos o como acompañamiento.</t>
+          <t>Pochoclos orgánicos, ligeros y crujientes, con un toque de sal marina, ideales como snack.</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Eco Tierra</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Cereales y Legumbres</t>
+          <t>Snack</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -14439,34 +14461,34 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>03/09/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>1.210,00</t>
+          <t>1.290,00</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>1.809,95</t>
+          <t>1.900,83</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>49,58</t>
+          <t>47,35</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">81VO </t>
+          <t xml:space="preserve">90JG </t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -14476,27 +14498,27 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">7793323004932 </t>
+          <t xml:space="preserve">7798004720071 </t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Polenta Organica 450g Dicomere</t>
+          <t>Polenta Del Campo 500 gr</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Polenta Organica 450g Dicomere</t>
+          <t>Polenta Del Campo 500 gr</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Polenta orgánica, perfecta para preparar platos saludables y nutritivos.</t>
+          <t>Polenta, un alimento a base de maíz, ideal para preparar platos cremosos o como acompañamiento.</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Green &amp; CO</t>
+          <t>Eco Tierra</t>
         </is>
       </c>
       <c r="H176" t="inlineStr"/>
@@ -14508,7 +14530,7 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -14518,34 +14540,34 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>03/09/2025</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>900,00</t>
+          <t>1.210,00</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>1.487,60</t>
+          <t>1.809,95</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>1.800,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>49,58</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">77PT </t>
+          <t xml:space="preserve">81VO </t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -14555,27 +14577,27 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve">021891 </t>
+          <t xml:space="preserve">7793323004932 </t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Poroto Aduki 500g Plutarco</t>
+          <t>Polenta Organica 450g Dicomere</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Poroto Aduki 500g Plutarco</t>
+          <t>Polenta Organica 450g Dicomere</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Porotos aduki, ricos en proteínas y fibra, ideales para guisos y ensaladas.</t>
+          <t>Polenta orgánica, perfecta para preparar platos saludables y nutritivos.</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
@@ -14602,17 +14624,17 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>800,00</t>
+          <t>900,00</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>1.322,31</t>
+          <t>1.487,60</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>1.600,00</t>
+          <t>1.800,00</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
@@ -14624,7 +14646,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">24MR </t>
+          <t xml:space="preserve">77PT </t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -14634,22 +14656,22 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve">217227 </t>
+          <t xml:space="preserve">021891 </t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Poroto Alubia 500g Plutarco</t>
+          <t>Poroto Aduki 500g Plutarco</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Poroto Alubia 500g Plutarco</t>
+          <t>Poroto Aduki 500g Plutarco</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Porotos alubia, ideales para preparar guisos y platos tradicionales.</t>
+          <t>Porotos aduki, ricos en proteínas y fibra, ideales para guisos y ensaladas.</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -14681,17 +14703,17 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>1.410,00</t>
+          <t>800,00</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2.330,58</t>
+          <t>1.322,31</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>2.820,00</t>
+          <t>1.600,00</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
@@ -14703,7 +14725,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">22LL </t>
+          <t xml:space="preserve">24MR </t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -14713,22 +14735,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve">017393 </t>
+          <t xml:space="preserve">217227 </t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Poroto colorados 500g Plutarco</t>
+          <t>Poroto Alubia 500g Plutarco</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Poroto colorados 500g Plutarco</t>
+          <t>Poroto Alubia 500g Plutarco</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Porotos colorados, ricos en nutrientes, perfectos para guisos y ensaladas.</t>
+          <t>Porotos alubia, ideales para preparar guisos y platos tradicionales.</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -14755,34 +14777,34 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>1.520,00</t>
+          <t>1.410,00</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2.504,13</t>
+          <t>2.330,58</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>3.030,00</t>
+          <t>2.820,00</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>64,75</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">83YO </t>
+          <t xml:space="preserve">22LL </t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -14792,20 +14814,24 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve">325239 </t>
+          <t xml:space="preserve">017393 </t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Porotos negros 500g Plutarco</t>
+          <t>Poroto colorados 500g Plutarco</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Porotos negros 500g Plutarco</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr"/>
+          <t>Poroto colorados 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Porotos colorados, ricos en nutrientes, perfectos para guisos y ensaladas.</t>
+        </is>
+      </c>
       <c r="G180" t="inlineStr">
         <is>
           <t>Los Nogales</t>
@@ -14830,34 +14856,34 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>15/08/2025</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>1.155,00</t>
+          <t>1.520,00</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>1.909,09</t>
+          <t>2.504,13</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>2.310,00</t>
+          <t>3.030,00</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>64,75</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">24YI </t>
+          <t xml:space="preserve">83YO </t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -14867,24 +14893,20 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve">137329 </t>
+          <t xml:space="preserve">325239 </t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Porotos Pallares 500g Plutarco</t>
+          <t>Porotos negros 500g Plutarco</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Porotos Pallares 500g Plutarco</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Porotos pallares, ideales para guisos y platos de legumbres, ricos en proteínas.</t>
-        </is>
-      </c>
+          <t>Porotos negros 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
           <t>Los Nogales</t>
@@ -14909,241 +14931,237 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>1.155,00</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>4.669,42</t>
+          <t>1.909,09</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>5.650,00</t>
+          <t>2.310,00</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>55,65</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
+          <t xml:space="preserve">24YI </t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">137329 </t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Porotos Pallares 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Porotos Pallares 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Porotos pallares, ideales para guisos y platos de legumbres, ricos en proteínas.</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Cereales y Legumbres</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>4.669,42</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>5.650,00</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>55,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
           <t xml:space="preserve">35QS </t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0015 </t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>Pre-pizza de arroz Plutarco</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>Pre-pizza de arroz Plutarco</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>Pre-pizza elaborada a base de Arroz Yamani, feculas y aceite de oliva organico. 
 Libre de gluten  (contiene contaminacion cruzada)
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr">
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
         <is>
           <t>Panificados Integrales</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
         <is>
           <t>10,50</t>
         </is>
       </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M182" t="inlineStr">
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
         <is>
           <t>17/09/2025</t>
         </is>
       </c>
-      <c r="N182" t="inlineStr">
+      <c r="N183" t="inlineStr">
         <is>
           <t>2.213,33</t>
         </is>
       </c>
-      <c r="O182" t="inlineStr">
+      <c r="O183" t="inlineStr">
         <is>
           <t>3.004,52</t>
         </is>
       </c>
-      <c r="P182" t="inlineStr">
+      <c r="P183" t="inlineStr">
         <is>
           <t>3.320,00</t>
         </is>
       </c>
-      <c r="Q182" t="inlineStr">
+      <c r="Q183" t="inlineStr">
         <is>
           <t>35,75</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t xml:space="preserve">72ET </t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0014 </t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>Pre-pizza integral Plutarco</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>Pre-pizza integral Plutarco</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>Elaborado a base de harina 100% integral organica, mix de semillas y masa madre.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M183" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>1.713,33</t>
-        </is>
-      </c>
-      <c r="O183" t="inlineStr">
-        <is>
-          <t>2.325,79</t>
-        </is>
-      </c>
-      <c r="P183" t="inlineStr">
-        <is>
-          <t>2.570,00</t>
-        </is>
-      </c>
-      <c r="Q183" t="inlineStr">
-        <is>
-          <t>35,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31EW </t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798338250077 </t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Queso castañas caju QU CRUDDA CLASICO</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Queso castañas caju QU CRUDDA CLASICO</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Queso vegano a base de castañas de cajú, ideal para untar o como ingrediente en ensaladas.</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Veganos</t>
-        </is>
-      </c>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15153,34 +15171,34 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>3.550,00</t>
+          <t>1.713,33</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>5.867,77</t>
+          <t>2.325,79</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>7.100,00</t>
+          <t>2.570,00</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">36ES </t>
+          <t xml:space="preserve">31EW </t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -15190,22 +15208,22 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798338250084 </t>
+          <t xml:space="preserve">7798338250077 </t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+          <t>Queso castañas caju QU CRUDDA CLASICO</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+          <t>Queso castañas caju QU CRUDDA CLASICO</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Queso vegano de castañas de cajú con especias, perfecto para dar un toque especial a tus platos.</t>
+          <t>Queso vegano a base de castañas de cajú, ideal para untar o como ingrediente en ensaladas.</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -15263,119 +15281,123 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t xml:space="preserve">36ES </t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798338250084 </t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Queso vegano de castañas de cajú con especias, perfecto para dar un toque especial a tus platos.</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Veganos</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>3.550,00</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>5.867,77</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>7.100,00</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
           <t xml:space="preserve">65FX </t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
         <is>
           <t xml:space="preserve">7798414430010 </t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>Queso crema REBELDE</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>Queso crema REBELDE</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>Queso crema sin conservantes ni azucares agregados. 
 Perfecto para acompañar cualquier tipo de plato.</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>REBELDE (Panda Organic)</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Lacteos</t>
-        </is>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M186" t="inlineStr">
-        <is>
-          <t>20/08/2025</t>
-        </is>
-      </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>3.110,00</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>5.067,87</t>
-        </is>
-      </c>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>5.600,00</t>
-        </is>
-      </c>
-      <c r="Q186" t="inlineStr">
-        <is>
-          <t>62,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">52GA </t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">763571697221 </t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Queso Cremoso 250grs Felices las vacas</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Queso Cremoso 250grs Felices las vacas</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Queso cremoso, ideal para untar en tostadas o como ingrediente en recetas.</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
@@ -15384,12 +15406,12 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Lacteos</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -15399,34 +15421,34 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>20/08/2025</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>1.865,00</t>
+          <t>3.110,00</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>3.082,64</t>
+          <t>5.067,87</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>3.730,00</t>
+          <t>5.600,00</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>62,95</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">85VZ </t>
+          <t xml:space="preserve">52GA </t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -15436,22 +15458,22 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve">656750732656 </t>
+          <t xml:space="preserve">763571697221 </t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Queso Cremoso 500g Felices Las Vacas</t>
+          <t>Queso Cremoso 250grs Felices las vacas</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Queso Cremoso 500g Felices Las Vacas</t>
+          <t>Queso Cremoso 250grs Felices las vacas</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Queso cremoso en mayor cantidad, perfecto para quienes disfrutan de un queso suave y untar.</t>
+          <t>Queso cremoso, ideal para untar en tostadas o como ingrediente en recetas.</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
@@ -15483,17 +15505,17 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>3.530,00</t>
+          <t>1.865,00</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>5.834,71</t>
+          <t>3.082,64</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>7.060,00</t>
+          <t>3.730,00</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
@@ -15505,7 +15527,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">13NR </t>
+          <t xml:space="preserve">85VZ </t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -15515,25 +15537,25 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480118 </t>
+          <t xml:space="preserve">656750732656 </t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Queso Cuartirolo 350grs x unidad La Choza ya</t>
+          <t>Queso Cremoso 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Queso Cuartirolo 350grs x unidad La Choza ya fraccionado</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>La Choza</t>
-        </is>
-      </c>
+          <t>Queso Cremoso 500g Felices Las Vacas</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Queso cremoso en mayor cantidad, perfecto para quienes disfrutan de un queso suave y untar.</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
@@ -15542,12 +15564,12 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Veganos</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -15557,34 +15579,34 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>6.430,00</t>
+          <t>3.530,00</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>8.144,80</t>
+          <t>5.834,71</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>9.000,00</t>
+          <t>7.060,00</t>
         </is>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>26,67</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">50NS </t>
+          <t xml:space="preserve">13NR </t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -15594,25 +15616,25 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">763571697214 </t>
+          <t xml:space="preserve">7798328480118 </t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Queso Mozzarella 250grs Felices las Vacas</t>
+          <t>Queso Cuartirolo 350grs x unidad La Choza ya</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Mozzarella 250grs Felices las Vacas</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Mozzarella VEGANA, ideal para pizzas, ensaladas y platos italianos.</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr"/>
+          <t>Queso Cuartirolo 350grs x unidad La Choza ya fraccionado</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
@@ -15621,12 +15643,12 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Lacteos</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -15636,34 +15658,34 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>1.865,00</t>
+          <t>6.430,00</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>3.082,64</t>
+          <t>8.144,80</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>3.730,00</t>
+          <t>9.000,00</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>26,67</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">60GZ </t>
+          <t xml:space="preserve">50NS </t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -15673,22 +15695,22 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve">076625286228 </t>
+          <t xml:space="preserve">763571697214 </t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Queso Mozzarella 500g Felices Las Vacas</t>
+          <t>Queso Mozzarella 250grs Felices las Vacas</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Queso Mozzarella 500g Felices Las Vacas</t>
+          <t>Mozzarella 250grs Felices las Vacas</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Mozzarella VEGANA, ideal para pizzas, lasañas y ensaladas, con una textura suave y cremosa.</t>
+          <t>Mozzarella VEGANA, ideal para pizzas, ensaladas y platos italianos.</t>
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
@@ -15720,17 +15742,17 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>3.530,00</t>
+          <t>1.865,00</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>5.834,71</t>
+          <t>3.082,64</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>7.060,00</t>
+          <t>3.730,00</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
@@ -15742,7 +15764,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">38JY </t>
+          <t xml:space="preserve">60GZ </t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -15752,36 +15774,36 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMAQ0001 </t>
+          <t xml:space="preserve">076625286228 </t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
+          <t>Queso Mozzarella 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
+          <t>Queso Mozzarella 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Quinoa blanca, un grano nutritivo y versátil, rico en proteínas y fibra, ideal para ensaladas y guisos.</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
-        </is>
-      </c>
+          <t>Mozzarella VEGANA, ideal para pizzas, lasañas y ensaladas, con una textura suave y cremosa.</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Cereales y Legumbres</t>
-        </is>
-      </c>
-      <c r="J192" t="inlineStr"/>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Veganos</t>
+        </is>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -15794,34 +15816,34 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>9.860,00</t>
+          <t>3.530,00</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>12.644,63</t>
+          <t>5.834,71</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>15.300,00</t>
+          <t>7.060,00</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>28,24</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">44JR </t>
+          <t xml:space="preserve">38JY </t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -15831,22 +15853,22 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve">sumaq0002 </t>
+          <t xml:space="preserve">SUMAQ0001 </t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Quinoa blanca en menor cantidad, perfecta para quienes buscan un alimento saludable y fácil de preparar.</t>
+          <t>Quinoa blanca, un grano nutritivo y versátil, rico en proteínas y fibra, ideal para ensaladas y guisos.</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -15878,29 +15900,29 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>5.050,00</t>
+          <t>9.860,00</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>6.694,21</t>
+          <t>12.644,63</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>8.100,00</t>
+          <t>15.300,00</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>32,56</t>
+          <t>28,24</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">66QC </t>
+          <t xml:space="preserve">44JR </t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -15910,22 +15932,22 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve">sumaq0003 </t>
+          <t xml:space="preserve">sumaq0002 </t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Quinoa blanca, ideal para preparar porciones pequeñas, rica en nutrientes y fácil de cocinar.</t>
+          <t>Quinoa blanca en menor cantidad, perfecta para quienes buscan un alimento saludable y fácil de preparar.</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -15957,29 +15979,29 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2.600,00</t>
+          <t>5.050,00</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>3.438,02</t>
+          <t>6.694,21</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>4.160,00</t>
+          <t>8.100,00</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>32,23</t>
+          <t>32,56</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">91NW </t>
+          <t xml:space="preserve">66QC </t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -15989,33 +16011,33 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve">7790495003404 </t>
+          <t xml:space="preserve">sumaq0003 </t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Quinoa POP 80g ying yang</t>
+          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Quinoa POP 80g ying yang</t>
+          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Quinoa inflada, un snack ligero y crujiente, ideal para añadir a yogures o como topping.</t>
+          <t>Quinoa blanca, ideal para preparar porciones pequeñas, rica en nutrientes y fácil de cocinar.</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>yin yang (dietetica cientifica)</t>
+          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Snack</t>
+          <t>Cereales y Legumbres</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -16031,34 +16053,34 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>440,00</t>
+          <t>2.600,00</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>1.074,38</t>
+          <t>3.438,02</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>1.300,00</t>
+          <t>4.160,00</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>144,18</t>
+          <t>32,23</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">66MS </t>
+          <t xml:space="preserve">91NW </t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -16068,40 +16090,36 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACROZEN </t>
+          <t xml:space="preserve">7790495003404 </t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Sal marina fina Macrozen 500 gr</t>
+          <t>Quinoa POP 80g ying yang</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sal marina fina Macrozen 500 gr</t>
+          <t>Quinoa POP 80g ying yang</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Sal marina fina, ideal para sazonar platos y realzar sabores, sin aditivos.</t>
+          <t>Quinoa inflada, un snack ligero y crujiente, ideal para añadir a yogures o como topping.</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Eco Tierra</t>
+          <t>yin yang (dietetica cientifica)</t>
         </is>
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Sales y Condimentos</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
+          <t>Snack</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -16114,34 +16132,34 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>21/11/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>1.250,00</t>
+          <t>440,00</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>1.652,89</t>
+          <t>1.074,38</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>1.300,00</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>32,23</t>
+          <t>144,18</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">59VE </t>
+          <t xml:space="preserve">66MS </t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -16151,25 +16169,29 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACROZEN1 </t>
+          <t xml:space="preserve">MACROZEN </t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Sal marina gruesa Macrozen 500 gr</t>
+          <t>Sal marina fina Macrozen 500 gr</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sal marina gruesa Macrozen 500 gr</t>
+          <t>Sal marina fina Macrozen 500 gr</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Sal marina gruesa, perfecta para cocinar y sazonar, ideal para platos que requieren un toque de sal.</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr"/>
+          <t>Sal marina fina, ideal para sazonar platos y realzar sabores, sin aditivos.</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Eco Tierra</t>
+        </is>
+      </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
@@ -16220,7 +16242,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve">90FK </t>
+          <t xml:space="preserve">59VE </t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -16230,22 +16252,22 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320056 </t>
+          <t xml:space="preserve">MACROZEN1 </t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 250g LIBERATO</t>
+          <t>Sal marina gruesa Macrozen 500 gr</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 250g LIBERATO</t>
+          <t>Sal marina gruesa Macrozen 500 gr</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Sal marina yodada, ideal para sazonar comidas, enriquecida con yodo para una dieta equilibrada.</t>
+          <t>Sal marina gruesa, perfecta para cocinar y sazonar, ideal para platos que requieren un toque de sal.</t>
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
@@ -16272,34 +16294,34 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>1.500,00</t>
+          <t>1.250,00</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2.809,92</t>
+          <t>1.652,89</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>3.400,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>87,33</t>
+          <t>32,23</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">39IK </t>
+          <t xml:space="preserve">90FK </t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -16309,22 +16331,22 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320520 </t>
+          <t xml:space="preserve">7798168320056 </t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 250g LIBERATO</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 250g LIBERATO</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Sal marina yodada en mayor cantidad, perfecta para uso diario en la cocina.</t>
+          <t>Sal marina yodada, ideal para sazonar comidas, enriquecida con yodo para una dieta equilibrada.</t>
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
@@ -16356,29 +16378,29 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>1.390,00</t>
+          <t>1.500,00</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2.644,63</t>
+          <t>2.809,92</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>3.200,00</t>
+          <t>3.400,00</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>90,26</t>
+          <t>87,33</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">28QJ </t>
+          <t xml:space="preserve">39IK </t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -16388,22 +16410,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320063 </t>
+          <t xml:space="preserve">7798168320520 </t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sal marina yodada fina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 500g LIBERATO</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Sal marina yodada fina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 500g LIBERATO</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Sal marina yodada fina, ideal para aderezar y sazonar, con un sabor puro y natural.</t>
+          <t>Sal marina yodada en mayor cantidad, perfecta para uso diario en la cocina.</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -16457,7 +16479,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">48KK </t>
+          <t xml:space="preserve">28QJ </t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -16467,22 +16489,22 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320070 </t>
+          <t xml:space="preserve">7798168320063 </t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Sal marina yodada gruesa 500g LIBERATO</t>
+          <t>Sal marina yodada fina 500g LIBERATO</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Sal marina yodada gruesa 500g LIBERATO</t>
+          <t>Sal marina yodada fina 500g LIBERATO</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Sal marina yodada gruesa, ideal para cocinar y sazonar, con un sabor intenso.</t>
+          <t>Sal marina yodada fina, ideal para aderezar y sazonar, con un sabor puro y natural.</t>
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
@@ -16536,7 +16558,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">99YQ </t>
+          <t xml:space="preserve">48KK </t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -16546,29 +16568,25 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALROSA0001 </t>
+          <t xml:space="preserve">7798168320070 </t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya fina organica 500 gr</t>
+          <t>Sal marina yodada gruesa 500g LIBERATO</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya fina organica 500 gr</t>
+          <t>Sal marina yodada gruesa 500g LIBERATO</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya, rica en minerales, ideal para sazonar y dar un toque especial a tus platos.</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>Sol 7 -Pablo-</t>
-        </is>
-      </c>
+          <t>Sal marina yodada gruesa, ideal para cocinar y sazonar, con un sabor intenso.</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
@@ -16582,7 +16600,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -16597,29 +16615,29 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2.600,00</t>
+          <t>1.390,00</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>3.710,41</t>
+          <t>2.644,63</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>4.100,00</t>
+          <t>3.200,00</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>42,71</t>
+          <t>90,26</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">46NH </t>
+          <t xml:space="preserve">99YQ </t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -16629,22 +16647,22 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALROSA0002 </t>
+          <t xml:space="preserve">SALROSA0001 </t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sal rosada del Himalaya gruesa organica 500 </t>
+          <t>Sal rosada del Himalaya fina organica 500 gr</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya gruesa organica 500 gr</t>
+          <t>Sal rosada del Himalaya fina organica 500 gr</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Sal rosada gruesa, perfecta para usar en molinillos o como sal de mesa, con un sabor único.</t>
+          <t>Sal rosada del Himalaya, rica en minerales, ideal para sazonar y dar un toque especial a tus platos.</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -16665,7 +16683,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -16685,7 +16703,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>3.388,43</t>
+          <t>3.710,41</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -16695,14 +16713,14 @@
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>30,32</t>
+          <t>42,71</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">61BI </t>
+          <t xml:space="preserve">46NH </t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -16712,22 +16730,22 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALROSA0003 </t>
+          <t xml:space="preserve">SALROSA0002 </t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sal rosada del Himalaya hierbas organica 500 </t>
+          <t xml:space="preserve">Sal rosada del Himalaya gruesa organica 500 </t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya hierbas organica 500 gr</t>
+          <t>Sal rosada del Himalaya gruesa organica 500 gr</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Sal rosada con hierbas, ideal para sazonar platos y dar un toque aromático.</t>
+          <t>Sal rosada gruesa, perfecta para usar en molinillos o como sal de mesa, con un sabor único.</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -16785,7 +16803,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">96ZZ </t>
+          <t xml:space="preserve">61BI </t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -16795,36 +16813,40 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve">002320 </t>
+          <t xml:space="preserve">SALROSA0003 </t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
+          <t xml:space="preserve">Sal rosada del Himalaya hierbas organica 500 </t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
+          <t>Sal rosada del Himalaya hierbas organica 500 gr</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Salsa de soja Shoyu, ideal para aderezar platos asiáticos y dar un sabor umami.</t>
+          <t>Sal rosada con hierbas, ideal para sazonar platos y dar un toque aromático.</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Tofu Mei</t>
+          <t>Sol 7 -Pablo-</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr"/>
+          <t>Sales y Condimentos</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -16837,34 +16859,34 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>2.600,00</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>9.008,26</t>
+          <t>3.388,43</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>10.900,00</t>
+          <t>4.100,00</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>32,47</t>
+          <t>30,32</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">31PU </t>
+          <t xml:space="preserve">96ZZ </t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -16874,36 +16896,36 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798429310116 </t>
+          <t xml:space="preserve">002320 </t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Salsa de tomate hecha pomarola 500cc FINCA P</t>
+          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Salsa de tomate hecha pomarola 500cc FINCA PARU</t>
+          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Producto de la agricultura organica, libre de gluten</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr"/>
+          <t>Salsa de soja Shoyu, ideal para aderezar platos asiáticos y dar un sabor umami.</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Tofu Mei</t>
+        </is>
+      </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -16916,34 +16938,34 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2.560,00</t>
+          <t>6.800,00</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>3.842,98</t>
+          <t>9.008,26</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>4.650,00</t>
+          <t>10.900,00</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>50,12</t>
+          <t>32,47</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">30UB </t>
+          <t xml:space="preserve">31PU </t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -16953,29 +16975,25 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791045511912 </t>
+          <t xml:space="preserve">7798429310116 </t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
+          <t>Salsa de tomate hecha pomarola 500cc FINCA P</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
+          <t>Salsa de tomate hecha pomarola 500cc FINCA PARU</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Salsa de tomate ORGANICA, ideal para preparar pastas, guisos y pizzas, con un sabor casero.</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>Hecho en Argentina</t>
-        </is>
-      </c>
+          <t>Producto de la agricultura organica, libre de gluten</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
@@ -17004,29 +17022,29 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>3.910,00</t>
+          <t>2.560,00</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>5.785,12</t>
+          <t>3.842,98</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>7.000,00</t>
+          <t>4.650,00</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>47,96</t>
+          <t>50,12</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">52HO </t>
+          <t xml:space="preserve">30UB </t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -17036,32 +17054,40 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel18 </t>
+          <t xml:space="preserve">7791045511912 </t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Semillas de Chia 100grs</t>
+          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Semillas de Chia 100grs</t>
+          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Semillas de chía, ricas en omega-3 y fibra, perfectas para añadir a batidos y yogures.</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr"/>
+          <t>Salsa de tomate ORGANICA, ideal para preparar pastas, guisos y pizzas, con un sabor casero.</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Hecho en Argentina</t>
+        </is>
+      </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr"/>
+          <t>Aceites y Conservas</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Conservas</t>
+        </is>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17074,34 +17100,34 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>350,00</t>
+          <t>3.910,00</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>578,51</t>
+          <t>5.785,12</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>700,00</t>
+          <t>7.000,00</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>47,96</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">16VW </t>
+          <t xml:space="preserve">52HO </t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -17111,22 +17137,22 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel17 </t>
+          <t xml:space="preserve">Granel18 </t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Semillas de Lino 100grs</t>
+          <t>Semillas de Chia 100grs</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Semillas de Lino 100grs</t>
+          <t>Semillas de Chia 100grs</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Semillas de lino, ricas en ácidos grasos omega-3, ideales para añadir a cereales y batidos.</t>
+          <t>Semillas de chía, ricas en omega-3 y fibra, perfectas para añadir a batidos y yogures.</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -17154,29 +17180,29 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>100,00</t>
+          <t>350,00</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>330,58</t>
+          <t>578,51</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>400,00</t>
+          <t>700,00</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>230,58</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">11CU </t>
+          <t xml:space="preserve">16VW </t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -17186,22 +17212,22 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel19 </t>
+          <t xml:space="preserve">Granel17 </t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Semillas de Sesamo 100grs</t>
+          <t>Semillas de Lino 100grs</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Semillas de Sesamo 100grs</t>
+          <t>Semillas de Lino 100grs</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Semillas de sésamo, ricas en nutrientes, perfectas para añadir a ensaladas y repostería.</t>
+          <t>Semillas de lino, ricas en ácidos grasos omega-3, ideales para añadir a cereales y batidos.</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -17229,29 +17255,29 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>290,00</t>
+          <t>100,00</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>479,34</t>
+          <t>330,58</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>580,00</t>
+          <t>400,00</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>230,58</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">74UK </t>
+          <t xml:space="preserve">11CU </t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -17261,22 +17287,22 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel20 </t>
+          <t xml:space="preserve">Granel19 </t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Semillas de Zapallo 100grs</t>
+          <t>Semillas de Sesamo 100grs</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Semillas de Zapallo 100grs</t>
+          <t>Semillas de Sesamo 100grs</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Semillas de zapallo, ricas en proteínas y minerales, ideales como snack o en ensaladas.</t>
+          <t>Semillas de sésamo, ricas en nutrientes, perfectas para añadir a ensaladas y repostería.</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
@@ -17304,17 +17330,17 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>910,00</t>
+          <t>290,00</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>1.504,13</t>
+          <t>479,34</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>1.820,00</t>
+          <t>580,00</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
@@ -17326,7 +17352,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">62BB </t>
+          <t xml:space="preserve">74UK </t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -17336,36 +17362,32 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798028624010 </t>
+          <t xml:space="preserve">Granel20 </t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Shampoo Avena y keratina x 300 cc OMS</t>
+          <t>Semillas de Zapallo 100grs</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Shampoo Avena y keratina x 300 cc OMS</t>
+          <t>Semillas de Zapallo 100grs</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Ideal para nutrir en profundidad cabellos secos, quebradizos, dañados por agentes externos y sin brillo.</t>
+          <t>Semillas de zapallo, ricas en proteínas y minerales, ideales como snack o en ensaladas.</t>
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Cosmetica natural</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Shampoos y Acondicionadores</t>
-        </is>
-      </c>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17383,17 +17405,17 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>7.750,00</t>
+          <t>910,00</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>12.809,92</t>
+          <t>1.504,13</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>15.500,00</t>
+          <t>1.820,00</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
@@ -17405,7 +17427,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">25HZ </t>
+          <t xml:space="preserve">62BB </t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -17415,22 +17437,22 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795399902297 </t>
+          <t xml:space="preserve">7798028624010 </t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
+          <t>Shampoo Avena y keratina x 300 cc OMS</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
+          <t>Shampoo Avena y keratina x 300 cc OMS</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Shampoo para cabellos normales. A base de derivados de coco, contiene vitamina E. Es humectante, contiene antioxidantes y otorga un brillo especial al cabello.</t>
+          <t>Ideal para nutrir en profundidad cabellos secos, quebradizos, dañados por agentes externos y sin brillo.</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
@@ -17462,29 +17484,29 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2.900,00</t>
+          <t>7.750,00</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>5.619,83</t>
+          <t>12.809,92</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>15.500,00</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>93,79</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">23DF </t>
+          <t xml:space="preserve">25HZ </t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -17494,22 +17516,22 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795399902327 </t>
+          <t xml:space="preserve">7795399902297 </t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
+          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
+          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Shampoo, a base de derivados de coco, contiene vitamina E. Gracias a los actvivos de aloe vera y limon, es antioxidante, reduce la grasitud del cabello y combate la caspa</t>
+          <t>Shampoo para cabellos normales. A base de derivados de coco, contiene vitamina E. Es humectante, contiene antioxidantes y otorga un brillo especial al cabello.</t>
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
@@ -17563,7 +17585,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">85DD </t>
+          <t xml:space="preserve">23DF </t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -17573,23 +17595,22 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795399902310 </t>
+          <t xml:space="preserve">7795399902327 </t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
+          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
+          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shampoo a base de deriados del coco, contiene vitamina E. Especial para evitar la caida del cabello.
-</t>
+          <t>Shampoo, a base de derivados de coco, contiene vitamina E. Gracias a los actvivos de aloe vera y limon, es antioxidante, reduce la grasitud del cabello y combate la caspa</t>
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
@@ -17643,7 +17664,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">85PW </t>
+          <t xml:space="preserve">85DD </t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -17653,32 +17674,37 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colonial1 </t>
+          <t xml:space="preserve">7795399902310 </t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Tableta chocolate 70% colonial 150g suelto</t>
+          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Tableta chocolate 70% colonial 150g suelto</t>
+          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Tableta de Chocolate amargo 70% primera calidad</t>
+          <t xml:space="preserve">Shampoo a base de deriados del coco, contiene vitamina E. Especial para evitar la caida del cabello.
+</t>
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr"/>
+          <t>Cosmetica natural</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Shampoos y Acondicionadores</t>
+        </is>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17691,34 +17717,34 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2.900,00</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>6.115,70</t>
+          <t>5.619,83</t>
         </is>
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>7.400,00</t>
+          <t>6.800,00</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>93,79</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">39BS </t>
+          <t xml:space="preserve">85PW </t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -17728,40 +17754,32 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve">453678947321 </t>
+          <t xml:space="preserve">Colonial1 </t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tahini 330grs mediano oh yeah</t>
+          <t>Tableta chocolate 70% colonial 150g suelto</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Tahini 330grs mediano oh yeah</t>
+          <t>Tableta chocolate 70% colonial 150g suelto</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t xml:space="preserve">El tahini es una pasta cremosa elaborada a partir de semillas de sésamo molidas. Es un ingrediente esencial en la cocina de Oriente Medio y el Mediterráneo, y se utiliza para dar sabor y consistencia a platos como el hummus y el baba ganoush. Tiene un sabor a nuez, a veces con un ligero amargor, y es rico en proteínas y grasas saludables. </t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>Oh Yeah It's Vegan!</t>
-        </is>
-      </c>
+          <t>Tableta de Chocolate amargo 70% primera calidad</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17774,34 +17792,34 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>6.100,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>9.008,26</t>
+          <t>6.115,70</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>10.900,00</t>
+          <t>7.400,00</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>47,68</t>
+          <t>0,00</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">30WW </t>
+          <t xml:space="preserve">39BS </t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -17811,38 +17829,38 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t xml:space="preserve">002479 </t>
+          <t xml:space="preserve">453678947321 </t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Te de burro (Burrito) PLUT 50g</t>
+          <t>Tahini 330grs mediano oh yeah</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Te de burro (Burrito) PLUT 50g</t>
+          <t>Tahini 330grs mediano oh yeah</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Hierba de burro, utilizada en infusiones, con propiedades digestivas y un sabor suave.</t>
+          <t xml:space="preserve">El tahini es una pasta cremosa elaborada a partir de semillas de sésamo molidas. Es un ingrediente esencial en la cocina de Oriente Medio y el Mediterráneo, y se utiliza para dar sabor y consistencia a platos como el hummus y el baba ganoush. Tiene un sabor a nuez, a veces con un ligero amargor, y es rico en proteínas y grasas saludables. </t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Yuyos Andy</t>
+          <t>Oh Yeah It's Vegan!</t>
         </is>
       </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Infusiones</t>
+          <t>Aceites y Conservas</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Yuyos</t>
+          <t>Conservas</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -17857,34 +17875,34 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>1.726,00</t>
+          <t>6.100,00</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2.859,50</t>
+          <t>9.008,26</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>3.460,00</t>
+          <t>10.900,00</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>65,67</t>
+          <t>47,68</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">56PV </t>
+          <t xml:space="preserve">30WW </t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -17894,43 +17912,43 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOFUMEI0001 </t>
+          <t xml:space="preserve">002479 </t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tofu ARTESANAL MEI 500g</t>
+          <t>Te de burro (Burrito) PLUT 50g</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Tofu ARTESANAL MEI 500g</t>
+          <t>Te de burro (Burrito) PLUT 50g</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Tofu artesanal, una excelente fuente de proteínas vegetales, ideal para salteados y ensaladas.</t>
+          <t>Hierba de burro, utilizada en infusiones, con propiedades digestivas y un sabor suave.</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Tofu Mei</t>
+          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Yuyos</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -17940,34 +17958,34 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>5.800,00</t>
+          <t>1.726,00</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>8.325,79</t>
+          <t>2.859,50</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>9.200,00</t>
+          <t>3.460,00</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>43,55</t>
+          <t>65,67</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">82LS </t>
+          <t xml:space="preserve">56PV </t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -17977,27 +17995,27 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798383880014 </t>
+          <t xml:space="preserve">TOFUMEI0001 </t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Tofu organico Soyana 350 grs</t>
+          <t>Tofu ARTESANAL MEI 500g</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Tofu organico Soyana 350 grs</t>
+          <t>Tofu ARTESANAL MEI 500g</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Tofu orgánico, rico en proteínas, ideal para preparar platos vegetarianos y veganos.</t>
+          <t>Tofu artesanal, una excelente fuente de proteínas vegetales, ideal para salteados y ensaladas.</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Soyana</t>
+          <t>Tofu Mei</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
@@ -18023,34 +18041,34 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>4.120,00</t>
+          <t>5.800,00</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>6.787,33</t>
+          <t>8.325,79</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>7.500,00</t>
+          <t>9.200,00</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>64,74</t>
+          <t>43,55</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">89LL </t>
+          <t xml:space="preserve">82LS </t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -18060,43 +18078,43 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t xml:space="preserve">7788465825354 </t>
+          <t xml:space="preserve">7798383880014 </t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tomate triturado SAPIENZA 1Lt</t>
+          <t>Tofu organico Soyana 350 grs</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Tomate triturado SAPIENZA 1Lt</t>
+          <t>Tofu organico Soyana 350 grs</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Tomate 100%  triturado natural, ideal para salsas y guisos, con un sabor fresco y natural.</t>
+          <t>Tofu orgánico, rico en proteínas, ideal para preparar platos vegetarianos y veganos.</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+          <t>Soyana</t>
         </is>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Refrigerados</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Conservas</t>
+          <t>Veganos</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -18106,34 +18124,34 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>03/09/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2.925,00</t>
+          <t>4.120,00</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>4.380,17</t>
+          <t>6.787,33</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>5.300,00</t>
+          <t>7.500,00</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>49,75</t>
+          <t>64,74</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">10PH </t>
+          <t xml:space="preserve">89LL </t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -18143,36 +18161,40 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve">0025881 </t>
+          <t xml:space="preserve">7788465825354 </t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Tomates deshidratados Plutarco x100g</t>
+          <t>Tomate triturado SAPIENZA 1Lt</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Tomates deshidratados Plutarco x100g</t>
+          <t>Tomate triturado SAPIENZA 1Lt</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Tomates deshidratados, secos al sol</t>
+          <t>Tomate 100%  triturado natural, ideal para salsas y guisos, con un sabor fresco y natural.</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J222" t="inlineStr"/>
+          <t>Aceites y Conservas</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Conservas</t>
+        </is>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -18185,231 +18207,231 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>03/09/2025</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>528,00</t>
+          <t>2.925,00</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>872,73</t>
+          <t>4.380,17</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>1.056,00</t>
+          <t>5.300,00</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>49,75</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
+          <t xml:space="preserve">10PH </t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0025881 </t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Tomates deshidratados Plutarco x100g</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Tomates deshidratados Plutarco x100g</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Tomates deshidratados, secos al sol</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>528,00</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>872,73</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>1.056,00</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
           <t xml:space="preserve">88OL </t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
         <is>
           <t xml:space="preserve">0720665957210 </t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="D224" t="inlineStr">
         <is>
           <t>TOQUES GARBANZOS CASA VEGANA x420g</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>TOQUES GARBANZOS CASA VEGANA x420g</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>Toques de Garbanzos marca CASA VEGANA
 Veganos y Muy Nutritivos.</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr">
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
         <is>
           <t>Congelados</t>
         </is>
       </c>
-      <c r="J223" t="inlineStr">
+      <c r="J224" t="inlineStr">
         <is>
           <t>Veganos</t>
         </is>
       </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M223" t="inlineStr">
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
         <is>
           <t>15/08/2025</t>
         </is>
       </c>
-      <c r="N223" t="inlineStr">
+      <c r="N224" t="inlineStr">
         <is>
           <t>3.200,00</t>
         </is>
       </c>
-      <c r="O223" t="inlineStr">
+      <c r="O224" t="inlineStr">
         <is>
           <t>4.876,03</t>
         </is>
       </c>
-      <c r="P223" t="inlineStr">
+      <c r="P224" t="inlineStr">
         <is>
           <t>5.900,00</t>
         </is>
       </c>
-      <c r="Q223" t="inlineStr">
+      <c r="Q224" t="inlineStr">
         <is>
           <t>52,38</t>
         </is>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+    <row r="225">
+      <c r="A225" t="inlineStr">
         <is>
           <t xml:space="preserve">60JI </t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
+      <c r="B225" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0016 </t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="D225" t="inlineStr">
         <is>
           <t>Torta Galesa Plutarco</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>Torta Galesa Plutarco</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>Torta galesa super humeda, sabrosa y contundente
 Elaborada a base de harina 100% integral, cacao, mix de especias y nueces.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M224" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>6.333,33</t>
-        </is>
-      </c>
-      <c r="O224" t="inlineStr">
-        <is>
-          <t>8.597,29</t>
-        </is>
-      </c>
-      <c r="P224" t="inlineStr">
-        <is>
-          <t>9.500,00</t>
-        </is>
-      </c>
-      <c r="Q224" t="inlineStr">
-        <is>
-          <t>35,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t xml:space="preserve">88SH </t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0PUROM </t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Tortillas PURO MAIZ (GRANDES)</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Tortillas PURO MAIZ (GRANDES)</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Tortillas de maíz grandes, perfectas para hacer tacos, burritos o wraps, con un sabor auténtico.</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>Puro Maiz</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Panificados Integrales</t>
         </is>
       </c>
       <c r="J225" t="inlineStr"/>
@@ -18425,34 +18447,34 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>29/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>5.400,00</t>
+          <t>6.333,33</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>7.239,82</t>
+          <t>8.597,29</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>8.000,00</t>
+          <t>9.500,00</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>34,07</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">60SC </t>
+          <t xml:space="preserve">88SH </t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -18462,35 +18484,39 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131061467 </t>
+          <t xml:space="preserve">0PUROM </t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
+          <t>Tortillas PURO MAIZ (GRANDES)</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr"/>
+          <t>Tortillas PURO MAIZ (GRANDES)</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Tortillas de maíz grandes, perfectas para hacer tacos, burritos o wraps, con un sabor auténtico.</t>
+        </is>
+      </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Green &amp; CO</t>
+          <t>Puro Maiz</t>
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Refrigerados</t>
         </is>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -18500,17 +18526,17 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>29/08/2025</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>4.110,00</t>
+          <t>5.400,00</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>6.611,57</t>
+          <t>7.239,82</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
@@ -18520,14 +18546,14 @@
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>60,87</t>
+          <t>34,07</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t xml:space="preserve">92LN </t>
+          <t xml:space="preserve">60SC </t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -18537,25 +18563,25 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t xml:space="preserve">458448 </t>
+          <t xml:space="preserve">7798131061467 </t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO</t>
+          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO NATURE</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Vinagre de sidra de manzana, ideal para aderezos y marinados, con propiedades digestivas.</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr"/>
+          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
@@ -18575,34 +18601,34 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>6.900,00</t>
+          <t>4.110,00</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>9.504,13</t>
+          <t>6.611,57</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>11.500,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>60,87</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">99II </t>
+          <t xml:space="preserve">92LN </t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -18612,22 +18638,22 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t xml:space="preserve">236262 </t>
+          <t xml:space="preserve">458448 </t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO</t>
+          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO NATURE</t>
+          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO NATURE</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Vinagre de sidra de manzana en mayor cantidad, ideal para aderezos, marinados y como tónico natural.</t>
+          <t>Vinagre de sidra de manzana, ideal para aderezos y marinados, con propiedades digestivas.</t>
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
@@ -18655,29 +18681,29 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>7.900,00</t>
+          <t>6.900,00</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>11.487,60</t>
+          <t>9.504,13</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>13.900,00</t>
+          <t>11.500,00</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>45,41</t>
+          <t>37,74</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t xml:space="preserve">62BS </t>
+          <t xml:space="preserve">99II </t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -18687,22 +18713,22 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve">9465832156492 </t>
+          <t xml:space="preserve">236262 </t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
+          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
+          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO NATURE</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Vinagre vegano, ideal para aderezar ensaladas y dar un toque ácido a tus platos.</t>
+          <t>Vinagre de sidra de manzana en mayor cantidad, ideal para aderezos, marinados y como tónico natural.</t>
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
@@ -18725,34 +18751,34 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>4.200,00</t>
+          <t>7.900,00</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>6.347,11</t>
+          <t>11.487,60</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>7.680,00</t>
+          <t>13.900,00</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>51,12</t>
+          <t>45,41</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">38OL </t>
+          <t xml:space="preserve">62BS </t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -18762,29 +18788,25 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t xml:space="preserve">946583215647 </t>
+          <t xml:space="preserve">9465832156492 </t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
+          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
+          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Vinagre vegano en mayor cantidad, perfecto para quienes buscan un aderezo saludable y natural.</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>Oh Yeah It's Vegan!</t>
-        </is>
-      </c>
+          <t>Vinagre vegano, ideal para aderezar ensaladas y dar un toque ácido a tus platos.</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
@@ -18809,29 +18831,29 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>7.900,00</t>
+          <t>4.200,00</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>11.528,93</t>
+          <t>6.347,11</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>13.950,00</t>
+          <t>7.680,00</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>45,94</t>
+          <t>51,12</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">98CK </t>
+          <t xml:space="preserve">38OL </t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -18841,33 +18863,33 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131680149 </t>
+          <t xml:space="preserve">946583215647 </t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin Malbec Roble</t>
+          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin Malbec Roble</t>
+          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color rojo ciruela con reflejos violáceos, en nariz se perciben el cassis, ciruela madura, vainilla. </t>
+          <t>Vinagre vegano en mayor cantidad, perfecto para quienes buscan un aderezo saludable y natural.</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Hecho en Argentina</t>
+          <t>Oh Yeah It's Vegan!</t>
         </is>
       </c>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Aceites y Conservas</t>
         </is>
       </c>
       <c r="J231" t="inlineStr"/>
@@ -18883,34 +18905,34 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>5.790,00</t>
+          <t>7.900,00</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>8.677,69</t>
+          <t>11.528,93</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>10.500,00</t>
+          <t>13.950,00</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>49,87</t>
+          <t>45,94</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">78DC </t>
+          <t xml:space="preserve">98CK </t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -18920,22 +18942,22 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131680194 </t>
+          <t xml:space="preserve">7798131680149 </t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin syrah 750ml</t>
+          <t>Vino organico familia cecchin Malbec Roble</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin syrah 750ml</t>
+          <t>Vino organico familia cecchin Malbec Roble</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oscuro color rojo sangre, su sabor se asocia a especias y su aroma a higos y frutas secas. </t>
+          <t xml:space="preserve">Color rojo ciruela con reflejos violáceos, en nariz se perciben el cassis, ciruela madura, vainilla. </t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -18989,7 +19011,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">41HO </t>
+          <t xml:space="preserve">78DC </t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -18999,22 +19021,22 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131680378 </t>
+          <t xml:space="preserve">7798131680194 </t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Vino picum malbec 750ml</t>
+          <t>Vino organico familia cecchin syrah 750ml</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Vino picum malbec 750ml</t>
+          <t>Vino organico familia cecchin syrah 750ml</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>100% Vino orgánico Malbec. Es un vino rojo, granada. Intenso. Aroma a fresa y cereza. En boca taninos suaves y ductiles, final prolongado.</t>
+          <t xml:space="preserve">Oscuro color rojo sangre, su sabor se asocia a especias y su aroma a higos y frutas secas. </t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -19041,34 +19063,34 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>4.660,00</t>
+          <t>5.790,00</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>6.859,50</t>
+          <t>8.677,69</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>8.300,00</t>
+          <t>10.500,00</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>47,20</t>
+          <t>49,87</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">48OU </t>
+          <t xml:space="preserve">41HO </t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -19078,40 +19100,36 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve">090125151497 </t>
+          <t xml:space="preserve">7798131680378 </t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Yerba Ajedrez 500 gr</t>
+          <t>Vino picum malbec 750ml</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Yerba Ajedrez 500 gr</t>
+          <t>Vino picum malbec 750ml</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Yerba mate Ajedrez, ideal para preparar un buen mate, con un sabor equilibrado y aromático.</t>
+          <t>100% Vino orgánico Malbec. Es un vino rojo, granada. Intenso. Aroma a fresa y cereza. En boca taninos suaves y ductiles, final prolongado.</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+          <t>Hecho en Argentina</t>
         </is>
       </c>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
+          <t>Bebidas</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -19129,29 +19147,29 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2.720,00</t>
+          <t>4.660,00</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>3.595,04</t>
+          <t>6.859,50</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>4.350,00</t>
+          <t>8.300,00</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>32,17</t>
+          <t>47,20</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">91YZ </t>
+          <t xml:space="preserve">48OU </t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -19161,27 +19179,27 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798199890016 </t>
+          <t xml:space="preserve">090125151497 </t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Yerba Arapegua con palo 500g</t>
+          <t>Yerba Ajedrez 500 gr</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Yerba Arapegua con palo 500g</t>
+          <t>Yerba Ajedrez 500 gr</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Yerba mate Arapegua, con palo, ideal para quienes disfrutan de un sabor más suave y tradicional.</t>
+          <t>Yerba mate Ajedrez, ideal para preparar un buen mate, con un sabor equilibrado y aromático.</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Ino (Maelca)</t>
+          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
         </is>
       </c>
       <c r="H235" t="inlineStr"/>
@@ -19207,57 +19225,140 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>4.840,00</t>
+          <t>2.720,00</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>7.231,40</t>
+          <t>3.595,04</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>8.750,00</t>
+          <t>4.350,00</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>49,41</t>
+          <t>32,17</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
+          <t xml:space="preserve">91YZ </t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798199890016 </t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Yerba Arapegua con palo 500g</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Yerba Arapegua con palo 500g</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Yerba mate Arapegua, con palo, ideal para quienes disfrutan de un sabor más suave y tradicional.</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Ino (Maelca)</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>27/08/2025</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>4.840,00</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>7.231,40</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>8.750,00</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>49,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
           <t xml:space="preserve">66FP </t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
+      <c r="B237" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
         <is>
           <t xml:space="preserve">7798151510044 </t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="D237" t="inlineStr">
         <is>
           <t>Yerba Grapia Milenaria 500grs</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>Yerba Grapia Milenaria 500grs</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>Producida por pequeños agricultores que
 trabajan sin agrotóxicos y con respeto
@@ -19267,85 +19368,6 @@
 y es perfecta para compartir en cualquier momento.</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M236" t="inlineStr">
-        <is>
-          <t>30/10/2025</t>
-        </is>
-      </c>
-      <c r="N236" t="inlineStr">
-        <is>
-          <t>2.800,00</t>
-        </is>
-      </c>
-      <c r="O236" t="inlineStr">
-        <is>
-          <t>3.719,01</t>
-        </is>
-      </c>
-      <c r="P236" t="inlineStr">
-        <is>
-          <t>4.500,00</t>
-        </is>
-      </c>
-      <c r="Q236" t="inlineStr">
-        <is>
-          <t>32,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15CP </t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200294 </t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>YERBA Jesper con hierbas serranas 500 gr</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>YERBA Jesper con hierbas serranas 500 gr</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>La combinación de la Yerba Mate con Menta, Peperina y Poleo combinan poderosas propiedades de hierbas naturales que favorecen la salud del organismo.</t>
-        </is>
-      </c>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
@@ -19370,12 +19392,12 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2.650,00</t>
+          <t>2.800,00</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -19390,14 +19412,14 @@
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>40,34</t>
+          <t>32,82</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve">47GQ </t>
+          <t xml:space="preserve">15CP </t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -19407,29 +19429,25 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798185200478 </t>
+          <t xml:space="preserve">7798185200294 </t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>YERBA Jesper organica con palo 500 gr</t>
+          <t>YERBA Jesper con hierbas serranas 500 gr</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>YERBA Jesper organica con palo 500 gr</t>
+          <t>YERBA Jesper con hierbas serranas 500 gr</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Yerba mate orgánica Jesper, con palo, perfecta para preparar un mate saludable y sabroso.</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>Los Nogales</t>
-        </is>
-      </c>
+          <t>La combinación de la Yerba Mate con Menta, Peperina y Poleo combinan poderosas propiedades de hierbas naturales que favorecen la salud del organismo.</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
@@ -19480,7 +19498,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">74BI </t>
+          <t xml:space="preserve">47GQ </t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -19490,25 +19508,29 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798185200287 </t>
+          <t xml:space="preserve">7798185200478 </t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>YERBA Jesper tradicional 500 gr roja</t>
+          <t>YERBA Jesper organica con palo 500 gr</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>YERBA Jesper tradicional 500 gr roja</t>
+          <t>YERBA Jesper organica con palo 500 gr</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Producto elaborado con palo y resultado de un cuidadoso proceso de estacionamiento natural que permite que sus hojas desarrollen un sabor más equilibrado, sin amargor excesivo.</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr"/>
+          <t>Yerba mate orgánica Jesper, con palo, perfecta para preparar un mate saludable y sabroso.</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
@@ -19559,7 +19581,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t xml:space="preserve">98TJ </t>
+          <t xml:space="preserve">74BI </t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -19569,29 +19591,25 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791312000224 </t>
+          <t xml:space="preserve">7798185200287 </t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>yerba Kalena con palo 500 gr</t>
+          <t>YERBA Jesper tradicional 500 gr roja</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>yerba Kalena con palo 500 gr</t>
+          <t>YERBA Jesper tradicional 500 gr roja</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Yerba mate Kalena, con palo, ideal para quienes buscan un sabor auténtico y tradicional.</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>Los Nogales</t>
-        </is>
-      </c>
+          <t>Producto elaborado con palo y resultado de un cuidadoso proceso de estacionamiento natural que permite que sus hojas desarrollen un sabor más equilibrado, sin amargor excesivo.</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
@@ -19615,34 +19633,34 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>21/11/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>3.210,00</t>
+          <t>2.650,00</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>3.719,01</t>
         </is>
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>4.500,00</t>
         </is>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>28,73</t>
+          <t>40,34</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t xml:space="preserve">69ET </t>
+          <t xml:space="preserve">98TJ </t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -19652,22 +19670,22 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791312000392 </t>
+          <t xml:space="preserve">7791312000224 </t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>yerba Kalena DESPALADA 500 gr</t>
+          <t>yerba Kalena con palo 500 gr</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>yerba Kalena DESPALADA 500 gr</t>
+          <t>yerba Kalena con palo 500 gr</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Yerba mate Kalena despalada, con un sabor más intenso, ideal para los amantes del mate fuerte.</t>
+          <t>Yerba mate Kalena, con palo, ideal para quienes buscan un sabor auténtico y tradicional.</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -19703,29 +19721,29 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>3.850,00</t>
+          <t>3.210,00</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>4.958,68</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>6.000,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>28,80</t>
+          <t>28,73</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t xml:space="preserve">67GY </t>
+          <t xml:space="preserve">69ET </t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -19735,25 +19753,29 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve">076625246352 </t>
+          <t xml:space="preserve">7791312000392 </t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Yerba La Buena 1kg</t>
+          <t>yerba Kalena DESPALADA 500 gr</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Yerba La Buena 1kg</t>
+          <t>yerba Kalena DESPALADA 500 gr</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr"/>
+          <t>Yerba mate Kalena despalada, con un sabor más intenso, ideal para los amantes del mate fuerte.</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
@@ -19777,34 +19799,34 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>22/08/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>5.700,00</t>
+          <t>3.850,00</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>7.355,37</t>
+          <t>4.958,68</t>
         </is>
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>8.900,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>29,04</t>
+          <t>28,80</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t xml:space="preserve">19PM </t>
+          <t xml:space="preserve">67GY </t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -19814,17 +19836,17 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t xml:space="preserve">754697526977 </t>
+          <t xml:space="preserve">076625246352 </t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Yerba La Buena 500 gr</t>
+          <t>Yerba La Buena 1kg</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Yerba La Buena 500 gr</t>
+          <t>Yerba La Buena 1kg</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -19861,29 +19883,29 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>5.700,00</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>7.355,37</t>
         </is>
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>8.900,00</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>29,04</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve">24OB </t>
+          <t xml:space="preserve">19PM </t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -19893,23 +19915,22 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798019800010 </t>
+          <t xml:space="preserve">754697526977 </t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Yerba mate 500g LAS TUNAS</t>
+          <t>Yerba La Buena 500 gr</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Yerba mate 500g LAS TUNAS</t>
+          <t>Yerba La Buena 500 gr</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Elaborada con palo, estacionamiento natural, sin componentes químicos.  Apta Celíacos.
-Producida por La cooperativa Las Tunas, ubicada en Misiones,  recibe anualmente 1 millón 500 mil kilos de hoja verde de sus socios y elabora entre 20 y 25 mil kilos de yerba mate que son comercializados en distintos lugares de la Argentina bajo la modalidad de venta directa, esto es: del productor al consumidor</t>
+          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
         </is>
       </c>
       <c r="G244" t="inlineStr"/>
@@ -19936,57 +19957,137 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>22/08/2025</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2.050,00</t>
+          <t>3.000,00</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>3.388,43</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>4.100,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>37,74</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
+          <t xml:space="preserve">24OB </t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798019800010 </t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Yerba mate 500g LAS TUNAS</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Yerba mate 500g LAS TUNAS</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Elaborada con palo, estacionamiento natural, sin componentes químicos.  Apta Celíacos.
+Producida por La cooperativa Las Tunas, ubicada en Misiones,  recibe anualmente 1 millón 500 mil kilos de hoja verde de sus socios y elabora entre 20 y 25 mil kilos de yerba mate que son comercializados en distintos lugares de la Argentina bajo la modalidad de venta directa, esto es: del productor al consumidor</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>2.050,00</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>3.388,43</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>4.100,00</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
           <t xml:space="preserve">87DC </t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
+      <c r="B246" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
         <is>
           <t xml:space="preserve">7798146780018 </t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
+      <c r="D246" t="inlineStr">
         <is>
           <t>Yerba Mate Legado 500g</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>Yerba Mate Legado 500g</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t xml:space="preserve">Es un producto orgánico, sin aditivos químicos y cultivado en yerbales orgánicos, lleva el sello de certificación OIA de la empresa certificadora "Organización Internacional Agropecuaria" de Buenos Aires.
 Se extraen principalmente hojas maduras con ramas que luego se seleccionan enviando al “secadero” las de pequeño diámetro y descartando las de mayor grosor. Este proceso se denomina “quiebra” 
@@ -19994,90 +20095,7 @@
 </t>
         </is>
       </c>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N245" t="inlineStr">
-        <is>
-          <t>2.300,00</t>
-        </is>
-      </c>
-      <c r="O245" t="inlineStr">
-        <is>
-          <t>3.057,85</t>
-        </is>
-      </c>
-      <c r="P245" t="inlineStr">
-        <is>
-          <t>3.700,00</t>
-        </is>
-      </c>
-      <c r="Q245" t="inlineStr">
-        <is>
-          <t>32,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t xml:space="preserve">78TZ </t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200041 </t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Yerba Roapipo suave 500g</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Yerba Roapipo suave 500g</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Yerba mate Roapipo, suave y aromática, perfecta para quienes buscan un mate ligero.</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>Eco Tierra</t>
-        </is>
-      </c>
+      <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
@@ -20106,29 +20124,29 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2.710,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>3.057,85</t>
         </is>
       </c>
       <c r="P246" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>3.700,00</t>
         </is>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>52,48</t>
+          <t>32,95</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t xml:space="preserve">58DG </t>
+          <t xml:space="preserve">78TZ </t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -20138,25 +20156,29 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798140140023 </t>
+          <t xml:space="preserve">7798185200041 </t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Yerba TITRAYJU 500g</t>
+          <t>Yerba Roapipo suave 500g</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Yerba TITRAYJU 500g</t>
+          <t>Yerba Roapipo suave 500g</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Yerba mate Titrayju, con un sabor fuerte y característico, ideal para los amantes del mate intenso.</t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr"/>
+          <t>Yerba mate Roapipo, suave y aromática, perfecta para quienes buscan un mate ligero.</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Eco Tierra</t>
+        </is>
+      </c>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
@@ -20180,34 +20202,34 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>3.900,00</t>
+          <t>2.710,00</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>5.123,97</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>31,38</t>
+          <t>52,48</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t xml:space="preserve">51OP </t>
+          <t xml:space="preserve">58DG </t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -20217,22 +20239,22 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795568960271 </t>
+          <t xml:space="preserve">7798140140023 </t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Yerba Tucangua 500grs</t>
+          <t>Yerba TITRAYJU 500g</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Yerba Tucangua 500grs</t>
+          <t>Yerba TITRAYJU 500g</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Esta yerba tiene un perfil de sabor suave y sin notas amargas, a diferencia de otras yerbas. Se seca de manera natural y se añeja, y es 100% orgánica</t>
+          <t>Yerba mate Titrayju, con un sabor fuerte y característico, ideal para los amantes del mate intenso.</t>
         </is>
       </c>
       <c r="G248" t="inlineStr"/>
@@ -20259,34 +20281,34 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>21/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>3.050,00</t>
+          <t>3.900,00</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>5.123,97</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>35,48</t>
+          <t>31,38</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t xml:space="preserve">15ZF </t>
+          <t xml:space="preserve">51OP </t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -20296,43 +20318,39 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480309 </t>
+          <t xml:space="preserve">7795568960271 </t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Yogurth bebible F, bosque 500cm3 La Choza (N</t>
+          <t>Yerba Tucangua 500grs</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Yogurth bebible F, bosque 500cm3 La Choza (NO incluye el envase)</t>
+          <t>Yerba Tucangua 500grs</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Yogurth bebible de sabor bosque, cremoso y nutritivo, ideal para un snack saludable.</t>
-        </is>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>La Choza</t>
-        </is>
-      </c>
+          <t>Esta yerba tiene un perfil de sabor suave y sin notas amargas, a diferencia de otras yerbas. Se seca de manera natural y se añeja, y es 100% orgánica</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Yerba Mate</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -20342,34 +20360,34 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>4.150,00</t>
+          <t>3.050,00</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>5.248,87</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>5.800,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>26,48</t>
+          <t>35,48</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t xml:space="preserve">20YC </t>
+          <t xml:space="preserve">15ZF </t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -20379,22 +20397,22 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480071 </t>
+          <t xml:space="preserve">7798328480309 </t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 1LT La Choza (NO in</t>
+          <t>Yogurth bebible F, bosque 500cm3 La Choza (N</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 1LT La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible F, bosque 500cm3 La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutilla, delicioso y refrescante, perfecto para disfrutar en cualquier momento.</t>
+          <t>Yogurth bebible de sabor bosque, cremoso y nutritivo, ideal para un snack saludable.</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -20430,29 +20448,29 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>6.640,00</t>
+          <t>4.150,00</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>8.416,29</t>
+          <t>5.248,87</t>
         </is>
       </c>
       <c r="P250" t="inlineStr">
         <is>
-          <t>9.300,00</t>
+          <t>5.800,00</t>
         </is>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>26,75</t>
+          <t>26,48</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t xml:space="preserve">47BB </t>
+          <t xml:space="preserve">20YC </t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -20462,22 +20480,22 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480361 </t>
+          <t xml:space="preserve">7798328480071 </t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 500cm3 La Choza (NO</t>
+          <t>Yogurth bebible frutilla 1LT La Choza (NO in</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 500cm3 La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible frutilla 1LT La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutilla en menor cantidad, ideal para un snack rápido y sabroso.</t>
+          <t>Yogurth bebible de frutilla, delicioso y refrescante, perfecto para disfrutar en cualquier momento.</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -20513,29 +20531,29 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>4.000,00</t>
+          <t>6.640,00</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>5.067,87</t>
+          <t>8.416,29</t>
         </is>
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>5.600,00</t>
+          <t>9.300,00</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>26,70</t>
+          <t>26,75</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t xml:space="preserve">63AA </t>
+          <t xml:space="preserve">47BB </t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -20545,22 +20563,22 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480057 </t>
+          <t xml:space="preserve">7798328480361 </t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutos rojos 1 LT La Choza (</t>
+          <t>Yogurth bebible frutilla 500cm3 La Choza (NO</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutos rojos 1 LT La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible frutilla 500cm3 La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutos rojos, rico en sabor y nutrientes, ideal para un desayuno o merienda.</t>
+          <t>Yogurth bebible de frutilla en menor cantidad, ideal para un snack rápido y sabroso.</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -20596,29 +20614,29 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>6.790,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>8.597,29</t>
+          <t>5.067,87</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>9.500,00</t>
+          <t>5.600,00</t>
         </is>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>26,62</t>
+          <t>26,70</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t xml:space="preserve">85ST </t>
+          <t xml:space="preserve">63AA </t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -20628,25 +20646,29 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t xml:space="preserve">325225 </t>
+          <t xml:space="preserve">7798328480057 </t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Yogurth griego 170g KAY</t>
+          <t>Yogurth bebible frutos rojos 1 LT La Choza (</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Yogurth griego 170g KAY</t>
+          <t>Yogurth bebible frutos rojos 1 LT La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Yogurth griego, cremoso y rico en proteínas, ideal para disfrutar solo o con frutas.</t>
-        </is>
-      </c>
-      <c r="G253" t="inlineStr"/>
+          <t>Yogurth bebible de frutos rojos, rico en sabor y nutrientes, ideal para un desayuno o merienda.</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
@@ -20660,7 +20682,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20670,34 +20692,34 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>18/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>3.390,00</t>
+          <t>6.790,00</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>5.123,97</t>
+          <t>8.597,29</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>9.500,00</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>51,15</t>
+          <t>26,62</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t xml:space="preserve">12DU </t>
+          <t xml:space="preserve">85ST </t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -20707,22 +20729,22 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve">125151421 </t>
+          <t xml:space="preserve">325225 </t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Yogurth griego 400g KAY</t>
+          <t>Yogurth griego 170g KAY</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Yogurth griego 400g KAY</t>
+          <t>Yogurth griego 170g KAY</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Yogurth griego, perfecto para quienes buscan un snack saludable y nutritivo.</t>
+          <t>Yogurth griego, cremoso y rico en proteínas, ideal para disfrutar solo o con frutas.</t>
         </is>
       </c>
       <c r="G254" t="inlineStr"/>
@@ -20754,29 +20776,29 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>7.270,00</t>
+          <t>3.390,00</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>11.157,02</t>
+          <t>5.123,97</t>
         </is>
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>13.500,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>53,47</t>
+          <t>51,15</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve">73AZ </t>
+          <t xml:space="preserve">12DU </t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -20786,22 +20808,22 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve">4123241 </t>
+          <t xml:space="preserve">125151421 </t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 200g</t>
+          <t>Yogurth griego 400g KAY</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 200g</t>
+          <t>Yogurth griego 400g KAY</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+          <t>Yogurth griego, perfecto para quienes buscan un snack saludable y nutritivo.</t>
         </is>
       </c>
       <c r="G255" t="inlineStr"/>
@@ -20828,34 +20850,34 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>18/08/2025</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>7.270,00</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>11.157,02</t>
         </is>
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>13.500,00</t>
         </is>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>53,47</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve">85LG </t>
+          <t xml:space="preserve">73AZ </t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -20865,17 +20887,17 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t xml:space="preserve">42355322 </t>
+          <t xml:space="preserve">4123241 </t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 370g</t>
+          <t>Yogurth griego natural ghurt 200g</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 370g</t>
+          <t>Yogurth griego natural ghurt 200g</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -20883,11 +20905,7 @@
           <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>Camila GHURTH yogurth griego</t>
-        </is>
-      </c>
+      <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
@@ -20916,29 +20934,29 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>5.600,00</t>
+          <t>3.000,00</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>7.685,95</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P256" t="inlineStr">
         <is>
-          <t>9.300,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>37,25</t>
+          <t>37,74</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t xml:space="preserve">49HA </t>
+          <t xml:space="preserve">85LG </t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -20948,17 +20966,17 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t xml:space="preserve">21712414 </t>
+          <t xml:space="preserve">42355322 </t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 750g</t>
+          <t>Yogurth griego natural ghurt 370g</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 750g</t>
+          <t>Yogurth griego natural ghurt 370g</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -20966,7 +20984,11 @@
           <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr"/>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Camila GHURTH yogurth griego</t>
+        </is>
+      </c>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
@@ -20995,20 +21017,99 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
+          <t>5.600,00</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>7.685,95</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>9.300,00</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>37,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49HA </t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21712414 </t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 750g</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 750g</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>Lacteos</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
           <t>10.800,00</t>
         </is>
       </c>
-      <c r="O257" t="inlineStr">
+      <c r="O258" t="inlineStr">
         <is>
           <t>14.462,81</t>
         </is>
       </c>
-      <c r="P257" t="inlineStr">
+      <c r="P258" t="inlineStr">
         <is>
           <t>17.500,00</t>
         </is>
       </c>
-      <c r="Q257" t="inlineStr">
+      <c r="Q258" t="inlineStr">
         <is>
           <t>33,91</t>
         </is>

--- a/media/articulos_filtrados.xlsx
+++ b/media/articulos_filtrados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q258"/>
+  <dimension ref="A1:Q259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12875,30 +12875,113 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
+          <t xml:space="preserve">71OI </t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PLUT0012 </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Pan Dulce Chico Plutarco</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Pan Dulce Chico Plutarco</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Pan dulce integral, organico y artesanal
+Continene gran variedad de frutos secos y especias.
+Sus ingredientes le proporcionan un sabor único, fresco y natural.
+Ideal para compartir en familia.
+Peso aproximado 350g</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Plutarco</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Panaderia y Comidas</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>3.250,00</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>9.917,36</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>12.000,00</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>205,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
           <t xml:space="preserve">94SP </t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0035 </t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>Pan Dulce Chico SIN TACC Plutarco</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>Pan Dulce Chico SIN TACC Plutarco</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>Pan dulce organico, artesanal y sin tacc
 Continene harina de almendra y harina de sarraceno, gran variedad de frutos secos, especias y jugo de frutas.
@@ -12908,77 +12991,77 @@
 ATENCION: contiene contaminacion cruzada, no apto celiaco extricto</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr">
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
         <is>
           <t>Panificados Integrales</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr">
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
         <is>
           <t>0,00</t>
         </is>
       </c>
-      <c r="O156" t="inlineStr">
+      <c r="O157" t="inlineStr">
         <is>
           <t>12.396,69</t>
         </is>
       </c>
-      <c r="P156" t="inlineStr">
+      <c r="P157" t="inlineStr">
         <is>
           <t>15.000,00</t>
         </is>
       </c>
-      <c r="Q156" t="inlineStr">
+      <c r="Q157" t="inlineStr">
         <is>
           <t>0,00</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t xml:space="preserve">59BG </t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0011 </t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>Pan Dulce Grande Plutarco</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>Pan Dulce Grande Plutarco</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>Pan dulce integral, organico y artesanal
 Continene gran variedad de frutos secos y especias.
@@ -12987,81 +13070,81 @@
 Peso aproximado 950g</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr">
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
         <is>
           <t>Panaderia y Comidas</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
         <is>
           <t>10,50</t>
         </is>
       </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>13/08/2025</t>
         </is>
       </c>
-      <c r="N157" t="inlineStr">
+      <c r="N158" t="inlineStr">
         <is>
           <t>7.000,00</t>
         </is>
       </c>
-      <c r="O157" t="inlineStr">
+      <c r="O158" t="inlineStr">
         <is>
           <t>18.099,55</t>
         </is>
       </c>
-      <c r="P157" t="inlineStr">
+      <c r="P158" t="inlineStr">
         <is>
           <t>20.000,00</t>
         </is>
       </c>
-      <c r="Q157" t="inlineStr">
+      <c r="Q158" t="inlineStr">
         <is>
           <t>158,56</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t xml:space="preserve">53WX </t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0036 </t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>Pan Dulce Grande SIN TACC Plutarco</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>Pan Dulce Grande SIN TACC Plutarco</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>Pan dulce organico, artesanal y sin tacc
 Continene harina de almendra y harina de sarraceno, gran variedad de frutos secos, especias y jugo de frutas.
@@ -13071,165 +13154,86 @@
 ATENCION: contiene contaminacion cruzada, no apto celiaco extricto</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr">
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
         <is>
           <t>Panificados Integrales</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>26/11/2025</t>
         </is>
       </c>
-      <c r="N158" t="inlineStr">
+      <c r="N159" t="inlineStr">
         <is>
           <t>0,00</t>
         </is>
       </c>
-      <c r="O158" t="inlineStr">
+      <c r="O159" t="inlineStr">
         <is>
           <t>20.661,16</t>
         </is>
       </c>
-      <c r="P158" t="inlineStr">
+      <c r="P159" t="inlineStr">
         <is>
           <t>25.000,00</t>
         </is>
       </c>
-      <c r="Q158" t="inlineStr">
+      <c r="Q159" t="inlineStr">
         <is>
           <t>0,00</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t xml:space="preserve">80TH </t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0062 </t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>Pan integral SIN SAL</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>Pan integral SIN SAL</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>Elaborado a base de harina 100% integral organica, mix de semillas y masa madre. No contiene sal de ningun tipo.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>3.633,33</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>4.504,13</t>
-        </is>
-      </c>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>5.450,00</t>
-        </is>
-      </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>23,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18FB </t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PLUT0060 </t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Pan Vollkorn Plutarco</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Pan Vollkorn Plutarco</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>PROXIMAMENTE EN STOCK</t>
-        </is>
-      </c>
       <c r="G160" t="inlineStr">
         <is>
           <t>Plutarco</t>
@@ -13244,7 +13248,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -13259,29 +13263,29 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>4.133,33</t>
+          <t>3.633,33</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>5.610,86</t>
+          <t>4.504,13</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>5.450,00</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>35,75</t>
+          <t>23,97</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">67ML </t>
+          <t xml:space="preserve">18FB </t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -13291,35 +13295,39 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel16 </t>
+          <t xml:space="preserve">PLUT0060 </t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Pasas de Uva 100grs</t>
+          <t>Pan Vollkorn Plutarco</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Pasas de Uva 100grs</t>
+          <t>Pan Vollkorn Plutarco</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Pasas de uva, un snack dulce y nutritivo, perfectas para picar o añadir a cereales.</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr"/>
+          <t>PROXIMAMENTE EN STOCK</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Plutarco</t>
+        </is>
+      </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
+          <t>Panificados Integrales</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -13329,34 +13337,34 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>395,00</t>
+          <t>4.133,33</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>652,89</t>
+          <t>5.610,86</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>790,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">54DA </t>
+          <t xml:space="preserve">67ML </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -13366,22 +13374,22 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel24 </t>
+          <t xml:space="preserve">Granel16 </t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Pasas de Uva con Chocolate 100grs</t>
+          <t>Pasas de Uva 100grs</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Pasas de Uva con Chocolate 100grs</t>
+          <t>Pasas de Uva 100grs</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Pasas cubiertas de chocolate, un delicioso snack que combina lo dulce con lo saludable.</t>
+          <t>Pasas de uva, un snack dulce y nutritivo, perfectas para picar o añadir a cereales.</t>
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
@@ -13409,17 +13417,17 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>1.335,00</t>
+          <t>395,00</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2.206,61</t>
+          <t>652,89</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>2.670,00</t>
+          <t>790,00</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
@@ -13431,133 +13439,125 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
+          <t xml:space="preserve">54DA </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Granel24 </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Pasas de Uva con Chocolate 100grs</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Pasas de Uva con Chocolate 100grs</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Pasas cubiertas de chocolate, un delicioso snack que combina lo dulce con lo saludable.</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>1.335,00</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>2.206,61</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>2.670,00</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
           <t xml:space="preserve">68NZ </t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0013 </t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>Pepas Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>Pepas Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>Esponjosa pepa elaborada artesanalmente con Membrillo organico, harina integral y azucar mascabo.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>2.213,33</t>
-        </is>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>3.004,52</t>
-        </is>
-      </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>3.320,00</t>
-        </is>
-      </c>
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>35,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">94NP </t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">001996 </t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Peperina 50g Plut</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Peperina 50g Plut</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Hierba de peperina, utilizada en infusiones, con un sabor refrescante y propiedades digestivas.</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>Yuyos</t>
-        </is>
-      </c>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -13567,153 +13567,157 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>1.770,00</t>
+          <t>2.213,33</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2.925,62</t>
+          <t>3.004,52</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>3.540,00</t>
+          <t>3.320,00</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t xml:space="preserve">94NP </t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">001996 </t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Peperina 50g Plut</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Peperina 50g Plut</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Hierba de peperina, utilizada en infusiones, con un sabor refrescante y propiedades digestivas.</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Yuyos Andy</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Yuyos</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>1.770,00</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>2.925,62</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>3.540,00</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
           <t xml:space="preserve">34BM </t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0050 </t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>Pepitos con chips Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>Pepitos con chips Plutarco 200 gr</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>Esponjosa pepa elaborada artesanalmente con chips de chocolate semiamargo, harina integral y azucar mascabo.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>2.213,33</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>2.743,80</t>
-        </is>
-      </c>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>3.320,00</t>
-        </is>
-      </c>
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>23,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28HE </t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">736372523969 </t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Piedra de Alumbre desodorante LAIMA</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Piedra de Alumbre desodorante LAIMA</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>El desodorante de piedra de alumbre 100% natural Laima de 80-100 gramos es una opción natural y efectiva para controlar el olor corporal.</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Cosmetica natural</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>Desodorantes</t>
-        </is>
-      </c>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -13726,34 +13730,34 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>7.500,00</t>
+          <t>2.213,33</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>12.396,69</t>
+          <t>2.743,80</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>15.000,00</t>
+          <t>3.320,00</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>23,97</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">60FN </t>
+          <t xml:space="preserve">28HE </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -13763,38 +13767,34 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">002008 </t>
+          <t xml:space="preserve">736372523969 </t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Pimenton Ahumado 50g Plut</t>
+          <t>Piedra de Alumbre desodorante LAIMA</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Pimenton Ahumado 50g Plut</t>
+          <t>Piedra de Alumbre desodorante LAIMA</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Pimentón ahumado, ideal para dar sabor a platos y salsas, con un toque ahumado distintivo.</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>Yuyos Andy</t>
-        </is>
-      </c>
+          <t>El desodorante de piedra de alumbre 100% natural Laima de 80-100 gramos es una opción natural y efectiva para controlar el olor corporal.</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Sales y Condimentos</t>
+          <t>Cosmetica natural</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Condimentos</t>
+          <t>Desodorantes</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -13809,34 +13809,34 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>1.546,50</t>
+          <t>7.500,00</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2.561,98</t>
+          <t>12.396,69</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>3.100,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>65,66</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">11BS </t>
+          <t xml:space="preserve">60FN </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -13846,22 +13846,22 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">002019 </t>
+          <t xml:space="preserve">002008 </t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Pimienta blanca en grano 50g Plut</t>
+          <t>Pimenton Ahumado 50g Plut</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Pimienta blanca en grano 50g Plut</t>
+          <t>Pimenton Ahumado 50g Plut</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Pimienta blanca en grano, perfecta para sazonar comidas con un sabor suave.</t>
+          <t>Pimentón ahumado, ideal para dar sabor a platos y salsas, con un toque ahumado distintivo.</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -13897,29 +13897,29 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2.272,50</t>
+          <t>1.546,50</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>3.760,33</t>
+          <t>2.561,98</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>4.550,00</t>
+          <t>3.100,00</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>65,47</t>
+          <t>65,66</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">49QQ </t>
+          <t xml:space="preserve">11BS </t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -13929,22 +13929,22 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve">002018 </t>
+          <t xml:space="preserve">002019 </t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo 50g Plut</t>
+          <t>Pimienta blanca en grano 50g Plut</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo 50g Plut</t>
+          <t>Pimienta blanca en grano 50g Plut</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo, ideal para sazonar platos y dar un toque de sabor.</t>
+          <t>Pimienta blanca en grano, perfecta para sazonar comidas con un sabor suave.</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -14002,7 +14002,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">19SC </t>
+          <t xml:space="preserve">49QQ </t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -14012,22 +14012,22 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">011501 </t>
+          <t xml:space="preserve">002018 </t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>pimienta blanca polvo 50g plut</t>
+          <t>Pimienta blanca en polvo 50g Plut</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>pimienta blanca polvo 50g plut</t>
+          <t>Pimienta blanca en polvo 50g Plut</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Pimienta blanca en polvo, perfecta para aderezar ensaladas y platos cocinados.</t>
+          <t>Pimienta blanca en polvo, ideal para sazonar platos y dar un toque de sabor.</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -14058,34 +14058,34 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>1.072,06</t>
+          <t>2.272,50</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>1.772,00</t>
+          <t>3.760,33</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>2.144,12</t>
+          <t>4.550,00</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>65,47</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">20OZ </t>
+          <t xml:space="preserve">19SC </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -14095,22 +14095,22 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">002017 </t>
+          <t xml:space="preserve">011501 </t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Pimienta negra en grano x 50grs PLUT</t>
+          <t>pimienta blanca polvo 50g plut</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Pimienta negra en grano x 50grs PLUT</t>
+          <t>pimienta blanca polvo 50g plut</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Pimienta negra en grano, ideal para moler y dar un sabor intenso a tus comidas.</t>
+          <t>Pimienta blanca en polvo, perfecta para aderezar ensaladas y platos cocinados.</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -14141,22 +14141,22 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2.575,00</t>
+          <t>1.072,06</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>4.256,20</t>
+          <t>1.772,00</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>5.150,00</t>
+          <t>2.144,12</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
@@ -14168,7 +14168,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">78HB </t>
+          <t xml:space="preserve">20OZ </t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -14178,22 +14178,22 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve">002020 </t>
+          <t xml:space="preserve">002017 </t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Pimienta negra molida 50g Plut</t>
+          <t>Pimienta negra en grano x 50grs PLUT</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Pimienta negra molida 50g Plut</t>
+          <t>Pimienta negra en grano x 50grs PLUT</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Pimienta negra molida, perfecta para sazonar platos y dar un toque picante.</t>
+          <t>Pimienta negra en grano, ideal para moler y dar un sabor intenso a tus comidas.</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -14224,22 +14224,22 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>1.100,00</t>
+          <t>2.575,00</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>1.818,18</t>
+          <t>4.256,20</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>2.200,00</t>
+          <t>5.150,00</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
@@ -14251,7 +14251,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">72JJ </t>
+          <t xml:space="preserve">78HB </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -14261,36 +14261,40 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">0020221 </t>
+          <t xml:space="preserve">002020 </t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Pistacho salado con cascara 100gr Plutarco</t>
+          <t>Pimienta negra molida 50g Plut</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Pistacho salado con cascara 100gr Plutarco</t>
+          <t>Pimienta negra molida 50g Plut</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Pistachos salados con cascara naturales</t>
+          <t>Pimienta negra molida, perfecta para sazonar platos y dar un toque picante.</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr"/>
+          <t>Sales y Condimentos</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Condimentos</t>
+        </is>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -14303,34 +14307,34 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>3.675,00</t>
+          <t>1.100,00</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>5.495,87</t>
+          <t>1.818,18</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>6.650,00</t>
+          <t>2.200,00</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>49,55</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">98IA </t>
+          <t xml:space="preserve">72JJ </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -14340,22 +14344,22 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve">pistachos2 </t>
+          <t xml:space="preserve">0020221 </t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Pistacho tostado pelado con sal PLUTARCO 100g</t>
+          <t>Pistacho salado con cascara 100gr Plutarco</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Pistacho tostado pelado con sal PLUTARCO 100g</t>
+          <t>Pistacho salado con cascara 100gr Plutarco</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Pistacho tostado, pelado y natural</t>
+          <t>Pistachos salados con cascara naturales</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -14382,34 +14386,34 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>06/10/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>5.775,00</t>
+          <t>3.675,00</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>7.438,02</t>
+          <t>5.495,87</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>9.000,00</t>
+          <t>6.650,00</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>28,80</t>
+          <t>49,55</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">82OM </t>
+          <t xml:space="preserve">98IA </t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -14419,33 +14423,33 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798378750025 </t>
+          <t xml:space="preserve">pistachos2 </t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Pochoclos organico con sal marina BAMBOO</t>
+          <t>Pistacho tostado pelado con sal PLUTARCO 100g</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Pochoclos organico con sal marina BAMBOO</t>
+          <t>Pistacho tostado pelado con sal PLUTARCO 100g</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Pochoclos orgánicos, ligeros y crujientes, con un toque de sal marina, ideales como snack.</t>
+          <t>Pistacho tostado, pelado y natural</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Green &amp; CO</t>
+          <t>Los Nogales</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Snack</t>
+          <t>Productos Sueltos</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -14461,34 +14465,34 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>06/10/2025</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>1.290,00</t>
+          <t>5.775,00</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>1.900,83</t>
+          <t>7.438,02</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>2.300,00</t>
+          <t>9.000,00</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>47,35</t>
+          <t>28,80</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">90JG </t>
+          <t xml:space="preserve">82OM </t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -14498,39 +14502,39 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798004720071 </t>
+          <t xml:space="preserve">7798378750025 </t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Polenta Del Campo 500 gr</t>
+          <t>Pochoclos organico con sal marina BAMBOO</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Polenta Del Campo 500 gr</t>
+          <t>Pochoclos organico con sal marina BAMBOO</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Polenta, un alimento a base de maíz, ideal para preparar platos cremosos o como acompañamiento.</t>
+          <t>Pochoclos orgánicos, ligeros y crujientes, con un toque de sal marina, ideales como snack.</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Eco Tierra</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Cereales y Legumbres</t>
+          <t>Snack</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -14540,34 +14544,34 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>03/09/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>1.210,00</t>
+          <t>1.290,00</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>1.809,95</t>
+          <t>1.900,83</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>49,58</t>
+          <t>47,35</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">81VO </t>
+          <t xml:space="preserve">90JG </t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -14577,27 +14581,27 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve">7793323004932 </t>
+          <t xml:space="preserve">7798004720071 </t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Polenta Organica 450g Dicomere</t>
+          <t>Polenta Del Campo 500 gr</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Polenta Organica 450g Dicomere</t>
+          <t>Polenta Del Campo 500 gr</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Polenta orgánica, perfecta para preparar platos saludables y nutritivos.</t>
+          <t>Polenta, un alimento a base de maíz, ideal para preparar platos cremosos o como acompañamiento.</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Green &amp; CO</t>
+          <t>Eco Tierra</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
@@ -14609,7 +14613,7 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -14619,34 +14623,34 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>03/09/2025</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>900,00</t>
+          <t>1.210,00</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>1.487,60</t>
+          <t>1.809,95</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>1.800,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>49,58</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">77PT </t>
+          <t xml:space="preserve">81VO </t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -14656,27 +14660,27 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve">021891 </t>
+          <t xml:space="preserve">7793323004932 </t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Poroto Aduki 500g Plutarco</t>
+          <t>Polenta Organica 450g Dicomere</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Poroto Aduki 500g Plutarco</t>
+          <t>Polenta Organica 450g Dicomere</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Porotos aduki, ricos en proteínas y fibra, ideales para guisos y ensaladas.</t>
+          <t>Polenta orgánica, perfecta para preparar platos saludables y nutritivos.</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H178" t="inlineStr"/>
@@ -14703,17 +14707,17 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>800,00</t>
+          <t>900,00</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>1.322,31</t>
+          <t>1.487,60</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>1.600,00</t>
+          <t>1.800,00</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
@@ -14725,7 +14729,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">24MR </t>
+          <t xml:space="preserve">77PT </t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -14735,22 +14739,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve">217227 </t>
+          <t xml:space="preserve">021891 </t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Poroto Alubia 500g Plutarco</t>
+          <t>Poroto Aduki 500g Plutarco</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Poroto Alubia 500g Plutarco</t>
+          <t>Poroto Aduki 500g Plutarco</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Porotos alubia, ideales para preparar guisos y platos tradicionales.</t>
+          <t>Porotos aduki, ricos en proteínas y fibra, ideales para guisos y ensaladas.</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -14782,17 +14786,17 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>1.410,00</t>
+          <t>800,00</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2.330,58</t>
+          <t>1.322,31</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>2.820,00</t>
+          <t>1.600,00</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
@@ -14804,7 +14808,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">22LL </t>
+          <t xml:space="preserve">24MR </t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -14814,22 +14818,22 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve">017393 </t>
+          <t xml:space="preserve">217227 </t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Poroto colorados 500g Plutarco</t>
+          <t>Poroto Alubia 500g Plutarco</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Poroto colorados 500g Plutarco</t>
+          <t>Poroto Alubia 500g Plutarco</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Porotos colorados, ricos en nutrientes, perfectos para guisos y ensaladas.</t>
+          <t>Porotos alubia, ideales para preparar guisos y platos tradicionales.</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -14856,34 +14860,34 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>1.520,00</t>
+          <t>1.410,00</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2.504,13</t>
+          <t>2.330,58</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>3.030,00</t>
+          <t>2.820,00</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>64,75</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">83YO </t>
+          <t xml:space="preserve">22LL </t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -14893,20 +14897,24 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve">325239 </t>
+          <t xml:space="preserve">017393 </t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Porotos negros 500g Plutarco</t>
+          <t>Poroto colorados 500g Plutarco</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Porotos negros 500g Plutarco</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr"/>
+          <t>Poroto colorados 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Porotos colorados, ricos en nutrientes, perfectos para guisos y ensaladas.</t>
+        </is>
+      </c>
       <c r="G181" t="inlineStr">
         <is>
           <t>Los Nogales</t>
@@ -14931,34 +14939,34 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>15/08/2025</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>1.155,00</t>
+          <t>1.520,00</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>1.909,09</t>
+          <t>2.504,13</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>2.310,00</t>
+          <t>3.030,00</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>64,75</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">24YI </t>
+          <t xml:space="preserve">83YO </t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -14968,24 +14976,20 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve">137329 </t>
+          <t xml:space="preserve">325239 </t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Porotos Pallares 500g Plutarco</t>
+          <t>Porotos negros 500g Plutarco</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Porotos Pallares 500g Plutarco</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Porotos pallares, ideales para guisos y platos de legumbres, ricos en proteínas.</t>
-        </is>
-      </c>
+          <t>Porotos negros 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr">
         <is>
           <t>Los Nogales</t>
@@ -15010,241 +15014,237 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>1.155,00</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>4.669,42</t>
+          <t>1.909,09</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>5.650,00</t>
+          <t>2.310,00</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>55,65</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
+          <t xml:space="preserve">24YI </t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">137329 </t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Porotos Pallares 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Porotos Pallares 500g Plutarco</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Porotos pallares, ideales para guisos y platos de legumbres, ricos en proteínas.</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Cereales y Legumbres</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>4.669,42</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>5.650,00</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>55,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
           <t xml:space="preserve">35QS </t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0015 </t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>Pre-pizza de arroz Plutarco</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>Pre-pizza de arroz Plutarco</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>Pre-pizza elaborada a base de Arroz Yamani, feculas y aceite de oliva organico. 
 Libre de gluten  (contiene contaminacion cruzada)
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>Plutarco</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr">
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
         <is>
           <t>Panificados Integrales</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
         <is>
           <t>10,50</t>
         </is>
       </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M183" t="inlineStr">
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
         <is>
           <t>17/09/2025</t>
         </is>
       </c>
-      <c r="N183" t="inlineStr">
+      <c r="N184" t="inlineStr">
         <is>
           <t>2.213,33</t>
         </is>
       </c>
-      <c r="O183" t="inlineStr">
+      <c r="O184" t="inlineStr">
         <is>
           <t>3.004,52</t>
         </is>
       </c>
-      <c r="P183" t="inlineStr">
+      <c r="P184" t="inlineStr">
         <is>
           <t>3.320,00</t>
         </is>
       </c>
-      <c r="Q183" t="inlineStr">
+      <c r="Q184" t="inlineStr">
         <is>
           <t>35,75</t>
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="185">
+      <c r="A185" t="inlineStr">
         <is>
           <t xml:space="preserve">72ET </t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0014 </t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>Pre-pizza integral Plutarco</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>Pre-pizza integral Plutarco</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>Elaborado a base de harina 100% integral organica, mix de semillas y masa madre.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>1.713,33</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>2.325,79</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>2.570,00</t>
-        </is>
-      </c>
-      <c r="Q184" t="inlineStr">
-        <is>
-          <t>35,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31EW </t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798338250077 </t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Queso castañas caju QU CRUDDA CLASICO</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Queso castañas caju QU CRUDDA CLASICO</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Queso vegano a base de castañas de cajú, ideal para untar o como ingrediente en ensaladas.</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Veganos</t>
-        </is>
-      </c>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -15254,34 +15254,34 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>3.550,00</t>
+          <t>1.713,33</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>5.867,77</t>
+          <t>2.325,79</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>7.100,00</t>
+          <t>2.570,00</t>
         </is>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">36ES </t>
+          <t xml:space="preserve">31EW </t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -15291,22 +15291,22 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798338250084 </t>
+          <t xml:space="preserve">7798338250077 </t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+          <t>Queso castañas caju QU CRUDDA CLASICO</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+          <t>Queso castañas caju QU CRUDDA CLASICO</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Queso vegano de castañas de cajú con especias, perfecto para dar un toque especial a tus platos.</t>
+          <t>Queso vegano a base de castañas de cajú, ideal para untar o como ingrediente en ensaladas.</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -15364,119 +15364,123 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
+          <t xml:space="preserve">36ES </t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798338250084 </t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Queso vegano de castañas de cajú con especias, perfecto para dar un toque especial a tus platos.</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Veganos</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>3.550,00</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>5.867,77</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>7.100,00</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
           <t xml:space="preserve">65FX </t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
         <is>
           <t xml:space="preserve">7798414430010 </t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>Queso crema REBELDE</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>Queso crema REBELDE</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>Queso crema sin conservantes ni azucares agregados. 
 Perfecto para acompañar cualquier tipo de plato.</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>REBELDE (Panda Organic)</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>Lacteos</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>20/08/2025</t>
-        </is>
-      </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>3.110,00</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>5.067,87</t>
-        </is>
-      </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>5.600,00</t>
-        </is>
-      </c>
-      <c r="Q187" t="inlineStr">
-        <is>
-          <t>62,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">52GA </t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">763571697221 </t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Queso Cremoso 250grs Felices las vacas</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Queso Cremoso 250grs Felices las vacas</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Queso cremoso, ideal para untar en tostadas o como ingrediente en recetas.</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
@@ -15485,12 +15489,12 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Lacteos</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15500,34 +15504,34 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>20/08/2025</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>1.865,00</t>
+          <t>3.110,00</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>3.082,64</t>
+          <t>5.067,87</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>3.730,00</t>
+          <t>5.600,00</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>62,95</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">85VZ </t>
+          <t xml:space="preserve">52GA </t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -15537,22 +15541,22 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve">656750732656 </t>
+          <t xml:space="preserve">763571697221 </t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Queso Cremoso 500g Felices Las Vacas</t>
+          <t>Queso Cremoso 250grs Felices las vacas</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Queso Cremoso 500g Felices Las Vacas</t>
+          <t>Queso Cremoso 250grs Felices las vacas</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Queso cremoso en mayor cantidad, perfecto para quienes disfrutan de un queso suave y untar.</t>
+          <t>Queso cremoso, ideal para untar en tostadas o como ingrediente en recetas.</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -15584,17 +15588,17 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>3.530,00</t>
+          <t>1.865,00</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>5.834,71</t>
+          <t>3.082,64</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>7.060,00</t>
+          <t>3.730,00</t>
         </is>
       </c>
       <c r="Q189" t="inlineStr">
@@ -15606,7 +15610,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">13NR </t>
+          <t xml:space="preserve">85VZ </t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -15616,25 +15620,25 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480118 </t>
+          <t xml:space="preserve">656750732656 </t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Queso Cuartirolo 350grs x unidad La Choza ya</t>
+          <t>Queso Cremoso 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Queso Cuartirolo 350grs x unidad La Choza ya fraccionado</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>La Choza</t>
-        </is>
-      </c>
+          <t>Queso Cremoso 500g Felices Las Vacas</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Queso cremoso en mayor cantidad, perfecto para quienes disfrutan de un queso suave y untar.</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
@@ -15643,12 +15647,12 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Veganos</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -15658,34 +15662,34 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>6.430,00</t>
+          <t>3.530,00</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>8.144,80</t>
+          <t>5.834,71</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>9.000,00</t>
+          <t>7.060,00</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>26,67</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">50NS </t>
+          <t xml:space="preserve">13NR </t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -15695,25 +15699,25 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve">763571697214 </t>
+          <t xml:space="preserve">7798328480118 </t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Queso Mozzarella 250grs Felices las Vacas</t>
+          <t>Queso Cuartirolo 350grs x unidad La Choza ya</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mozzarella 250grs Felices las Vacas</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Mozzarella VEGANA, ideal para pizzas, ensaladas y platos italianos.</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr"/>
+          <t>Queso Cuartirolo 350grs x unidad La Choza ya fraccionado</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
@@ -15722,12 +15726,12 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Lacteos</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -15737,34 +15741,34 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>1.865,00</t>
+          <t>6.430,00</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>3.082,64</t>
+          <t>8.144,80</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>3.730,00</t>
+          <t>9.000,00</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>26,67</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">60GZ </t>
+          <t xml:space="preserve">50NS </t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -15774,22 +15778,22 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve">076625286228 </t>
+          <t xml:space="preserve">763571697214 </t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Queso Mozzarella 500g Felices Las Vacas</t>
+          <t>Queso Mozzarella 250grs Felices las Vacas</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Queso Mozzarella 500g Felices Las Vacas</t>
+          <t>Mozzarella 250grs Felices las Vacas</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Mozzarella VEGANA, ideal para pizzas, lasañas y ensaladas, con una textura suave y cremosa.</t>
+          <t>Mozzarella VEGANA, ideal para pizzas, ensaladas y platos italianos.</t>
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
@@ -15821,17 +15825,17 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>3.530,00</t>
+          <t>1.865,00</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>5.834,71</t>
+          <t>3.082,64</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>7.060,00</t>
+          <t>3.730,00</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr">
@@ -15843,7 +15847,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">38JY </t>
+          <t xml:space="preserve">60GZ </t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -15853,36 +15857,36 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMAQ0001 </t>
+          <t xml:space="preserve">076625286228 </t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
+          <t>Queso Mozzarella 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
+          <t>Queso Mozzarella 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Quinoa blanca, un grano nutritivo y versátil, rico en proteínas y fibra, ideal para ensaladas y guisos.</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
-        </is>
-      </c>
+          <t>Mozzarella VEGANA, ideal para pizzas, lasañas y ensaladas, con una textura suave y cremosa.</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Cereales y Legumbres</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr"/>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Veganos</t>
+        </is>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -15895,34 +15899,34 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>9.860,00</t>
+          <t>3.530,00</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>12.644,63</t>
+          <t>5.834,71</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>15.300,00</t>
+          <t>7.060,00</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>28,24</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">44JR </t>
+          <t xml:space="preserve">38JY </t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -15932,22 +15936,22 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve">sumaq0002 </t>
+          <t xml:space="preserve">SUMAQ0001 </t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  1kg SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Quinoa blanca en menor cantidad, perfecta para quienes buscan un alimento saludable y fácil de preparar.</t>
+          <t>Quinoa blanca, un grano nutritivo y versátil, rico en proteínas y fibra, ideal para ensaladas y guisos.</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -15979,29 +15983,29 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>5.050,00</t>
+          <t>9.860,00</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>6.694,21</t>
+          <t>12.644,63</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>8.100,00</t>
+          <t>15.300,00</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>32,56</t>
+          <t>28,24</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">66QC </t>
+          <t xml:space="preserve">44JR </t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -16011,22 +16015,22 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve">sumaq0003 </t>
+          <t xml:space="preserve">sumaq0002 </t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
+          <t>Quinoa blanca  500 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Quinoa blanca, ideal para preparar porciones pequeñas, rica en nutrientes y fácil de cocinar.</t>
+          <t>Quinoa blanca en menor cantidad, perfecta para quienes buscan un alimento saludable y fácil de preparar.</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -16058,29 +16062,29 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2.600,00</t>
+          <t>5.050,00</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>3.438,02</t>
+          <t>6.694,21</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>4.160,00</t>
+          <t>8.100,00</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>32,23</t>
+          <t>32,56</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">91NW </t>
+          <t xml:space="preserve">66QC </t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -16090,33 +16094,33 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve">7790495003404 </t>
+          <t xml:space="preserve">sumaq0003 </t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Quinoa POP 80g ying yang</t>
+          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Quinoa POP 80g ying yang</t>
+          <t>Quinoa blanca 250 grs SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Quinoa inflada, un snack ligero y crujiente, ideal para añadir a yogures o como topping.</t>
+          <t>Quinoa blanca, ideal para preparar porciones pequeñas, rica en nutrientes y fácil de cocinar.</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>yin yang (dietetica cientifica)</t>
+          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
         </is>
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Snack</t>
+          <t>Cereales y Legumbres</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -16132,34 +16136,34 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>440,00</t>
+          <t>2.600,00</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>1.074,38</t>
+          <t>3.438,02</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>1.300,00</t>
+          <t>4.160,00</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>144,18</t>
+          <t>32,23</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">66MS </t>
+          <t xml:space="preserve">91NW </t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -16169,40 +16173,36 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACROZEN </t>
+          <t xml:space="preserve">7790495003404 </t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Sal marina fina Macrozen 500 gr</t>
+          <t>Quinoa POP 80g ying yang</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sal marina fina Macrozen 500 gr</t>
+          <t>Quinoa POP 80g ying yang</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Sal marina fina, ideal para sazonar platos y realzar sabores, sin aditivos.</t>
+          <t>Quinoa inflada, un snack ligero y crujiente, ideal para añadir a yogures o como topping.</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Eco Tierra</t>
+          <t>yin yang (dietetica cientifica)</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Sales y Condimentos</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
+          <t>Snack</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -16215,34 +16215,34 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>21/11/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>1.250,00</t>
+          <t>440,00</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>1.652,89</t>
+          <t>1.074,38</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>1.300,00</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>32,23</t>
+          <t>144,18</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve">59VE </t>
+          <t xml:space="preserve">66MS </t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -16252,25 +16252,29 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACROZEN1 </t>
+          <t xml:space="preserve">MACROZEN </t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Sal marina gruesa Macrozen 500 gr</t>
+          <t>Sal marina fina Macrozen 500 gr</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Sal marina gruesa Macrozen 500 gr</t>
+          <t>Sal marina fina Macrozen 500 gr</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Sal marina gruesa, perfecta para cocinar y sazonar, ideal para platos que requieren un toque de sal.</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr"/>
+          <t>Sal marina fina, ideal para sazonar platos y realzar sabores, sin aditivos.</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Eco Tierra</t>
+        </is>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
@@ -16321,7 +16325,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">90FK </t>
+          <t xml:space="preserve">59VE </t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -16331,22 +16335,22 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320056 </t>
+          <t xml:space="preserve">MACROZEN1 </t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 250g LIBERATO</t>
+          <t>Sal marina gruesa Macrozen 500 gr</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 250g LIBERATO</t>
+          <t>Sal marina gruesa Macrozen 500 gr</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Sal marina yodada, ideal para sazonar comidas, enriquecida con yodo para una dieta equilibrada.</t>
+          <t>Sal marina gruesa, perfecta para cocinar y sazonar, ideal para platos que requieren un toque de sal.</t>
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
@@ -16373,34 +16377,34 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>1.500,00</t>
+          <t>1.250,00</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2.809,92</t>
+          <t>1.652,89</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>3.400,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>87,33</t>
+          <t>32,23</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">39IK </t>
+          <t xml:space="preserve">90FK </t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -16410,22 +16414,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320520 </t>
+          <t xml:space="preserve">7798168320056 </t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 250g LIBERATO</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Sal marina yodada entrefina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 250g LIBERATO</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Sal marina yodada en mayor cantidad, perfecta para uso diario en la cocina.</t>
+          <t>Sal marina yodada, ideal para sazonar comidas, enriquecida con yodo para una dieta equilibrada.</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -16457,29 +16461,29 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>1.390,00</t>
+          <t>1.500,00</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2.644,63</t>
+          <t>2.809,92</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>3.200,00</t>
+          <t>3.400,00</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>90,26</t>
+          <t>87,33</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">28QJ </t>
+          <t xml:space="preserve">39IK </t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -16489,22 +16493,22 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320063 </t>
+          <t xml:space="preserve">7798168320520 </t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Sal marina yodada fina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 500g LIBERATO</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Sal marina yodada fina 500g LIBERATO</t>
+          <t>Sal marina yodada entrefina 500g LIBERATO</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Sal marina yodada fina, ideal para aderezar y sazonar, con un sabor puro y natural.</t>
+          <t>Sal marina yodada en mayor cantidad, perfecta para uso diario en la cocina.</t>
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
@@ -16558,7 +16562,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">48KK </t>
+          <t xml:space="preserve">28QJ </t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -16568,22 +16572,22 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798168320070 </t>
+          <t xml:space="preserve">7798168320063 </t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Sal marina yodada gruesa 500g LIBERATO</t>
+          <t>Sal marina yodada fina 500g LIBERATO</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sal marina yodada gruesa 500g LIBERATO</t>
+          <t>Sal marina yodada fina 500g LIBERATO</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Sal marina yodada gruesa, ideal para cocinar y sazonar, con un sabor intenso.</t>
+          <t>Sal marina yodada fina, ideal para aderezar y sazonar, con un sabor puro y natural.</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
@@ -16637,7 +16641,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">99YQ </t>
+          <t xml:space="preserve">48KK </t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -16647,29 +16651,25 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALROSA0001 </t>
+          <t xml:space="preserve">7798168320070 </t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya fina organica 500 gr</t>
+          <t>Sal marina yodada gruesa 500g LIBERATO</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya fina organica 500 gr</t>
+          <t>Sal marina yodada gruesa 500g LIBERATO</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya, rica en minerales, ideal para sazonar y dar un toque especial a tus platos.</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>Sol 7 -Pablo-</t>
-        </is>
-      </c>
+          <t>Sal marina yodada gruesa, ideal para cocinar y sazonar, con un sabor intenso.</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -16698,29 +16698,29 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2.600,00</t>
+          <t>1.390,00</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>3.710,41</t>
+          <t>2.644,63</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>4.100,00</t>
+          <t>3.200,00</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>42,71</t>
+          <t>90,26</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">46NH </t>
+          <t xml:space="preserve">99YQ </t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -16730,22 +16730,22 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALROSA0002 </t>
+          <t xml:space="preserve">SALROSA0001 </t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sal rosada del Himalaya gruesa organica 500 </t>
+          <t>Sal rosada del Himalaya fina organica 500 gr</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya gruesa organica 500 gr</t>
+          <t>Sal rosada del Himalaya fina organica 500 gr</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Sal rosada gruesa, perfecta para usar en molinillos o como sal de mesa, con un sabor único.</t>
+          <t>Sal rosada del Himalaya, rica en minerales, ideal para sazonar y dar un toque especial a tus platos.</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -16766,7 +16766,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -16786,7 +16786,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>3.388,43</t>
+          <t>3.710,41</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
@@ -16796,14 +16796,14 @@
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>30,32</t>
+          <t>42,71</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">61BI </t>
+          <t xml:space="preserve">46NH </t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -16813,22 +16813,22 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALROSA0003 </t>
+          <t xml:space="preserve">SALROSA0002 </t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sal rosada del Himalaya hierbas organica 500 </t>
+          <t xml:space="preserve">Sal rosada del Himalaya gruesa organica 500 </t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sal rosada del Himalaya hierbas organica 500 gr</t>
+          <t>Sal rosada del Himalaya gruesa organica 500 gr</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Sal rosada con hierbas, ideal para sazonar platos y dar un toque aromático.</t>
+          <t>Sal rosada gruesa, perfecta para usar en molinillos o como sal de mesa, con un sabor único.</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -16886,7 +16886,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">96ZZ </t>
+          <t xml:space="preserve">61BI </t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -16896,36 +16896,40 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve">002320 </t>
+          <t xml:space="preserve">SALROSA0003 </t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
+          <t xml:space="preserve">Sal rosada del Himalaya hierbas organica 500 </t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
+          <t>Sal rosada del Himalaya hierbas organica 500 gr</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Salsa de soja Shoyu, ideal para aderezar platos asiáticos y dar un sabor umami.</t>
+          <t>Sal rosada con hierbas, ideal para sazonar platos y dar un toque aromático.</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Tofu Mei</t>
+          <t>Sol 7 -Pablo-</t>
         </is>
       </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr"/>
+          <t>Sales y Condimentos</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -16938,34 +16942,34 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>2.600,00</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>9.008,26</t>
+          <t>3.388,43</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>10.900,00</t>
+          <t>4.100,00</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>32,47</t>
+          <t>30,32</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">31PU </t>
+          <t xml:space="preserve">96ZZ </t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -16975,36 +16979,36 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798429310116 </t>
+          <t xml:space="preserve">002320 </t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Salsa de tomate hecha pomarola 500cc FINCA P</t>
+          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Salsa de tomate hecha pomarola 500cc FINCA PARU</t>
+          <t>Salsa de Soja Shoyu MOA / MEI 0,5 lt</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Producto de la agricultura organica, libre de gluten</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr"/>
+          <t>Salsa de soja Shoyu, ideal para aderezar platos asiáticos y dar un sabor umami.</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Tofu Mei</t>
+        </is>
+      </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17017,34 +17021,34 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2.560,00</t>
+          <t>6.800,00</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>3.842,98</t>
+          <t>9.008,26</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>4.650,00</t>
+          <t>10.900,00</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>50,12</t>
+          <t>32,47</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">30UB </t>
+          <t xml:space="preserve">31PU </t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -17054,29 +17058,25 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791045511912 </t>
+          <t xml:space="preserve">7798429310116 </t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
+          <t>Salsa de tomate hecha pomarola 500cc FINCA P</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
+          <t>Salsa de tomate hecha pomarola 500cc FINCA PARU</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Salsa de tomate ORGANICA, ideal para preparar pastas, guisos y pizzas, con un sabor casero.</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>Hecho en Argentina</t>
-        </is>
-      </c>
+          <t>Producto de la agricultura organica, libre de gluten</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
@@ -17105,29 +17105,29 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>3.910,00</t>
+          <t>2.560,00</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>5.785,12</t>
+          <t>3.842,98</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>7.000,00</t>
+          <t>4.650,00</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>47,96</t>
+          <t>50,12</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">52HO </t>
+          <t xml:space="preserve">30UB </t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -17137,32 +17137,40 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel18 </t>
+          <t xml:space="preserve">7791045511912 </t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Semillas de Chia 100grs</t>
+          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Semillas de Chia 100grs</t>
+          <t>Salsa Tomates SAN NICOLAS 950 cc</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Semillas de chía, ricas en omega-3 y fibra, perfectas para añadir a batidos y yogures.</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr"/>
+          <t>Salsa de tomate ORGANICA, ideal para preparar pastas, guisos y pizzas, con un sabor casero.</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Hecho en Argentina</t>
+        </is>
+      </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr"/>
+          <t>Aceites y Conservas</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Conservas</t>
+        </is>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17175,34 +17183,34 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>350,00</t>
+          <t>3.910,00</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>578,51</t>
+          <t>5.785,12</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>700,00</t>
+          <t>7.000,00</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>47,96</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">16VW </t>
+          <t xml:space="preserve">52HO </t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -17212,22 +17220,22 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel17 </t>
+          <t xml:space="preserve">Granel18 </t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Semillas de Lino 100grs</t>
+          <t>Semillas de Chia 100grs</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Semillas de Lino 100grs</t>
+          <t>Semillas de Chia 100grs</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Semillas de lino, ricas en ácidos grasos omega-3, ideales para añadir a cereales y batidos.</t>
+          <t>Semillas de chía, ricas en omega-3 y fibra, perfectas para añadir a batidos y yogures.</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -17255,29 +17263,29 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>100,00</t>
+          <t>350,00</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>330,58</t>
+          <t>578,51</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>400,00</t>
+          <t>700,00</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>230,58</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">11CU </t>
+          <t xml:space="preserve">16VW </t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -17287,22 +17295,22 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel19 </t>
+          <t xml:space="preserve">Granel17 </t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Semillas de Sesamo 100grs</t>
+          <t>Semillas de Lino 100grs</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Semillas de Sesamo 100grs</t>
+          <t>Semillas de Lino 100grs</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Semillas de sésamo, ricas en nutrientes, perfectas para añadir a ensaladas y repostería.</t>
+          <t>Semillas de lino, ricas en ácidos grasos omega-3, ideales para añadir a cereales y batidos.</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
@@ -17330,29 +17338,29 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>290,00</t>
+          <t>100,00</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>479,34</t>
+          <t>330,58</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>580,00</t>
+          <t>400,00</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>230,58</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">74UK </t>
+          <t xml:space="preserve">11CU </t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -17362,22 +17370,22 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Granel20 </t>
+          <t xml:space="preserve">Granel19 </t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Semillas de Zapallo 100grs</t>
+          <t>Semillas de Sesamo 100grs</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Semillas de Zapallo 100grs</t>
+          <t>Semillas de Sesamo 100grs</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Semillas de zapallo, ricas en proteínas y minerales, ideales como snack o en ensaladas.</t>
+          <t>Semillas de sésamo, ricas en nutrientes, perfectas para añadir a ensaladas y repostería.</t>
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
@@ -17405,17 +17413,17 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>910,00</t>
+          <t>290,00</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>1.504,13</t>
+          <t>479,34</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>1.820,00</t>
+          <t>580,00</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
@@ -17427,7 +17435,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">62BB </t>
+          <t xml:space="preserve">74UK </t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -17437,36 +17445,32 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798028624010 </t>
+          <t xml:space="preserve">Granel20 </t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Shampoo Avena y keratina x 300 cc OMS</t>
+          <t>Semillas de Zapallo 100grs</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Shampoo Avena y keratina x 300 cc OMS</t>
+          <t>Semillas de Zapallo 100grs</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Ideal para nutrir en profundidad cabellos secos, quebradizos, dañados por agentes externos y sin brillo.</t>
+          <t>Semillas de zapallo, ricas en proteínas y minerales, ideales como snack o en ensaladas.</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Cosmetica natural</t>
-        </is>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Shampoos y Acondicionadores</t>
-        </is>
-      </c>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17484,17 +17488,17 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>7.750,00</t>
+          <t>910,00</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>12.809,92</t>
+          <t>1.504,13</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>15.500,00</t>
+          <t>1.820,00</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
@@ -17506,7 +17510,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">25HZ </t>
+          <t xml:space="preserve">62BB </t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -17516,22 +17520,22 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795399902297 </t>
+          <t xml:space="preserve">7798028624010 </t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
+          <t>Shampoo Avena y keratina x 300 cc OMS</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
+          <t>Shampoo Avena y keratina x 300 cc OMS</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Shampoo para cabellos normales. A base de derivados de coco, contiene vitamina E. Es humectante, contiene antioxidantes y otorga un brillo especial al cabello.</t>
+          <t>Ideal para nutrir en profundidad cabellos secos, quebradizos, dañados por agentes externos y sin brillo.</t>
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
@@ -17563,29 +17567,29 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2.900,00</t>
+          <t>7.750,00</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>5.619,83</t>
+          <t>12.809,92</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>15.500,00</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>93,79</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">23DF </t>
+          <t xml:space="preserve">25HZ </t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -17595,22 +17599,22 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795399902327 </t>
+          <t xml:space="preserve">7795399902297 </t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
+          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
+          <t>Shampoo solido Samu 70 gr coco y bergamota</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Shampoo, a base de derivados de coco, contiene vitamina E. Gracias a los actvivos de aloe vera y limon, es antioxidante, reduce la grasitud del cabello y combate la caspa</t>
+          <t>Shampoo para cabellos normales. A base de derivados de coco, contiene vitamina E. Es humectante, contiene antioxidantes y otorga un brillo especial al cabello.</t>
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
@@ -17664,7 +17668,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">85DD </t>
+          <t xml:space="preserve">23DF </t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -17674,23 +17678,22 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795399902310 </t>
+          <t xml:space="preserve">7795399902327 </t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
+          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
+          <t>Shampoo solido Samu 70 gr limon y aloe vera</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shampoo a base de deriados del coco, contiene vitamina E. Especial para evitar la caida del cabello.
-</t>
+          <t>Shampoo, a base de derivados de coco, contiene vitamina E. Gracias a los actvivos de aloe vera y limon, es antioxidante, reduce la grasitud del cabello y combate la caspa</t>
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
@@ -17744,7 +17747,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">85PW </t>
+          <t xml:space="preserve">85DD </t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -17754,32 +17757,37 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colonial1 </t>
+          <t xml:space="preserve">7795399902310 </t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tableta chocolate 70% colonial 150g suelto</t>
+          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Tableta chocolate 70% colonial 150g suelto</t>
+          <t>Shampoo solido Samu coco romero jarilla 70 gr</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Tableta de Chocolate amargo 70% primera calidad</t>
+          <t xml:space="preserve">Shampoo a base de deriados del coco, contiene vitamina E. Especial para evitar la caida del cabello.
+</t>
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr"/>
+          <t>Cosmetica natural</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Shampoos y Acondicionadores</t>
+        </is>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17792,34 +17800,34 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2.900,00</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>6.115,70</t>
+          <t>5.619,83</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>7.400,00</t>
+          <t>6.800,00</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>93,79</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">39BS </t>
+          <t xml:space="preserve">85PW </t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -17829,40 +17837,32 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t xml:space="preserve">453678947321 </t>
+          <t xml:space="preserve">Colonial1 </t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tahini 330grs mediano oh yeah</t>
+          <t>Tableta chocolate 70% colonial 150g suelto</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Tahini 330grs mediano oh yeah</t>
+          <t>Tableta chocolate 70% colonial 150g suelto</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t xml:space="preserve">El tahini es una pasta cremosa elaborada a partir de semillas de sésamo molidas. Es un ingrediente esencial en la cocina de Oriente Medio y el Mediterráneo, y se utiliza para dar sabor y consistencia a platos como el hummus y el baba ganoush. Tiene un sabor a nuez, a veces con un ligero amargor, y es rico en proteínas y grasas saludables. </t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>Oh Yeah It's Vegan!</t>
-        </is>
-      </c>
+          <t>Tableta de Chocolate amargo 70% primera calidad</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
-        </is>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Conservas</t>
-        </is>
-      </c>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -17875,34 +17875,34 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>6.100,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>9.008,26</t>
+          <t>6.115,70</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>10.900,00</t>
+          <t>7.400,00</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>47,68</t>
+          <t>0,00</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">30WW </t>
+          <t xml:space="preserve">39BS </t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -17912,38 +17912,38 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve">002479 </t>
+          <t xml:space="preserve">453678947321 </t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Te de burro (Burrito) PLUT 50g</t>
+          <t>Tahini 330grs mediano oh yeah</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Te de burro (Burrito) PLUT 50g</t>
+          <t>Tahini 330grs mediano oh yeah</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Hierba de burro, utilizada en infusiones, con propiedades digestivas y un sabor suave.</t>
+          <t xml:space="preserve">El tahini es una pasta cremosa elaborada a partir de semillas de sésamo molidas. Es un ingrediente esencial en la cocina de Oriente Medio y el Mediterráneo, y se utiliza para dar sabor y consistencia a platos como el hummus y el baba ganoush. Tiene un sabor a nuez, a veces con un ligero amargor, y es rico en proteínas y grasas saludables. </t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Yuyos Andy</t>
+          <t>Oh Yeah It's Vegan!</t>
         </is>
       </c>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Infusiones</t>
+          <t>Aceites y Conservas</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Yuyos</t>
+          <t>Conservas</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -17958,34 +17958,34 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>1.726,00</t>
+          <t>6.100,00</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2.859,50</t>
+          <t>9.008,26</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>3.460,00</t>
+          <t>10.900,00</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>65,67</t>
+          <t>47,68</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">56PV </t>
+          <t xml:space="preserve">30WW </t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -17995,43 +17995,43 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOFUMEI0001 </t>
+          <t xml:space="preserve">002479 </t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Tofu ARTESANAL MEI 500g</t>
+          <t>Te de burro (Burrito) PLUT 50g</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Tofu ARTESANAL MEI 500g</t>
+          <t>Te de burro (Burrito) PLUT 50g</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Tofu artesanal, una excelente fuente de proteínas vegetales, ideal para salteados y ensaladas.</t>
+          <t>Hierba de burro, utilizada en infusiones, con propiedades digestivas y un sabor suave.</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Tofu Mei</t>
+          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Yuyos</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -18041,34 +18041,34 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>5.800,00</t>
+          <t>1.726,00</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>8.325,79</t>
+          <t>2.859,50</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>9.200,00</t>
+          <t>3.460,00</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>43,55</t>
+          <t>65,67</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">82LS </t>
+          <t xml:space="preserve">56PV </t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -18078,27 +18078,27 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798383880014 </t>
+          <t xml:space="preserve">TOFUMEI0001 </t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tofu organico Soyana 350 grs</t>
+          <t>Tofu ARTESANAL MEI 500g</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Tofu organico Soyana 350 grs</t>
+          <t>Tofu ARTESANAL MEI 500g</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Tofu orgánico, rico en proteínas, ideal para preparar platos vegetarianos y veganos.</t>
+          <t>Tofu artesanal, una excelente fuente de proteínas vegetales, ideal para salteados y ensaladas.</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Soyana</t>
+          <t>Tofu Mei</t>
         </is>
       </c>
       <c r="H221" t="inlineStr"/>
@@ -18124,34 +18124,34 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>4.120,00</t>
+          <t>5.800,00</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>6.787,33</t>
+          <t>8.325,79</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>7.500,00</t>
+          <t>9.200,00</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>64,74</t>
+          <t>43,55</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">89LL </t>
+          <t xml:space="preserve">82LS </t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -18161,43 +18161,43 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve">7788465825354 </t>
+          <t xml:space="preserve">7798383880014 </t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Tomate triturado SAPIENZA 1Lt</t>
+          <t>Tofu organico Soyana 350 grs</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Tomate triturado SAPIENZA 1Lt</t>
+          <t>Tofu organico Soyana 350 grs</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Tomate 100%  triturado natural, ideal para salsas y guisos, con un sabor fresco y natural.</t>
+          <t>Tofu orgánico, rico en proteínas, ideal para preparar platos vegetarianos y veganos.</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+          <t>Soyana</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Refrigerados</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Conservas</t>
+          <t>Veganos</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -18207,34 +18207,34 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>03/09/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2.925,00</t>
+          <t>4.120,00</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>4.380,17</t>
+          <t>6.787,33</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>5.300,00</t>
+          <t>7.500,00</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>49,75</t>
+          <t>64,74</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve">10PH </t>
+          <t xml:space="preserve">89LL </t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -18244,36 +18244,40 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve">0025881 </t>
+          <t xml:space="preserve">7788465825354 </t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Tomates deshidratados Plutarco x100g</t>
+          <t>Tomate triturado SAPIENZA 1Lt</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Tomates deshidratados Plutarco x100g</t>
+          <t>Tomate triturado SAPIENZA 1Lt</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Tomates deshidratados, secos al sol</t>
+          <t>Tomate 100%  triturado natural, ideal para salsas y guisos, con un sabor fresco y natural.</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr"/>
+          <t>Aceites y Conservas</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Conservas</t>
+        </is>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -18286,231 +18290,231 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>03/09/2025</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>528,00</t>
+          <t>2.925,00</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>872,73</t>
+          <t>4.380,17</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>1.056,00</t>
+          <t>5.300,00</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>49,75</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
+          <t xml:space="preserve">10PH </t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0025881 </t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Tomates deshidratados Plutarco x100g</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Tomates deshidratados Plutarco x100g</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Tomates deshidratados, secos al sol</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>528,00</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>872,73</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>1.056,00</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
           <t xml:space="preserve">88OL </t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
+      <c r="B225" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
         <is>
           <t xml:space="preserve">0720665957210 </t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="D225" t="inlineStr">
         <is>
           <t>TOQUES GARBANZOS CASA VEGANA x420g</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>TOQUES GARBANZOS CASA VEGANA x420g</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>Toques de Garbanzos marca CASA VEGANA
 Veganos y Muy Nutritivos.</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr">
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
         <is>
           <t>Congelados</t>
         </is>
       </c>
-      <c r="J224" t="inlineStr">
+      <c r="J225" t="inlineStr">
         <is>
           <t>Veganos</t>
         </is>
       </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M224" t="inlineStr">
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
         <is>
           <t>15/08/2025</t>
         </is>
       </c>
-      <c r="N224" t="inlineStr">
+      <c r="N225" t="inlineStr">
         <is>
           <t>3.200,00</t>
         </is>
       </c>
-      <c r="O224" t="inlineStr">
+      <c r="O225" t="inlineStr">
         <is>
           <t>4.876,03</t>
         </is>
       </c>
-      <c r="P224" t="inlineStr">
+      <c r="P225" t="inlineStr">
         <is>
           <t>5.900,00</t>
         </is>
       </c>
-      <c r="Q224" t="inlineStr">
+      <c r="Q225" t="inlineStr">
         <is>
           <t>52,38</t>
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t xml:space="preserve">60JI </t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
+      <c r="B226" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0016 </t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="D226" t="inlineStr">
         <is>
           <t>Torta Galesa Plutarco</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>Torta Galesa Plutarco</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F226" t="inlineStr">
         <is>
           <t>Torta galesa super humeda, sabrosa y contundente
 Elaborada a base de harina 100% integral, cacao, mix de especias y nueces.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M225" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N225" t="inlineStr">
-        <is>
-          <t>6.333,33</t>
-        </is>
-      </c>
-      <c r="O225" t="inlineStr">
-        <is>
-          <t>8.597,29</t>
-        </is>
-      </c>
-      <c r="P225" t="inlineStr">
-        <is>
-          <t>9.500,00</t>
-        </is>
-      </c>
-      <c r="Q225" t="inlineStr">
-        <is>
-          <t>35,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t xml:space="preserve">88SH </t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0PUROM </t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Tortillas PURO MAIZ (GRANDES)</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Tortillas PURO MAIZ (GRANDES)</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Tortillas de maíz grandes, perfectas para hacer tacos, burritos o wraps, con un sabor auténtico.</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>Puro Maiz</t>
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Panificados Integrales</t>
         </is>
       </c>
       <c r="J226" t="inlineStr"/>
@@ -18526,34 +18530,34 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>29/08/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>5.400,00</t>
+          <t>6.333,33</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>7.239,82</t>
+          <t>8.597,29</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>8.000,00</t>
+          <t>9.500,00</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>34,07</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t xml:space="preserve">60SC </t>
+          <t xml:space="preserve">88SH </t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -18563,35 +18567,39 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131061467 </t>
+          <t xml:space="preserve">0PUROM </t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
+          <t>Tortillas PURO MAIZ (GRANDES)</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr"/>
+          <t>Tortillas PURO MAIZ (GRANDES)</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Tortillas de maíz grandes, perfectas para hacer tacos, burritos o wraps, con un sabor auténtico.</t>
+        </is>
+      </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Green &amp; CO</t>
+          <t>Puro Maiz</t>
         </is>
       </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Refrigerados</t>
         </is>
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -18601,17 +18609,17 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>29/08/2025</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>4.110,00</t>
+          <t>5.400,00</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>6.611,57</t>
+          <t>7.239,82</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -18621,14 +18629,14 @@
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>60,87</t>
+          <t>34,07</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">92LN </t>
+          <t xml:space="preserve">60SC </t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -18638,25 +18646,25 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t xml:space="preserve">458448 </t>
+          <t xml:space="preserve">7798131061467 </t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO</t>
+          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO NATURE</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Vinagre de sidra de manzana, ideal para aderezos y marinados, con propiedades digestivas.</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr"/>
+          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
@@ -18676,34 +18684,34 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>6.900,00</t>
+          <t>4.110,00</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>9.504,13</t>
+          <t>6.611,57</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>11.500,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>60,87</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t xml:space="preserve">99II </t>
+          <t xml:space="preserve">92LN </t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -18713,22 +18721,22 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve">236262 </t>
+          <t xml:space="preserve">458448 </t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO</t>
+          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO NATURE</t>
+          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO NATURE</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Vinagre de sidra de manzana en mayor cantidad, ideal para aderezos, marinados y como tónico natural.</t>
+          <t>Vinagre de sidra de manzana, ideal para aderezos y marinados, con propiedades digestivas.</t>
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
@@ -18756,29 +18764,29 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>7.900,00</t>
+          <t>6.900,00</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>11.487,60</t>
+          <t>9.504,13</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>13.900,00</t>
+          <t>11.500,00</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>45,41</t>
+          <t>37,74</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">62BS </t>
+          <t xml:space="preserve">99II </t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -18788,22 +18796,22 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t xml:space="preserve">9465832156492 </t>
+          <t xml:space="preserve">236262 </t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
+          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
+          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO NATURE</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Vinagre vegano, ideal para aderezar ensaladas y dar un toque ácido a tus platos.</t>
+          <t>Vinagre de sidra de manzana en mayor cantidad, ideal para aderezos, marinados y como tónico natural.</t>
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
@@ -18826,34 +18834,34 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>4.200,00</t>
+          <t>7.900,00</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>6.347,11</t>
+          <t>11.487,60</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>7.680,00</t>
+          <t>13.900,00</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>51,12</t>
+          <t>45,41</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">38OL </t>
+          <t xml:space="preserve">62BS </t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -18863,29 +18871,25 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve">946583215647 </t>
+          <t xml:space="preserve">9465832156492 </t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
+          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
+          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Vinagre vegano en mayor cantidad, perfecto para quienes buscan un aderezo saludable y natural.</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>Oh Yeah It's Vegan!</t>
-        </is>
-      </c>
+          <t>Vinagre vegano, ideal para aderezar ensaladas y dar un toque ácido a tus platos.</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
@@ -18910,29 +18914,29 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>7.900,00</t>
+          <t>4.200,00</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>11.528,93</t>
+          <t>6.347,11</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>13.950,00</t>
+          <t>7.680,00</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>45,94</t>
+          <t>51,12</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">98CK </t>
+          <t xml:space="preserve">38OL </t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -18942,33 +18946,33 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131680149 </t>
+          <t xml:space="preserve">946583215647 </t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin Malbec Roble</t>
+          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin Malbec Roble</t>
+          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color rojo ciruela con reflejos violáceos, en nariz se perciben el cassis, ciruela madura, vainilla. </t>
+          <t>Vinagre vegano en mayor cantidad, perfecto para quienes buscan un aderezo saludable y natural.</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Hecho en Argentina</t>
+          <t>Oh Yeah It's Vegan!</t>
         </is>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Aceites y Conservas</t>
         </is>
       </c>
       <c r="J232" t="inlineStr"/>
@@ -18984,34 +18988,34 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>5.790,00</t>
+          <t>7.900,00</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>8.677,69</t>
+          <t>11.528,93</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>10.500,00</t>
+          <t>13.950,00</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>49,87</t>
+          <t>45,94</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">78DC </t>
+          <t xml:space="preserve">98CK </t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -19021,22 +19025,22 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131680194 </t>
+          <t xml:space="preserve">7798131680149 </t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin syrah 750ml</t>
+          <t>Vino organico familia cecchin Malbec Roble</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin syrah 750ml</t>
+          <t>Vino organico familia cecchin Malbec Roble</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oscuro color rojo sangre, su sabor se asocia a especias y su aroma a higos y frutas secas. </t>
+          <t xml:space="preserve">Color rojo ciruela con reflejos violáceos, en nariz se perciben el cassis, ciruela madura, vainilla. </t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -19090,7 +19094,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">41HO </t>
+          <t xml:space="preserve">78DC </t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -19100,22 +19104,22 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131680378 </t>
+          <t xml:space="preserve">7798131680194 </t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Vino picum malbec 750ml</t>
+          <t>Vino organico familia cecchin syrah 750ml</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Vino picum malbec 750ml</t>
+          <t>Vino organico familia cecchin syrah 750ml</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>100% Vino orgánico Malbec. Es un vino rojo, granada. Intenso. Aroma a fresa y cereza. En boca taninos suaves y ductiles, final prolongado.</t>
+          <t xml:space="preserve">Oscuro color rojo sangre, su sabor se asocia a especias y su aroma a higos y frutas secas. </t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -19142,34 +19146,34 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>4.660,00</t>
+          <t>5.790,00</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>6.859,50</t>
+          <t>8.677,69</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>8.300,00</t>
+          <t>10.500,00</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>47,20</t>
+          <t>49,87</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">48OU </t>
+          <t xml:space="preserve">41HO </t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -19179,40 +19183,36 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve">090125151497 </t>
+          <t xml:space="preserve">7798131680378 </t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Yerba Ajedrez 500 gr</t>
+          <t>Vino picum malbec 750ml</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Yerba Ajedrez 500 gr</t>
+          <t>Vino picum malbec 750ml</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Yerba mate Ajedrez, ideal para preparar un buen mate, con un sabor equilibrado y aromático.</t>
+          <t>100% Vino orgánico Malbec. Es un vino rojo, granada. Intenso. Aroma a fresa y cereza. En boca taninos suaves y ductiles, final prolongado.</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+          <t>Hecho en Argentina</t>
         </is>
       </c>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
+          <t>Bebidas</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -19230,29 +19230,29 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2.720,00</t>
+          <t>4.660,00</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>3.595,04</t>
+          <t>6.859,50</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>4.350,00</t>
+          <t>8.300,00</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>32,17</t>
+          <t>47,20</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">91YZ </t>
+          <t xml:space="preserve">48OU </t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -19262,27 +19262,27 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798199890016 </t>
+          <t xml:space="preserve">090125151497 </t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Yerba Arapegua con palo 500g</t>
+          <t>Yerba Ajedrez 500 gr</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Yerba Arapegua con palo 500g</t>
+          <t>Yerba Ajedrez 500 gr</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Yerba mate Arapegua, con palo, ideal para quienes disfrutan de un sabor más suave y tradicional.</t>
+          <t>Yerba mate Ajedrez, ideal para preparar un buen mate, con un sabor equilibrado y aromático.</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Ino (Maelca)</t>
+          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
         </is>
       </c>
       <c r="H236" t="inlineStr"/>
@@ -19308,57 +19308,140 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>4.840,00</t>
+          <t>2.720,00</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>7.231,40</t>
+          <t>3.595,04</t>
         </is>
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>8.750,00</t>
+          <t>4.350,00</t>
         </is>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>49,41</t>
+          <t>32,17</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
+          <t xml:space="preserve">91YZ </t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798199890016 </t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Yerba Arapegua con palo 500g</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Yerba Arapegua con palo 500g</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Yerba mate Arapegua, con palo, ideal para quienes disfrutan de un sabor más suave y tradicional.</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Ino (Maelca)</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>27/08/2025</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>4.840,00</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>7.231,40</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>8.750,00</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>49,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
           <t xml:space="preserve">66FP </t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
+      <c r="B238" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
         <is>
           <t xml:space="preserve">7798151510044 </t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
+      <c r="D238" t="inlineStr">
         <is>
           <t>Yerba Grapia Milenaria 500grs</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>Yerba Grapia Milenaria 500grs</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>Producida por pequeños agricultores que
 trabajan sin agrotóxicos y con respeto
@@ -19368,85 +19451,6 @@
 y es perfecta para compartir en cualquier momento.</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M237" t="inlineStr">
-        <is>
-          <t>30/10/2025</t>
-        </is>
-      </c>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>2.800,00</t>
-        </is>
-      </c>
-      <c r="O237" t="inlineStr">
-        <is>
-          <t>3.719,01</t>
-        </is>
-      </c>
-      <c r="P237" t="inlineStr">
-        <is>
-          <t>4.500,00</t>
-        </is>
-      </c>
-      <c r="Q237" t="inlineStr">
-        <is>
-          <t>32,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15CP </t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200294 </t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>YERBA Jesper con hierbas serranas 500 gr</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>YERBA Jesper con hierbas serranas 500 gr</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>La combinación de la Yerba Mate con Menta, Peperina y Poleo combinan poderosas propiedades de hierbas naturales que favorecen la salud del organismo.</t>
-        </is>
-      </c>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
@@ -19471,12 +19475,12 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2.650,00</t>
+          <t>2.800,00</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -19491,14 +19495,14 @@
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>40,34</t>
+          <t>32,82</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">47GQ </t>
+          <t xml:space="preserve">15CP </t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -19508,29 +19512,25 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798185200478 </t>
+          <t xml:space="preserve">7798185200294 </t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>YERBA Jesper organica con palo 500 gr</t>
+          <t>YERBA Jesper con hierbas serranas 500 gr</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>YERBA Jesper organica con palo 500 gr</t>
+          <t>YERBA Jesper con hierbas serranas 500 gr</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Yerba mate orgánica Jesper, con palo, perfecta para preparar un mate saludable y sabroso.</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>Los Nogales</t>
-        </is>
-      </c>
+          <t>La combinación de la Yerba Mate con Menta, Peperina y Poleo combinan poderosas propiedades de hierbas naturales que favorecen la salud del organismo.</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t xml:space="preserve">74BI </t>
+          <t xml:space="preserve">47GQ </t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -19591,25 +19591,29 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798185200287 </t>
+          <t xml:space="preserve">7798185200478 </t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>YERBA Jesper tradicional 500 gr roja</t>
+          <t>YERBA Jesper organica con palo 500 gr</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>YERBA Jesper tradicional 500 gr roja</t>
+          <t>YERBA Jesper organica con palo 500 gr</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Producto elaborado con palo y resultado de un cuidadoso proceso de estacionamiento natural que permite que sus hojas desarrollen un sabor más equilibrado, sin amargor excesivo.</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr"/>
+          <t>Yerba mate orgánica Jesper, con palo, perfecta para preparar un mate saludable y sabroso.</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
@@ -19660,7 +19664,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t xml:space="preserve">98TJ </t>
+          <t xml:space="preserve">74BI </t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -19670,29 +19674,25 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791312000224 </t>
+          <t xml:space="preserve">7798185200287 </t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>yerba Kalena con palo 500 gr</t>
+          <t>YERBA Jesper tradicional 500 gr roja</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>yerba Kalena con palo 500 gr</t>
+          <t>YERBA Jesper tradicional 500 gr roja</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Yerba mate Kalena, con palo, ideal para quienes buscan un sabor auténtico y tradicional.</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>Los Nogales</t>
-        </is>
-      </c>
+          <t>Producto elaborado con palo y resultado de un cuidadoso proceso de estacionamiento natural que permite que sus hojas desarrollen un sabor más equilibrado, sin amargor excesivo.</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
@@ -19716,34 +19716,34 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>21/11/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>3.210,00</t>
+          <t>2.650,00</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>3.719,01</t>
         </is>
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>4.500,00</t>
         </is>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>28,73</t>
+          <t>40,34</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t xml:space="preserve">69ET </t>
+          <t xml:space="preserve">98TJ </t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -19753,22 +19753,22 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791312000392 </t>
+          <t xml:space="preserve">7791312000224 </t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>yerba Kalena DESPALADA 500 gr</t>
+          <t>yerba Kalena con palo 500 gr</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>yerba Kalena DESPALADA 500 gr</t>
+          <t>yerba Kalena con palo 500 gr</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Yerba mate Kalena despalada, con un sabor más intenso, ideal para los amantes del mate fuerte.</t>
+          <t>Yerba mate Kalena, con palo, ideal para quienes buscan un sabor auténtico y tradicional.</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -19804,29 +19804,29 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>3.850,00</t>
+          <t>3.210,00</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>4.958,68</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>6.000,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>28,80</t>
+          <t>28,73</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t xml:space="preserve">67GY </t>
+          <t xml:space="preserve">69ET </t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -19836,25 +19836,29 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t xml:space="preserve">076625246352 </t>
+          <t xml:space="preserve">7791312000392 </t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Yerba La Buena 1kg</t>
+          <t>yerba Kalena DESPALADA 500 gr</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Yerba La Buena 1kg</t>
+          <t>yerba Kalena DESPALADA 500 gr</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr"/>
+          <t>Yerba mate Kalena despalada, con un sabor más intenso, ideal para los amantes del mate fuerte.</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
@@ -19878,34 +19882,34 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>22/08/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>5.700,00</t>
+          <t>3.850,00</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>7.355,37</t>
+          <t>4.958,68</t>
         </is>
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>8.900,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>29,04</t>
+          <t>28,80</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve">19PM </t>
+          <t xml:space="preserve">67GY </t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -19915,17 +19919,17 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t xml:space="preserve">754697526977 </t>
+          <t xml:space="preserve">076625246352 </t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Yerba La Buena 500 gr</t>
+          <t>Yerba La Buena 1kg</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Yerba La Buena 500 gr</t>
+          <t>Yerba La Buena 1kg</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -19962,29 +19966,29 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>5.700,00</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>7.355,37</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>8.900,00</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>29,04</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t xml:space="preserve">24OB </t>
+          <t xml:space="preserve">19PM </t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -19994,23 +19998,22 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798019800010 </t>
+          <t xml:space="preserve">754697526977 </t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Yerba mate 500g LAS TUNAS</t>
+          <t>Yerba La Buena 500 gr</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Yerba mate 500g LAS TUNAS</t>
+          <t>Yerba La Buena 500 gr</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Elaborada con palo, estacionamiento natural, sin componentes químicos.  Apta Celíacos.
-Producida por La cooperativa Las Tunas, ubicada en Misiones,  recibe anualmente 1 millón 500 mil kilos de hoja verde de sus socios y elabora entre 20 y 25 mil kilos de yerba mate que son comercializados en distintos lugares de la Argentina bajo la modalidad de venta directa, esto es: del productor al consumidor</t>
+          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
         </is>
       </c>
       <c r="G245" t="inlineStr"/>
@@ -20037,57 +20040,137 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>22/08/2025</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2.050,00</t>
+          <t>3.000,00</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>3.388,43</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>4.100,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>37,74</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
+          <t xml:space="preserve">24OB </t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798019800010 </t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Yerba mate 500g LAS TUNAS</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Yerba mate 500g LAS TUNAS</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Elaborada con palo, estacionamiento natural, sin componentes químicos.  Apta Celíacos.
+Producida por La cooperativa Las Tunas, ubicada en Misiones,  recibe anualmente 1 millón 500 mil kilos de hoja verde de sus socios y elabora entre 20 y 25 mil kilos de yerba mate que son comercializados en distintos lugares de la Argentina bajo la modalidad de venta directa, esto es: del productor al consumidor</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>2.050,00</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>3.388,43</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>4.100,00</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
           <t xml:space="preserve">87DC </t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
+      <c r="B247" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
         <is>
           <t xml:space="preserve">7798146780018 </t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
+      <c r="D247" t="inlineStr">
         <is>
           <t>Yerba Mate Legado 500g</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>Yerba Mate Legado 500g</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="F247" t="inlineStr">
         <is>
           <t xml:space="preserve">Es un producto orgánico, sin aditivos químicos y cultivado en yerbales orgánicos, lleva el sello de certificación OIA de la empresa certificadora "Organización Internacional Agropecuaria" de Buenos Aires.
 Se extraen principalmente hojas maduras con ramas que luego se seleccionan enviando al “secadero” las de pequeño diámetro y descartando las de mayor grosor. Este proceso se denomina “quiebra” 
@@ -20095,90 +20178,7 @@
 </t>
         </is>
       </c>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M246" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N246" t="inlineStr">
-        <is>
-          <t>2.300,00</t>
-        </is>
-      </c>
-      <c r="O246" t="inlineStr">
-        <is>
-          <t>3.057,85</t>
-        </is>
-      </c>
-      <c r="P246" t="inlineStr">
-        <is>
-          <t>3.700,00</t>
-        </is>
-      </c>
-      <c r="Q246" t="inlineStr">
-        <is>
-          <t>32,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t xml:space="preserve">78TZ </t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200041 </t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Yerba Roapipo suave 500g</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Yerba Roapipo suave 500g</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Yerba mate Roapipo, suave y aromática, perfecta para quienes buscan un mate ligero.</t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>Eco Tierra</t>
-        </is>
-      </c>
+      <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
@@ -20207,29 +20207,29 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2.710,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>3.057,85</t>
         </is>
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>3.700,00</t>
         </is>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>52,48</t>
+          <t>32,95</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t xml:space="preserve">58DG </t>
+          <t xml:space="preserve">78TZ </t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -20239,25 +20239,29 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798140140023 </t>
+          <t xml:space="preserve">7798185200041 </t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Yerba TITRAYJU 500g</t>
+          <t>Yerba Roapipo suave 500g</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Yerba TITRAYJU 500g</t>
+          <t>Yerba Roapipo suave 500g</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Yerba mate Titrayju, con un sabor fuerte y característico, ideal para los amantes del mate intenso.</t>
-        </is>
-      </c>
-      <c r="G248" t="inlineStr"/>
+          <t>Yerba mate Roapipo, suave y aromática, perfecta para quienes buscan un mate ligero.</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Eco Tierra</t>
+        </is>
+      </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
@@ -20281,34 +20285,34 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>3.900,00</t>
+          <t>2.710,00</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>5.123,97</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>31,38</t>
+          <t>52,48</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t xml:space="preserve">51OP </t>
+          <t xml:space="preserve">58DG </t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -20318,22 +20322,22 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795568960271 </t>
+          <t xml:space="preserve">7798140140023 </t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Yerba Tucangua 500grs</t>
+          <t>Yerba TITRAYJU 500g</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Yerba Tucangua 500grs</t>
+          <t>Yerba TITRAYJU 500g</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Esta yerba tiene un perfil de sabor suave y sin notas amargas, a diferencia de otras yerbas. Se seca de manera natural y se añeja, y es 100% orgánica</t>
+          <t>Yerba mate Titrayju, con un sabor fuerte y característico, ideal para los amantes del mate intenso.</t>
         </is>
       </c>
       <c r="G249" t="inlineStr"/>
@@ -20360,34 +20364,34 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>21/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>3.050,00</t>
+          <t>3.900,00</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>5.123,97</t>
         </is>
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>35,48</t>
+          <t>31,38</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t xml:space="preserve">15ZF </t>
+          <t xml:space="preserve">51OP </t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -20397,43 +20401,39 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480309 </t>
+          <t xml:space="preserve">7795568960271 </t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Yogurth bebible F, bosque 500cm3 La Choza (N</t>
+          <t>Yerba Tucangua 500grs</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Yogurth bebible F, bosque 500cm3 La Choza (NO incluye el envase)</t>
+          <t>Yerba Tucangua 500grs</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Yogurth bebible de sabor bosque, cremoso y nutritivo, ideal para un snack saludable.</t>
-        </is>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>La Choza</t>
-        </is>
-      </c>
+          <t>Esta yerba tiene un perfil de sabor suave y sin notas amargas, a diferencia de otras yerbas. Se seca de manera natural y se añeja, y es 100% orgánica</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr"/>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Yerba Mate</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -20443,34 +20443,34 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>4.150,00</t>
+          <t>3.050,00</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>5.248,87</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P250" t="inlineStr">
         <is>
-          <t>5.800,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>26,48</t>
+          <t>35,48</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t xml:space="preserve">20YC </t>
+          <t xml:space="preserve">15ZF </t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -20480,22 +20480,22 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480071 </t>
+          <t xml:space="preserve">7798328480309 </t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 1LT La Choza (NO in</t>
+          <t>Yogurth bebible F, bosque 500cm3 La Choza (N</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 1LT La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible F, bosque 500cm3 La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutilla, delicioso y refrescante, perfecto para disfrutar en cualquier momento.</t>
+          <t>Yogurth bebible de sabor bosque, cremoso y nutritivo, ideal para un snack saludable.</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -20531,29 +20531,29 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>6.640,00</t>
+          <t>4.150,00</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>8.416,29</t>
+          <t>5.248,87</t>
         </is>
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>9.300,00</t>
+          <t>5.800,00</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>26,75</t>
+          <t>26,48</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t xml:space="preserve">47BB </t>
+          <t xml:space="preserve">20YC </t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -20563,22 +20563,22 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480361 </t>
+          <t xml:space="preserve">7798328480071 </t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 500cm3 La Choza (NO</t>
+          <t>Yogurth bebible frutilla 1LT La Choza (NO in</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 500cm3 La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible frutilla 1LT La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutilla en menor cantidad, ideal para un snack rápido y sabroso.</t>
+          <t>Yogurth bebible de frutilla, delicioso y refrescante, perfecto para disfrutar en cualquier momento.</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -20614,29 +20614,29 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>4.000,00</t>
+          <t>6.640,00</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>5.067,87</t>
+          <t>8.416,29</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>5.600,00</t>
+          <t>9.300,00</t>
         </is>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>26,70</t>
+          <t>26,75</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t xml:space="preserve">63AA </t>
+          <t xml:space="preserve">47BB </t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -20646,22 +20646,22 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480057 </t>
+          <t xml:space="preserve">7798328480361 </t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutos rojos 1 LT La Choza (</t>
+          <t>Yogurth bebible frutilla 500cm3 La Choza (NO</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutos rojos 1 LT La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible frutilla 500cm3 La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutos rojos, rico en sabor y nutrientes, ideal para un desayuno o merienda.</t>
+          <t>Yogurth bebible de frutilla en menor cantidad, ideal para un snack rápido y sabroso.</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -20697,29 +20697,29 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>6.790,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>8.597,29</t>
+          <t>5.067,87</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>9.500,00</t>
+          <t>5.600,00</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>26,62</t>
+          <t>26,70</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t xml:space="preserve">85ST </t>
+          <t xml:space="preserve">63AA </t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -20729,25 +20729,29 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve">325225 </t>
+          <t xml:space="preserve">7798328480057 </t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Yogurth griego 170g KAY</t>
+          <t>Yogurth bebible frutos rojos 1 LT La Choza (</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Yogurth griego 170g KAY</t>
+          <t>Yogurth bebible frutos rojos 1 LT La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Yogurth griego, cremoso y rico en proteínas, ideal para disfrutar solo o con frutas.</t>
-        </is>
-      </c>
-      <c r="G254" t="inlineStr"/>
+          <t>Yogurth bebible de frutos rojos, rico en sabor y nutrientes, ideal para un desayuno o merienda.</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
@@ -20761,7 +20765,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -20771,34 +20775,34 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>18/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>3.390,00</t>
+          <t>6.790,00</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>5.123,97</t>
+          <t>8.597,29</t>
         </is>
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>9.500,00</t>
         </is>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>51,15</t>
+          <t>26,62</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve">12DU </t>
+          <t xml:space="preserve">85ST </t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -20808,22 +20812,22 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve">125151421 </t>
+          <t xml:space="preserve">325225 </t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Yogurth griego 400g KAY</t>
+          <t>Yogurth griego 170g KAY</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Yogurth griego 400g KAY</t>
+          <t>Yogurth griego 170g KAY</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Yogurth griego, perfecto para quienes buscan un snack saludable y nutritivo.</t>
+          <t>Yogurth griego, cremoso y rico en proteínas, ideal para disfrutar solo o con frutas.</t>
         </is>
       </c>
       <c r="G255" t="inlineStr"/>
@@ -20855,29 +20859,29 @@
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>7.270,00</t>
+          <t>3.390,00</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>11.157,02</t>
+          <t>5.123,97</t>
         </is>
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>13.500,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>53,47</t>
+          <t>51,15</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve">73AZ </t>
+          <t xml:space="preserve">12DU </t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -20887,22 +20891,22 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t xml:space="preserve">4123241 </t>
+          <t xml:space="preserve">125151421 </t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 200g</t>
+          <t>Yogurth griego 400g KAY</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 200g</t>
+          <t>Yogurth griego 400g KAY</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+          <t>Yogurth griego, perfecto para quienes buscan un snack saludable y nutritivo.</t>
         </is>
       </c>
       <c r="G256" t="inlineStr"/>
@@ -20929,34 +20933,34 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>18/08/2025</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>7.270,00</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>11.157,02</t>
         </is>
       </c>
       <c r="P256" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>13.500,00</t>
         </is>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>53,47</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t xml:space="preserve">85LG </t>
+          <t xml:space="preserve">73AZ </t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -20966,17 +20970,17 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t xml:space="preserve">42355322 </t>
+          <t xml:space="preserve">4123241 </t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 370g</t>
+          <t>Yogurth griego natural ghurt 200g</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 370g</t>
+          <t>Yogurth griego natural ghurt 200g</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -20984,11 +20988,7 @@
           <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>Camila GHURTH yogurth griego</t>
-        </is>
-      </c>
+      <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
@@ -21017,29 +21017,29 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>5.600,00</t>
+          <t>3.000,00</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>7.685,95</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>9.300,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>37,25</t>
+          <t>37,74</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t xml:space="preserve">49HA </t>
+          <t xml:space="preserve">85LG </t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -21049,17 +21049,17 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t xml:space="preserve">21712414 </t>
+          <t xml:space="preserve">42355322 </t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 750g</t>
+          <t>Yogurth griego natural ghurt 370g</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 750g</t>
+          <t>Yogurth griego natural ghurt 370g</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -21067,7 +21067,11 @@
           <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr"/>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Camila GHURTH yogurth griego</t>
+        </is>
+      </c>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
@@ -21096,20 +21100,99 @@
       </c>
       <c r="N258" t="inlineStr">
         <is>
+          <t>5.600,00</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>7.685,95</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>9.300,00</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>37,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49HA </t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21712414 </t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 750g</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 750g</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>Lacteos</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
           <t>10.800,00</t>
         </is>
       </c>
-      <c r="O258" t="inlineStr">
+      <c r="O259" t="inlineStr">
         <is>
           <t>14.462,81</t>
         </is>
       </c>
-      <c r="P258" t="inlineStr">
+      <c r="P259" t="inlineStr">
         <is>
           <t>17.500,00</t>
         </is>
       </c>
-      <c r="Q258" t="inlineStr">
+      <c r="Q259" t="inlineStr">
         <is>
           <t>33,91</t>
         </is>
